--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -300,13 +300,67 @@
   </si>
   <si>
     <t>TSTAUTO-1</t>
+  </si>
+  <si>
+    <t>CreateSubJob</t>
+  </si>
+  <si>
+    <t>PostVendorJournal</t>
+  </si>
+  <si>
+    <t>CreateExpenses</t>
+  </si>
+  <si>
+    <t>Approve_Expenses_Opco</t>
+  </si>
+  <si>
+    <t>Reject_Expenses</t>
+  </si>
+  <si>
+    <t>Post_a_Customer_Payment</t>
+  </si>
+  <si>
+    <t>Customer_Payment_for_Single_Invoice</t>
+  </si>
+  <si>
+    <t>Writing_Off_Bad_Debts</t>
+  </si>
+  <si>
+    <t>Create_Fixed_Asset</t>
+  </si>
+  <si>
+    <t>PostingAssetEntires</t>
+  </si>
+  <si>
+    <t>FixedAssetDisposal</t>
+  </si>
+  <si>
+    <t>FixedAssetReval</t>
+  </si>
+  <si>
+    <t>FixedAssetDepreciation</t>
+  </si>
+  <si>
+    <t>ChangeEmployee</t>
+  </si>
+  <si>
+    <t>CreateUser</t>
+  </si>
+  <si>
+    <t>ChangeUser</t>
+  </si>
+  <si>
+    <t>BlockUser</t>
+  </si>
+  <si>
+    <t>TSTAUTO7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +387,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -529,6 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -812,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,6 +1235,104 @@
       </c>
       <c r="C16" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1602,12 +1762,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1808,15 +1965,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1841,10 +2002,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="163">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -354,6 +354,171 @@
   </si>
   <si>
     <t>TSTAUTO7</t>
+  </si>
+  <si>
+    <t>TSTAUTO44</t>
+  </si>
+  <si>
+    <t>TSTAUTO8</t>
+  </si>
+  <si>
+    <t>TSTAUTO46</t>
+  </si>
+  <si>
+    <t>TSTAUTO10</t>
+  </si>
+  <si>
+    <t>TSTAUTO50</t>
+  </si>
+  <si>
+    <t>TSTAUTO14</t>
+  </si>
+  <si>
+    <t>TSTAUTO47</t>
+  </si>
+  <si>
+    <t>TSTAUTO11</t>
+  </si>
+  <si>
+    <t>TSTAUTO49</t>
+  </si>
+  <si>
+    <t>TSTAUTO13</t>
+  </si>
+  <si>
+    <t>TSTAUTO48</t>
+  </si>
+  <si>
+    <t>TSTAUTO12</t>
+  </si>
+  <si>
+    <t>TSTAUTO62</t>
+  </si>
+  <si>
+    <t>TSTAUTO26</t>
+  </si>
+  <si>
+    <t>TSTAUTO63</t>
+  </si>
+  <si>
+    <t>TSTAUTO27</t>
+  </si>
+  <si>
+    <t>TSTAUTO64</t>
+  </si>
+  <si>
+    <t>TSTAUTO28</t>
+  </si>
+  <si>
+    <t>TSTAUTO39</t>
+  </si>
+  <si>
+    <t>TSTAUTO3</t>
+  </si>
+  <si>
+    <t>TSTAUTO56</t>
+  </si>
+  <si>
+    <t>TSTAUTO20</t>
+  </si>
+  <si>
+    <t>TSTAUTO55</t>
+  </si>
+  <si>
+    <t>TSTAUTO19</t>
+  </si>
+  <si>
+    <t>TSTAUTO40</t>
+  </si>
+  <si>
+    <t>TSTAUTO4</t>
+  </si>
+  <si>
+    <t>TSTAUTO42</t>
+  </si>
+  <si>
+    <t>TSTAUTO6</t>
+  </si>
+  <si>
+    <t>TSTAUTO43</t>
+  </si>
+  <si>
+    <t>TSTAUTO65</t>
+  </si>
+  <si>
+    <t>TSTAUTO29</t>
+  </si>
+  <si>
+    <t>TSTAUTO38</t>
+  </si>
+  <si>
+    <t>TSTAUTO2</t>
+  </si>
+  <si>
+    <t>TSTAUTO53</t>
+  </si>
+  <si>
+    <t>TSTAUTO17</t>
+  </si>
+  <si>
+    <t>TSTAUTO52</t>
+  </si>
+  <si>
+    <t>TSTAUTO16</t>
+  </si>
+  <si>
+    <t>TSTAUTO71</t>
+  </si>
+  <si>
+    <t>TSTAUTO35</t>
+  </si>
+  <si>
+    <t>TSTAUTO69</t>
+  </si>
+  <si>
+    <t>TSTAUTO33</t>
+  </si>
+  <si>
+    <t>TSTAUTO73</t>
+  </si>
+  <si>
+    <t>TSTAUTO37</t>
+  </si>
+  <si>
+    <t>TSTAUTO59</t>
+  </si>
+  <si>
+    <t>TSTAUTO23</t>
+  </si>
+  <si>
+    <t>TSTAUTO60</t>
+  </si>
+  <si>
+    <t>TSTAUTO24</t>
+  </si>
+  <si>
+    <t>TSTAUTO61</t>
+  </si>
+  <si>
+    <t>TSTAUTO25</t>
+  </si>
+  <si>
+    <t>TSTAUTO57</t>
+  </si>
+  <si>
+    <t>TSTAUTO21</t>
+  </si>
+  <si>
+    <t>TSTAUTO41</t>
+  </si>
+  <si>
+    <t>TSTAUTO5</t>
+  </si>
+  <si>
+    <t>TSTAUTO58</t>
+  </si>
+  <si>
+    <t>TSTAUTO22</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,160 +1252,163 @@
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
+      <c r="B3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+      <c r="B4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
+      <c r="B5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
+      <c r="B6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
+      <c r="B7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
+      <c r="B8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
+      <c r="B9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
+      <c r="B10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
+      <c r="B11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
+      <c r="B12" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
+      <c r="B13" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
+      <c r="B14" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
+      <c r="B15" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
+      <c r="B16" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="B17" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="C17" s="18" t="s">
         <v>107</v>
       </c>
@@ -1249,90 +1417,176 @@
       <c r="A18" s="17" t="s">
         <v>91</v>
       </c>
+      <c r="B18" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>92</v>
       </c>
+      <c r="B19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>93</v>
       </c>
+      <c r="B20" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>94</v>
       </c>
+      <c r="B21" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
+      <c r="B22" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>96</v>
       </c>
+      <c r="B23" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>97</v>
       </c>
+      <c r="B24" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>98</v>
       </c>
+      <c r="B25" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>99</v>
       </c>
+      <c r="B26" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>100</v>
       </c>
+      <c r="B27" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>101</v>
       </c>
+      <c r="B28" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>102</v>
       </c>
+      <c r="B29" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>34</v>
+        <v>103</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>35</v>
+        <v>104</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
         <v>106</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1762,9 +2016,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1965,19 +2222,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2002,9 +2255,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -353,172 +353,172 @@
     <t>BlockUser</t>
   </si>
   <si>
-    <t>TSTAUTO7</t>
-  </si>
-  <si>
-    <t>TSTAUTO44</t>
-  </si>
-  <si>
-    <t>TSTAUTO8</t>
-  </si>
-  <si>
-    <t>TSTAUTO46</t>
-  </si>
-  <si>
-    <t>TSTAUTO10</t>
-  </si>
-  <si>
-    <t>TSTAUTO50</t>
-  </si>
-  <si>
-    <t>TSTAUTO14</t>
-  </si>
-  <si>
-    <t>TSTAUTO47</t>
-  </si>
-  <si>
-    <t>TSTAUTO11</t>
-  </si>
-  <si>
-    <t>TSTAUTO49</t>
-  </si>
-  <si>
-    <t>TSTAUTO13</t>
-  </si>
-  <si>
-    <t>TSTAUTO48</t>
-  </si>
-  <si>
-    <t>TSTAUTO12</t>
-  </si>
-  <si>
-    <t>TSTAUTO62</t>
-  </si>
-  <si>
-    <t>TSTAUTO26</t>
-  </si>
-  <si>
-    <t>TSTAUTO63</t>
-  </si>
-  <si>
-    <t>TSTAUTO27</t>
-  </si>
-  <si>
-    <t>TSTAUTO64</t>
-  </si>
-  <si>
-    <t>TSTAUTO28</t>
-  </si>
-  <si>
     <t>TSTAUTO39</t>
   </si>
   <si>
-    <t>TSTAUTO3</t>
-  </si>
-  <si>
-    <t>TSTAUTO56</t>
-  </si>
-  <si>
-    <t>TSTAUTO20</t>
-  </si>
-  <si>
-    <t>TSTAUTO55</t>
-  </si>
-  <si>
-    <t>TSTAUTO19</t>
-  </si>
-  <si>
-    <t>TSTAUTO40</t>
-  </si>
-  <si>
-    <t>TSTAUTO4</t>
-  </si>
-  <si>
-    <t>TSTAUTO42</t>
-  </si>
-  <si>
-    <t>TSTAUTO6</t>
-  </si>
-  <si>
-    <t>TSTAUTO43</t>
-  </si>
-  <si>
-    <t>TSTAUTO65</t>
-  </si>
-  <si>
-    <t>TSTAUTO29</t>
-  </si>
-  <si>
-    <t>TSTAUTO38</t>
-  </si>
-  <si>
-    <t>TSTAUTO2</t>
-  </si>
-  <si>
-    <t>TSTAUTO53</t>
-  </si>
-  <si>
-    <t>TSTAUTO17</t>
-  </si>
-  <si>
-    <t>TSTAUTO52</t>
-  </si>
-  <si>
-    <t>TSTAUTO16</t>
-  </si>
-  <si>
-    <t>TSTAUTO71</t>
-  </si>
-  <si>
-    <t>TSTAUTO35</t>
-  </si>
-  <si>
-    <t>TSTAUTO69</t>
-  </si>
-  <si>
-    <t>TSTAUTO33</t>
-  </si>
-  <si>
-    <t>TSTAUTO73</t>
-  </si>
-  <si>
-    <t>TSTAUTO37</t>
-  </si>
-  <si>
-    <t>TSTAUTO59</t>
-  </si>
-  <si>
-    <t>TSTAUTO23</t>
-  </si>
-  <si>
-    <t>TSTAUTO60</t>
-  </si>
-  <si>
-    <t>TSTAUTO24</t>
-  </si>
-  <si>
-    <t>TSTAUTO61</t>
-  </si>
-  <si>
-    <t>TSTAUTO25</t>
-  </si>
-  <si>
-    <t>TSTAUTO57</t>
-  </si>
-  <si>
-    <t>TSTAUTO21</t>
-  </si>
-  <si>
-    <t>TSTAUTO41</t>
-  </si>
-  <si>
-    <t>TSTAUTO5</t>
-  </si>
-  <si>
-    <t>TSTAUTO58</t>
-  </si>
-  <si>
-    <t>TSTAUTO22</t>
+    <t>TSTAUTO-37</t>
+  </si>
+  <si>
+    <t>TSTAUTO-44</t>
+  </si>
+  <si>
+    <t>TSTAUTO-8</t>
+  </si>
+  <si>
+    <t>TSTAUTO-46</t>
+  </si>
+  <si>
+    <t>TSTAUTO-10</t>
+  </si>
+  <si>
+    <t>TSTAUTO-50</t>
+  </si>
+  <si>
+    <t>TSTAUTO-14</t>
+  </si>
+  <si>
+    <t>TSTAUTO-47</t>
+  </si>
+  <si>
+    <t>TSTAUTO-11</t>
+  </si>
+  <si>
+    <t>TSTAUTO-49</t>
+  </si>
+  <si>
+    <t>TSTAUTO-13</t>
+  </si>
+  <si>
+    <t>TSTAUTO-48</t>
+  </si>
+  <si>
+    <t>TSTAUTO-12</t>
+  </si>
+  <si>
+    <t>TSTAUTO-62</t>
+  </si>
+  <si>
+    <t>TSTAUTO-26</t>
+  </si>
+  <si>
+    <t>TSTAUTO-63</t>
+  </si>
+  <si>
+    <t>TSTAUTO-27</t>
+  </si>
+  <si>
+    <t>TSTAUTO-64</t>
+  </si>
+  <si>
+    <t>TSTAUTO-28</t>
+  </si>
+  <si>
+    <t>TSTAUTO-3</t>
+  </si>
+  <si>
+    <t>TSTAUTO-56</t>
+  </si>
+  <si>
+    <t>TSTAUTO-20</t>
+  </si>
+  <si>
+    <t>TSTAUTO-55</t>
+  </si>
+  <si>
+    <t>TSTAUTO-19</t>
+  </si>
+  <si>
+    <t>TSTAUTO-40</t>
+  </si>
+  <si>
+    <t>TSTAUTO-4</t>
+  </si>
+  <si>
+    <t>TSTAUTO-42</t>
+  </si>
+  <si>
+    <t>TSTAUTO-6</t>
+  </si>
+  <si>
+    <t>TSTAUTO-43</t>
+  </si>
+  <si>
+    <t>TSTAUTO-7</t>
+  </si>
+  <si>
+    <t>TSTAUTO-65</t>
+  </si>
+  <si>
+    <t>TSTAUTO-29</t>
+  </si>
+  <si>
+    <t>TSTAUTO-38</t>
+  </si>
+  <si>
+    <t>TSTAUTO-2</t>
+  </si>
+  <si>
+    <t>TSTAUTO-53</t>
+  </si>
+  <si>
+    <t>TSTAUTO-17</t>
+  </si>
+  <si>
+    <t>TSTAUTO-52</t>
+  </si>
+  <si>
+    <t>TSTAUTO-16</t>
+  </si>
+  <si>
+    <t>TSTAUTO-71</t>
+  </si>
+  <si>
+    <t>TSTAUTO-35</t>
+  </si>
+  <si>
+    <t>TSTAUTO-69</t>
+  </si>
+  <si>
+    <t>TSTAUTO-33</t>
+  </si>
+  <si>
+    <t>TSTAUTO-73</t>
+  </si>
+  <si>
+    <t>TSTAUTO-59</t>
+  </si>
+  <si>
+    <t>TSTAUTO-23</t>
+  </si>
+  <si>
+    <t>TSTAUTO-60</t>
+  </si>
+  <si>
+    <t>TSTAUTO-24</t>
+  </si>
+  <si>
+    <t>TSTAUTO-61</t>
+  </si>
+  <si>
+    <t>TSTAUTO-25</t>
+  </si>
+  <si>
+    <t>TSTAUTO-57</t>
+  </si>
+  <si>
+    <t>TSTAUTO-21</t>
+  </si>
+  <si>
+    <t>TSTAUTO-41</t>
+  </si>
+  <si>
+    <t>TSTAUTO-5</t>
+  </si>
+  <si>
+    <t>TSTAUTO-58</t>
+  </si>
+  <si>
+    <t>TSTAUTO-22</t>
   </si>
 </sst>
 </file>
@@ -1216,14 +1216,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1242,7 +1242,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -1253,10 +1253,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,10 +1264,10 @@
         <v>86</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,10 +1275,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
         <v>81</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,10 +1308,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,10 +1319,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,10 +1330,10 @@
         <v>84</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,10 +1341,10 @@
         <v>85</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>127</v>
@@ -1410,7 +1410,7 @@
         <v>136</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
         <v>91</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,10 +1429,10 @@
         <v>92</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,10 +1440,10 @@
         <v>93</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,10 +1451,10 @@
         <v>94</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,10 +1462,10 @@
         <v>95</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,10 +1473,10 @@
         <v>96</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,10 +1484,10 @@
         <v>97</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2016,12 +2016,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2222,15 +2219,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2255,10 +2256,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1307</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2016,9 +2016,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2219,19 +2222,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2256,9 +2255,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="165">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>TSTAUTO-22</t>
+  </si>
+  <si>
+    <t>BlockGlobalClient</t>
+  </si>
+  <si>
+    <t>BlockGlobalBrand</t>
   </si>
 </sst>
 </file>
@@ -1039,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,9 +1185,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1206,6 +1212,11 @@
         <v>1307</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1214,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,6 +1597,28 @@
         <v>161</v>
       </c>
       <c r="C33" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>162</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -281,9 +281,6 @@
     <t>CreateVendorInvoice</t>
   </si>
   <si>
-    <t>Regression</t>
-  </si>
-  <si>
     <t>ApproveVendorInvoice</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>BlockGlobalBrand</t>
+  </si>
+  <si>
+    <t>Full_Regression</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1284</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1253,10 +1253,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,21 +1264,21 @@
         <v>37</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,10 +1308,10 @@
         <v>81</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,10 +1319,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,32 +1330,32 @@
         <v>82</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,32 +1363,32 @@
         <v>33</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,10 +1396,10 @@
         <v>34</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,219 +1407,219 @@
         <v>35</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2049,12 +2049,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2255,15 +2252,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2288,10 +2289,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="166">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -524,7 +524,10 @@
     <t>BlockGlobalBrand</t>
   </si>
   <si>
-    <t>Full_Regression</t>
+    <t>BlockGlobalVendor</t>
+  </si>
+  <si>
+    <t>Critical_Regression</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,6 +1622,17 @@
         <v>160</v>
       </c>
       <c r="C35" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>161</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="171">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -528,6 +528,21 @@
   </si>
   <si>
     <t>Critical_Regression</t>
+  </si>
+  <si>
+    <t>BlockCompanyBrand</t>
+  </si>
+  <si>
+    <t>BlockCompanyClient</t>
+  </si>
+  <si>
+    <t>BlockCompanyProduct</t>
+  </si>
+  <si>
+    <t>BlockGlobalProduct</t>
+  </si>
+  <si>
+    <t>BlockCompanyVendor</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1228,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,6 +1648,61 @@
         <v>160</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2069,6 +2139,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2265,15 +2344,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
@@ -2284,6 +2354,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2300,12 +2378,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="173">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>BlockCompanyVendor</t>
+  </si>
+  <si>
+    <t>AmendGlobalClient</t>
+  </si>
+  <si>
+    <t>AmendGlobalBrand</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B42" sqref="B42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,6 +1709,28 @@
         <v>160</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2133,21 +2161,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2344,24 +2357,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2378,4 +2389,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,6 +1237,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1712</v>
+      </c>
       <c r="B3">
         <v>1284</v>
       </c>
@@ -1251,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42:C43"/>
     </sheetView>
   </sheetViews>
@@ -2161,6 +2164,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2357,15 +2369,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2373,6 +2376,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2391,14 +2402,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -350,9 +350,6 @@
     <t>BlockUser</t>
   </si>
   <si>
-    <t>TSTAUTO39</t>
-  </si>
-  <si>
     <t>TSTAUTO-37</t>
   </si>
   <si>
@@ -549,6 +546,9 @@
   </si>
   <si>
     <t>AmendGlobalBrand</t>
+  </si>
+  <si>
+    <t>TSTAUTO-39</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1280,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
@@ -1291,10 +1291,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,10 +1302,10 @@
         <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,10 +1313,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,10 +1324,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,10 +1335,10 @@
         <v>81</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,10 +1357,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,10 +1368,10 @@
         <v>83</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,10 +1379,10 @@
         <v>84</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,10 +1390,10 @@
         <v>33</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>86</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,10 +1412,10 @@
         <v>87</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,10 +1423,10 @@
         <v>34</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,10 +1434,10 @@
         <v>35</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,10 +1445,10 @@
         <v>89</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,10 +1456,10 @@
         <v>90</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,10 +1467,10 @@
         <v>91</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,10 +1478,10 @@
         <v>92</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,10 +1489,10 @@
         <v>93</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,10 +1500,10 @@
         <v>94</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,10 +1511,10 @@
         <v>95</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,10 +1522,10 @@
         <v>96</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,10 +1533,10 @@
         <v>97</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,10 +1544,10 @@
         <v>98</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1555,10 +1555,10 @@
         <v>99</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,10 +1566,10 @@
         <v>100</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1577,10 +1577,10 @@
         <v>101</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>154</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,10 +1588,10 @@
         <v>102</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,10 +1599,10 @@
         <v>103</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1610,10 +1610,10 @@
         <v>104</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,120 +1621,120 @@
         <v>105</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B35" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2164,15 +2164,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2369,21 +2360,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2402,11 +2394,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="176">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -549,6 +549,15 @@
   </si>
   <si>
     <t>TSTAUTO-39</t>
+  </si>
+  <si>
+    <t>UATAPAC</t>
+  </si>
+  <si>
+    <t>uatapac</t>
+  </si>
+  <si>
+    <t>https://wpp-uatapac.deltekenterprise.com</t>
   </si>
 </sst>
 </file>
@@ -756,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -786,6 +795,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1069,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1209,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1254,21 @@
       </c>
       <c r="B3">
         <v>1284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2096,20 +2123,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -2119,8 +2146,11 @@
       <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -2130,8 +2160,11 @@
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
@@ -2141,8 +2174,11 @@
       <c r="C3" s="13">
         <v>443</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="13">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -2151,15 +2187,19 @@
       </c>
       <c r="C4" s="14" t="s">
         <v>23</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2361,18 +2401,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2395,18 +2435,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1228</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,18 +2401,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2435,18 +2435,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -122,9 +122,6 @@
     <t>CycleName</t>
   </si>
   <si>
-    <t>TestCycle1</t>
-  </si>
-  <si>
     <t>Test Summary</t>
   </si>
   <si>
@@ -558,6 +555,12 @@
   </si>
   <si>
     <t>https://wpp-uatapac.deltekenterprise.com</t>
+  </si>
+  <si>
+    <t>CreateClient</t>
+  </si>
+  <si>
+    <t>TSTAUTO-77</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +1163,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1181,11 +1184,12 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>12</v>
@@ -1196,10 +1200,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1207,7 +1211,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1231,13 +1235,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,475 +1297,483 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>160</v>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1808,7 @@
         <v>1201</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1816,7 @@
         <v>1322</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1824,7 @@
         <v>1314</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1832,7 @@
         <v>1319</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1828,7 +1840,7 @@
         <v>1307</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,7 +1848,7 @@
         <v>1204</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1844,7 +1856,7 @@
         <v>1213</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,7 +1864,7 @@
         <v>1284</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1860,7 +1872,7 @@
         <v>1271</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1868,7 +1880,7 @@
         <v>1205</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1876,7 +1888,7 @@
         <v>1240</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,7 +1896,7 @@
         <v>1228</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1904,7 @@
         <v>1315</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1912,7 @@
         <v>1309</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1920,7 @@
         <v>1318</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1928,7 @@
         <v>1321</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1936,7 @@
         <v>1301</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,7 +1944,7 @@
         <v>1295</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,7 +1952,7 @@
         <v>1289</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +1960,7 @@
         <v>1216</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +1968,7 @@
         <v>1285</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,7 +1976,7 @@
         <v>1273</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,7 +1984,7 @@
         <v>1269</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +1992,7 @@
         <v>1263</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,7 +2000,7 @@
         <v>1221</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,7 +2008,7 @@
         <v>1253</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2016,7 @@
         <v>1203</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,7 +2024,7 @@
         <v>1246</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2020,7 +2032,7 @@
         <v>1229</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2040,7 @@
         <v>1239</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2048,7 @@
         <v>1296</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +2056,7 @@
         <v>1304</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2064,7 @@
         <v>1214</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2072,7 @@
         <v>1330</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2159,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2161,7 +2173,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2189,7 +2201,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2204,6 +2216,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2400,22 +2427,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2432,21 +2461,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="180">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t>TSTAUTO-77</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSTAUTO-78 </t>
   </si>
 </sst>
 </file>
@@ -768,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -801,6 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1085,7 +1095,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1187,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,6 +1226,9 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,15 +1238,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1243,16 +1256,22 @@
       <c r="C1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
       <c r="B2">
         <v>1307</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
@@ -1260,17 +1279,17 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1319</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1228</v>
       </c>
@@ -1283,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1314,7 @@
     <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1305,8 +1324,11 @@
       <c r="C1" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -1317,7 +1339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>36</v>
       </c>
@@ -1328,7 +1350,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>84</v>
       </c>
@@ -1339,7 +1361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
@@ -1350,7 +1372,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>38</v>
       </c>
@@ -1361,7 +1383,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>80</v>
       </c>
@@ -1372,7 +1394,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
@@ -1383,7 +1405,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>81</v>
       </c>
@@ -1394,7 +1416,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>82</v>
       </c>
@@ -1405,7 +1427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>83</v>
       </c>
@@ -1416,7 +1438,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
@@ -1427,7 +1449,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>85</v>
       </c>
@@ -1438,7 +1460,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>86</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>33</v>
       </c>
@@ -1460,7 +1482,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>34</v>
       </c>
@@ -1647,7 +1669,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>104</v>
       </c>
@@ -1658,7 +1680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -1669,7 +1691,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -1691,7 +1713,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -1702,7 +1724,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -1713,7 +1735,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>166</v>
       </c>
@@ -1724,7 +1746,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>167</v>
       </c>
@@ -1735,7 +1757,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>168</v>
       </c>
@@ -1746,7 +1768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>169</v>
       </c>
@@ -1757,7 +1779,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -1768,12 +1790,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>175</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>176</v>
+      </c>
+      <c r="D44" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2225,12 +2250,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2427,6 +2446,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
@@ -2436,15 +2461,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2461,4 +2477,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1517</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,12 +2241,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2447,15 +2444,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2480,10 +2481,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1094,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2162,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,9 +2241,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2444,19 +2447,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2481,9 +2480,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2241,12 +2241,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2447,15 +2444,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2480,10 +2481,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1094,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,9 +2241,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2444,19 +2447,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2481,9 +2480,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Test_Environment_25-2-2020\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="184">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -570,6 +570,18 @@
   </si>
   <si>
     <t xml:space="preserve">TSTAUTO-78 </t>
+  </si>
+  <si>
+    <t>CreateGlobalVendor</t>
+  </si>
+  <si>
+    <t>TSTAUTO-85</t>
+  </si>
+  <si>
+    <t>TSTAUTO-92</t>
+  </si>
+  <si>
+    <t>TSTAUTO-93</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,6 +1790,9 @@
       <c r="C42" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D42" s="18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1789,6 +1804,9 @@
       <c r="C43" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D43" s="18" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1799,6 +1817,14 @@
       </c>
       <c r="D44" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2241,12 +2267,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2447,15 +2470,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2480,10 +2507,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,9 +2267,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2470,19 +2473,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2507,9 +2506,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="188">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -582,6 +582,18 @@
   </si>
   <si>
     <t>TSTAUTO-93</t>
+  </si>
+  <si>
+    <t>TSTAUTO-94</t>
+  </si>
+  <si>
+    <t>TSTAUTO-95</t>
+  </si>
+  <si>
+    <t>TSTAUTO-83</t>
+  </si>
+  <si>
+    <t>TSTAUTO-96</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,7 +1709,7 @@
         <v>160</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>159</v>
@@ -1708,7 +1720,7 @@
         <v>161</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>159</v>
@@ -1785,7 +1797,7 @@
         <v>169</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>159</v>
@@ -1799,7 +1811,7 @@
         <v>170</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>159</v>
@@ -2267,12 +2279,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2473,15 +2482,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2506,10 +2527,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="182">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t xml:space="preserve">TSTAUTO-78 </t>
+  </si>
+  <si>
+    <t>TSTAUTO-93</t>
+  </si>
+  <si>
+    <t>TSTAUTO-92</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1311,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,6 +1784,9 @@
       <c r="C42" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D42" s="18" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1788,6 +1797,9 @@
       </c>
       <c r="C43" s="18" t="s">
         <v>159</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,12 +2253,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2447,15 +2456,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2480,10 +2493,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1339,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="182">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,6 +1808,9 @@
       </c>
       <c r="B44" s="18" t="s">
         <v>176</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="D44" t="s">
         <v>179</v>
@@ -2122,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,9 +2256,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2456,19 +2462,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2493,9 +2495,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="217">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -560,9 +560,6 @@
     <t>CreateClient</t>
   </si>
   <si>
-    <t>TSTAUTO-77</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -576,6 +573,114 @@
   </si>
   <si>
     <t>TSTAUTO-92</t>
+  </si>
+  <si>
+    <t>CreateGlobalBrand</t>
+  </si>
+  <si>
+    <t>CreateGlobalProduct</t>
+  </si>
+  <si>
+    <t>CreateCompanyClient</t>
+  </si>
+  <si>
+    <t>CreateCompanyBrand</t>
+  </si>
+  <si>
+    <t>CreateCompanyProduct</t>
+  </si>
+  <si>
+    <t>CreateGlobalVendor</t>
+  </si>
+  <si>
+    <t>CompanyVendor</t>
+  </si>
+  <si>
+    <t>AmendComapnyVendor</t>
+  </si>
+  <si>
+    <t>AmendGlobalVendor</t>
+  </si>
+  <si>
+    <t>AmendCompanyProduct</t>
+  </si>
+  <si>
+    <t>AmendCompanyBrand</t>
+  </si>
+  <si>
+    <t>AmendCompanyClient</t>
+  </si>
+  <si>
+    <t>AmendGlobalProduct</t>
+  </si>
+  <si>
+    <t>TSTAUTO-96</t>
+  </si>
+  <si>
+    <t>TSTAUTO-91</t>
+  </si>
+  <si>
+    <t>TSTAUTO-94</t>
+  </si>
+  <si>
+    <t>TSTAUTO-90</t>
+  </si>
+  <si>
+    <t>TSTAUTO-85</t>
+  </si>
+  <si>
+    <t>TSTAUTO-78</t>
+  </si>
+  <si>
+    <t>TSTAUTO-97</t>
+  </si>
+  <si>
+    <t>TSTAUTO-98</t>
+  </si>
+  <si>
+    <t>TSTAUTO-99</t>
+  </si>
+  <si>
+    <t>TSTAUTO-100</t>
+  </si>
+  <si>
+    <t>TSTAUTO-101</t>
+  </si>
+  <si>
+    <t>TSTAUTO-102</t>
+  </si>
+  <si>
+    <t>TSTAUTO-103</t>
+  </si>
+  <si>
+    <t>TSTAUTO-104</t>
+  </si>
+  <si>
+    <t>TSTAUTO-105</t>
+  </si>
+  <si>
+    <t>TSTAUTO-107</t>
+  </si>
+  <si>
+    <t>TSTAUTO-108</t>
+  </si>
+  <si>
+    <t>TSTAUTO-109</t>
+  </si>
+  <si>
+    <t>TSTAUTO-110</t>
+  </si>
+  <si>
+    <t>TSTAUTO-111</t>
+  </si>
+  <si>
+    <t>TSTAUTO-112</t>
+  </si>
+  <si>
+    <t>TSTAUTO-114</t>
+  </si>
+  <si>
+    <t>TSTAUTO-113</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1338,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1368,7 @@
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1308,16 +1413,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1331,7 +1437,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,55 +1793,55 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="17" t="s">
         <v>160</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>162</v>
+      <c r="A36" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>164</v>
+      <c r="A37" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>165</v>
+      <c r="A38" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>159</v>
@@ -1743,10 +1849,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>159</v>
@@ -1754,66 +1860,209 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D40" s="18" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D41" s="18" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>169</v>
+      <c r="A42" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>170</v>
-      </c>
       <c r="B43" s="18" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>175</v>
+      <c r="A44" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D44" t="s">
-        <v>179</v>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,6 +2505,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2513,7 +2519,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2710,13 +2716,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2724,7 +2733,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2741,13 +2750,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,21 +2505,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2716,24 +2701,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2750,4 +2733,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -641,9 +641,6 @@
     <t>TSTAUTO-99</t>
   </si>
   <si>
-    <t>TSTAUTO-100</t>
-  </si>
-  <si>
     <t>TSTAUTO-101</t>
   </si>
   <si>
@@ -681,6 +678,9 @@
   </si>
   <si>
     <t>TSTAUTO-113</t>
+  </si>
+  <si>
+    <t>TSTAUTO-115</t>
   </si>
 </sst>
 </file>
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1830,7 @@
         <v>165</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>159</v>
@@ -1841,7 +1841,7 @@
         <v>166</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>159</v>
@@ -1927,7 +1927,7 @@
         <v>183</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>159</v>
@@ -1938,7 +1938,7 @@
         <v>184</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>159</v>
@@ -1949,7 +1949,7 @@
         <v>185</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>159</v>
@@ -1971,7 +1971,7 @@
         <v>187</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>159</v>
@@ -1982,7 +1982,7 @@
         <v>188</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>159</v>
@@ -1993,7 +1993,7 @@
         <v>189</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>159</v>
@@ -2004,7 +2004,7 @@
         <v>168</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>159</v>
@@ -2015,7 +2015,7 @@
         <v>162</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>159</v>
@@ -2026,7 +2026,7 @@
         <v>190</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>159</v>
@@ -2037,7 +2037,7 @@
         <v>191</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>159</v>
@@ -2048,7 +2048,7 @@
         <v>192</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>159</v>
@@ -2059,7 +2059,7 @@
         <v>193</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>159</v>
@@ -2505,6 +2505,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2701,22 +2716,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2733,21 +2758,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="219">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>TSTAUTO-115</t>
+  </si>
+  <si>
+    <t>TSTAUTO-116</t>
+  </si>
+  <si>
+    <t>CreateAGeneralJournal</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,6 +2069,17 @@
       </c>
       <c r="C57" s="18" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2505,21 +2522,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2716,32 +2718,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2758,4 +2750,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="224">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -687,6 +687,21 @@
   </si>
   <si>
     <t>CreateAGeneralJournal</t>
+  </si>
+  <si>
+    <t>Current Release Name</t>
+  </si>
+  <si>
+    <t>Release 2</t>
+  </si>
+  <si>
+    <t>Current Cycle Name</t>
+  </si>
+  <si>
+    <t>ReverseAGeneralJournal</t>
+  </si>
+  <si>
+    <t>TSTAUTO-117</t>
   </si>
 </sst>
 </file>
@@ -752,7 +767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -889,12 +904,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -928,6 +958,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1419,17 +1452,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1447,294 +1481,296 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+      <c r="A2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>107</v>
+      <c r="A3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>109</v>
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>150</v>
@@ -1745,65 +1781,65 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>159</v>
@@ -1811,10 +1847,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>159</v>
@@ -1822,10 +1858,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>159</v>
@@ -1833,10 +1869,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>159</v>
@@ -1844,10 +1880,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>159</v>
@@ -1855,10 +1891,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>159</v>
@@ -1866,74 +1902,74 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D42" t="s">
-        <v>178</v>
+      <c r="D42" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D43" s="18" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D44" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>159</v>
@@ -1941,10 +1977,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>159</v>
@@ -1952,10 +1988,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>159</v>
@@ -1963,123 +1999,156 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D60" s="23" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2522,6 +2591,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2718,22 +2802,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2750,29 +2844,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -2591,21 +2591,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2802,32 +2787,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2844,4 +2819,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="224">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,17 +1314,13 @@
       <c r="A8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1454,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,294 +1501,294 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
+      <c r="A4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>107</v>
+      <c r="A5" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>109</v>
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>150</v>
@@ -1803,65 +1799,65 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>159</v>
@@ -1869,10 +1865,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>159</v>
@@ -1880,10 +1876,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>159</v>
@@ -1891,10 +1887,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>159</v>
@@ -1902,10 +1898,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>159</v>
@@ -1913,10 +1909,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>159</v>
@@ -1924,74 +1920,74 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D44" t="s">
-        <v>178</v>
+      <c r="D44" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D45" s="18" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D46" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>159</v>
@@ -1999,156 +1995,156 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>223</v>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2591,6 +2587,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2787,22 +2798,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2819,29 +2840,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,21 +2587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2798,7 +2783,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2815,29 +2834,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1244,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,18 +2784,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2818,6 +2818,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2832,12 +2840,4 @@
     <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,18 +2784,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2818,14 +2818,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2840,4 +2832,12 @@
     <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,18 +2784,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2818,6 +2818,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2832,12 +2840,4 @@
     <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -2784,18 +2784,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2818,14 +2818,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2840,4 +2832,12 @@
     <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1517</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2587,6 +2587,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2783,36 +2798,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2835,9 +2824,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,21 +2587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2798,10 +2783,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2824,20 +2835,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Job Invoice Allocation with WIP\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="228">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -702,6 +702,18 @@
   </si>
   <si>
     <t>TSTAUTO-117</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
+  </si>
+  <si>
+    <t>BAUTESTEMEA</t>
+  </si>
+  <si>
+    <t>TRNEMEA</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1257,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1283,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1355,7 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1353,8 +1365,14 @@
       <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1364,8 +1382,14 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1374,6 +1398,11 @@
       </c>
       <c r="C3" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1384,15 +1413,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1405,8 +1434,14 @@
       <c r="D1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
@@ -1416,26 +1451,35 @@
       <c r="D2">
         <v>1517</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2031</v>
+      </c>
+      <c r="F2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
       <c r="B3">
         <v>1284</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1319</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1228</v>
       </c>
@@ -2587,6 +2631,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2783,22 +2836,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2817,7 +2869,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2832,12 +2884,4 @@
     <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Job Invoice Allocation with WIP\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="228">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -704,16 +704,16 @@
     <t>TSTAUTO-117</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>MALAYSIA</t>
-  </si>
-  <si>
-    <t>BAUTESTEMEA</t>
+    <t>TRNAPAC</t>
   </si>
   <si>
     <t>TRNEMEA</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>InvoicePreparation</t>
   </si>
 </sst>
 </file>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1006</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,10 +1366,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
@@ -1399,10 +1399,8 @@
       <c r="C3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>224</v>
+      <c r="D3" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1413,15 +1411,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1435,13 +1433,10 @@
         <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
@@ -1452,34 +1447,28 @@
         <v>1517</v>
       </c>
       <c r="E2">
-        <v>2031</v>
-      </c>
-      <c r="F2">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
       <c r="B3">
         <v>1284</v>
       </c>
-      <c r="F3">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1319</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1228</v>
       </c>
@@ -1492,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,6 +2177,17 @@
         <v>214</v>
       </c>
       <c r="C61" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2640,6 +2640,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2836,12 +2842,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
@@ -2851,6 +2851,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2867,21 +2884,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\GIT project\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="234">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -113,15 +113,9 @@
     <t>CORE - Test Automation</t>
   </si>
   <si>
-    <t>VersionName</t>
-  </si>
-  <si>
     <t>Release 1</t>
   </si>
   <si>
-    <t>CycleName</t>
-  </si>
-  <si>
     <t>Test Summary</t>
   </si>
   <si>
@@ -714,6 +708,30 @@
   </si>
   <si>
     <t>InvoicePreparation</t>
+  </si>
+  <si>
+    <t>JIRA User Name</t>
+  </si>
+  <si>
+    <t>JIRA Access Key</t>
+  </si>
+  <si>
+    <t>JIRA Secret Key</t>
+  </si>
+  <si>
+    <t>Zephyr BaseUrl</t>
+  </si>
+  <si>
+    <t>muthukumar.m@cognizant.com</t>
+  </si>
+  <si>
+    <t>MDA1MDIyZWQtZmEyMC0zOTc4LWI2ZmEtZDM3MTcxMGU1YzRjIDVjYjc1OTJmOWE4NTc5MTA4OTZmZTc5OSBVU0VSX0RFRkFVTFRfTkFNRQ</t>
+  </si>
+  <si>
+    <t>jf9LV-GHNp6MKw35xCTPo43WC0V4bwYC4SdsZC5K-Ho</t>
+  </si>
+  <si>
+    <t>https://prod-api.zephyr4jiracloud.com/connect</t>
   </si>
 </sst>
 </file>
@@ -936,7 +954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -973,6 +991,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1254,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,20 +1348,44 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A8" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9:B11" r:id="rId2" display="muthukumar.m@cognizant.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1357,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>12</v>
@@ -1366,18 +1415,18 @@
         <v>16</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1386,21 +1435,21 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1421,19 +1470,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -1497,698 +1546,698 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2272,7 @@
         <v>1201</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2280,7 @@
         <v>1322</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2239,7 +2288,7 @@
         <v>1314</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2296,7 @@
         <v>1319</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2255,7 +2304,7 @@
         <v>1307</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,7 +2312,7 @@
         <v>1204</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2271,7 +2320,7 @@
         <v>1213</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2279,7 +2328,7 @@
         <v>1284</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2287,7 +2336,7 @@
         <v>1271</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2344,7 @@
         <v>1205</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,7 +2352,7 @@
         <v>1240</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2360,7 @@
         <v>1228</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +2368,7 @@
         <v>1315</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,7 +2376,7 @@
         <v>1309</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2384,7 @@
         <v>1318</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2343,7 +2392,7 @@
         <v>1321</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2400,7 @@
         <v>1301</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2408,7 @@
         <v>1295</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2416,7 @@
         <v>1289</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2424,7 @@
         <v>1216</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,7 +2432,7 @@
         <v>1285</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2440,7 @@
         <v>1273</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2399,7 +2448,7 @@
         <v>1269</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2407,7 +2456,7 @@
         <v>1263</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2415,7 +2464,7 @@
         <v>1221</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2423,7 +2472,7 @@
         <v>1253</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,7 +2480,7 @@
         <v>1203</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2488,7 @@
         <v>1246</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2496,7 @@
         <v>1229</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2504,7 @@
         <v>1239</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2512,7 @@
         <v>1296</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2520,7 @@
         <v>1304</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2528,7 @@
         <v>1214</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2536,7 @@
         <v>1330</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2588,7 +2637,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2616,7 +2665,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2640,12 +2689,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2842,6 +2885,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
@@ -2851,23 +2900,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2884,4 +2916,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\GIT project\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="244">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -732,6 +732,36 @@
   </si>
   <si>
     <t>https://prod-api.zephyr4jiracloud.com/connect</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>BAUTESTEMEA</t>
+  </si>
+  <si>
+    <t>InvoiceOnAccount</t>
+  </si>
+  <si>
+    <t>InvoicingFromBudget</t>
+  </si>
+  <si>
+    <t>Partial_invoicing_WriteOff</t>
+  </si>
+  <si>
+    <t>JobInvoiceAllocation_WIP</t>
+  </si>
+  <si>
+    <t>TSTAUTO-121</t>
+  </si>
+  <si>
+    <t>TSTAUTO-120</t>
+  </si>
+  <si>
+    <t>TSTAUTO-119</t>
+  </si>
+  <si>
+    <t>TSTAUTO-118</t>
   </si>
 </sst>
 </file>
@@ -1391,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,9 +1432,10 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1420,8 +1451,11 @@
       <c r="E1" s="16" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1437,8 +1471,11 @@
       <c r="E2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1450,6 +1487,14 @@
       </c>
       <c r="D3" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1508,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,6 +1550,9 @@
       </c>
       <c r="B3">
         <v>1284</v>
+      </c>
+      <c r="E3">
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1530,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,10 +2282,42 @@
         <v>225</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
     <sheet name="CountryMapping" sheetId="6" r:id="rId2"/>
     <sheet name="OpcoMapping" sheetId="7" r:id="rId3"/>
     <sheet name="JIRA_Details" sheetId="4" r:id="rId4"/>
-    <sheet name="JIRAFolderName" sheetId="5" r:id="rId5"/>
-    <sheet name="LanguageLookUpTable" sheetId="2" r:id="rId6"/>
-    <sheet name="ServerDetails" sheetId="3" r:id="rId7"/>
+    <sheet name="LanguageLookUpTable" sheetId="2" r:id="rId5"/>
+    <sheet name="ServerDetails" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="209">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -144,111 +143,6 @@
   </si>
   <si>
     <t>China</t>
-  </si>
-  <si>
-    <t>AKQA - 1201 - AKQA SH</t>
-  </si>
-  <si>
-    <t>VMLY&amp;R - 1322 - Y&amp;R SH</t>
-  </si>
-  <si>
-    <t>Wunderman - 1314 - Agenda SH</t>
-  </si>
-  <si>
-    <t>WPPHQ - 1319 - FinancePlus</t>
-  </si>
-  <si>
-    <t>WHW - 1307 - Sudler China(MDS)</t>
-  </si>
-  <si>
-    <t>Superunion - 1204 - Superunion China</t>
-  </si>
-  <si>
-    <t>Grey - 1213 - Grey SH</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1284 - O&amp;M Agency SH</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1271 - O&amp;M Agency BJ</t>
-  </si>
-  <si>
-    <t>Landor - 1205 - Landor China SH</t>
-  </si>
-  <si>
-    <t>JWT - 1240 - JWT SH</t>
-  </si>
-  <si>
-    <t>GTB - 1228 - GTB China</t>
-  </si>
-  <si>
-    <t>Wunderman - 1315 - Wunderman BJ</t>
-  </si>
-  <si>
-    <t>Wunderman - 1309 - Possible BJ</t>
-  </si>
-  <si>
-    <t>WPPHQ - 1318 - Coretech</t>
-  </si>
-  <si>
-    <t>VMLY&amp;R - 1321 - Y&amp;R BJ</t>
-  </si>
-  <si>
-    <t>VMLY&amp;R - 1301 - VML Social China</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1295 - Soho Marketing BJ</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1289 - RedWasabi</t>
-  </si>
-  <si>
-    <t>Grey - 1216 - Grey DPI GZ</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1285 - Ogilvy Fashion and Lifestyle SH</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1273 - O&amp;M Marketing Communication BJ</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1269 - My David BJ</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1263 - Soho Advertising GZ</t>
-  </si>
-  <si>
-    <t>Grey - 1221 - GZ Grey Star Echo Marketing Communications</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1253 - Marketing Communications Consulting BJ(Redworks)</t>
-  </si>
-  <si>
-    <t>Landor - 1203 - Landor China BJ</t>
-  </si>
-  <si>
-    <t>JWT - 1246 - Mirum SH</t>
-  </si>
-  <si>
-    <t>GTB - 1229 - GTB AP</t>
-  </si>
-  <si>
-    <t>JWT - 1239 - JWT BJ</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1296 - Soho Marketing SH</t>
-  </si>
-  <si>
-    <t>VMLY&amp;R - 1304 - Y&amp;R BJ(Reporting)</t>
-  </si>
-  <si>
-    <t>Grey - 1214 - Grey DPI China(Reporting)</t>
-  </si>
-  <si>
-    <t>Ogilvy - 1330 - Bates SH</t>
-  </si>
-  <si>
-    <t>Folder Name</t>
   </si>
   <si>
     <t>UK</t>
@@ -1311,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1379,34 +1273,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1331,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>12</v>
@@ -1446,18 +1340,18 @@
         <v>16</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1469,32 +1363,32 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1515,19 +1409,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,53 +1497,53 @@
         <v>37</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,10 +1551,10 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,21 +1562,21 @@
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,10 +1584,10 @@
         <v>35</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,21 +1595,21 @@
         <v>36</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,43 +1617,43 @@
         <v>33</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,32 +1661,32 @@
         <v>30</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,10 +1694,10 @@
         <v>31</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,513 +1705,513 @@
         <v>32</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2328,308 +2222,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1201</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1322</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1319</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1307</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1213</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1284</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1271</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1205</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1240</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1315</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1309</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1318</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1321</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1301</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1295</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1289</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1216</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1285</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1273</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1269</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1263</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1221</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1253</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1203</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1246</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1229</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1239</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1296</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1304</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1214</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1330</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2677,7 +2272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2703,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2717,7 +2312,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2745,7 +2340,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2760,12 +2355,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2966,15 +2558,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2999,18 +2603,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\GIT_ProjectLatest\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,7 +2224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2276,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,12 +2355,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2557,6 +2551,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2567,23 +2567,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2602,6 +2585,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1712</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2355,6 +2355,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -2551,12 +2557,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2567,6 +2567,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2585,23 +2602,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Demo\Demo1\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="206">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -454,15 +454,9 @@
     <t>SINGAPORE</t>
   </si>
   <si>
-    <t xml:space="preserve">TSTAUTO-78 </t>
-  </si>
-  <si>
     <t>TSTAUTO-93</t>
   </si>
   <si>
-    <t>TSTAUTO-92</t>
-  </si>
-  <si>
     <t>CreateGlobalBrand</t>
   </si>
   <si>
@@ -581,9 +575,6 @@
   </si>
   <si>
     <t>Release 2</t>
-  </si>
-  <si>
-    <t>Current Cycle Name</t>
   </si>
   <si>
     <t>ReverseAGeneralJournal</t>
@@ -1205,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,34 +1264,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1340,13 +1331,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,10 +1376,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1412,7 @@
         <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1472,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,317 +1493,397 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
-        <v>139</v>
+      <c r="A3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>186</v>
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>113</v>
@@ -1820,10 +1891,13 @@
       <c r="C30" s="18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>113</v>
@@ -1831,54 +1905,69 @@
       <c r="C31" s="18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>121</v>
@@ -1886,129 +1975,153 @@
       <c r="C36" s="18" t="s">
         <v>122</v>
       </c>
+      <c r="D36" s="18" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C37" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C39" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C40" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C42" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C43" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D46" t="s">
-        <v>141</v>
+      <c r="D46" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>163</v>
@@ -2016,131 +2129,167 @@
       <c r="C47" s="18" t="s">
         <v>122</v>
       </c>
+      <c r="D47" s="18" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B49" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="C50" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B51" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="C52" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="B53" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="B54" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="B57" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="18" t="s">
+      <c r="B58" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="C58" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>176</v>
@@ -2148,70 +2297,92 @@
       <c r="C59" s="18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="B65" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>205</v>
+      <c r="C65" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Demo\Demo1\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Music\GIT_ProjectLatest\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -592,9 +592,6 @@
     <t>SPAIN</t>
   </si>
   <si>
-    <t>InvoicePreparation</t>
-  </si>
-  <si>
     <t>JIRA User Name</t>
   </si>
   <si>
@@ -628,9 +625,6 @@
     <t>InvoiceOnAccount</t>
   </si>
   <si>
-    <t>InvoicingFromBudget</t>
-  </si>
-  <si>
     <t>Partial_invoicing_WriteOff</t>
   </si>
   <si>
@@ -647,6 +641,12 @@
   </si>
   <si>
     <t>TSTAUTO-118</t>
+  </si>
+  <si>
+    <t>Invoicing from Budget</t>
+  </si>
+  <si>
+    <t>Invoice Preparation - Transfer Budget to Invoice On Account</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,34 +1264,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1337,7 @@
         <v>185</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,10 +1376,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,10 +2317,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>122</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>175</v>
@@ -2345,44 +2345,44 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Music\GIT_ProjectLatest\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1712</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\IssueFixing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="309">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -958,6 +958,9 @@
   </si>
   <si>
     <t>CRT-407</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
   </si>
 </sst>
 </file>
@@ -1249,137 +1252,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1008">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="992">
     <dxf>
       <font>
         <color theme="0"/>
@@ -9912,15 +9785,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -9936,8 +9809,11 @@
       <c r="E1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
@@ -9950,29 +9826,41 @@
       <c r="E2">
         <v>1006</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
       <c r="B3">
         <v>1284</v>
       </c>
+      <c r="D3">
+        <v>1502</v>
+      </c>
       <c r="E3">
         <v>1008</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1753</v>
+      </c>
       <c r="B4">
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1319</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1228</v>
       </c>
@@ -9987,8 +9875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10069,84 +9957,68 @@
       <c r="A5" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B4:C67" ca="1" si="0">VLOOKUP(A5,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-394</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-394</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:E5" ca="1" si="1">VLOOKUP(C5,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-394</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CRT-394</v>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-397</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-397</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" ref="D6:E6" ca="1" si="2">VLOOKUP(C6,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-397</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>CRT-397</v>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-396</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-396</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7:E7" ca="1" si="3">VLOOKUP(C7,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-396</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CRT-396</v>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-400</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-400</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" ref="D8:E8" ca="1" si="4">VLOOKUP(C8,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-400</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>CRT-400</v>
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -10170,546 +10042,442 @@
       <c r="A10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-336</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-336</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" ref="D10:E10" ca="1" si="5">VLOOKUP(C10,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-336</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CRT-336</v>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-406</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-406</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:E11" ca="1" si="6">VLOOKUP(C11,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-406</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>CRT-406</v>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-398</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-398</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ref="D12:E12" ca="1" si="7">VLOOKUP(C12,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-398</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>CRT-398</v>
+      <c r="B12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-384</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-384</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" ref="D13:E13" ca="1" si="8">VLOOKUP(C13,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-384</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>CRT-384</v>
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-382</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-382</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ref="D14:E14" ca="1" si="9">VLOOKUP(C14,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-382</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>CRT-382</v>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-372</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-372</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15:E15" ca="1" si="10">VLOOKUP(C15,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-372</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>CRT-372</v>
+      <c r="B15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-357</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-357</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ref="D16:E16" ca="1" si="11">VLOOKUP(C16,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-357</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>CRT-357</v>
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-359</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-359</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ref="D17:E17" ca="1" si="12">VLOOKUP(C17,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-359</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>CRT-359</v>
+      <c r="B17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-358</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-358</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" ref="D18:E18" ca="1" si="13">VLOOKUP(C18,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-358</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>CRT-358</v>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-360</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-360</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" ref="D19:E19" ca="1" si="14">VLOOKUP(C19,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-360</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>CRT-360</v>
+      <c r="B19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-351</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-351</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" ref="D20:E20" ca="1" si="15">VLOOKUP(C20,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-351</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>CRT-351</v>
+      <c r="B20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-352</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-352</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" ref="D21:E21" ca="1" si="16">VLOOKUP(C21,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-352</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>CRT-352</v>
+      <c r="B21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-353</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-353</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" ref="D22:E22" ca="1" si="17">VLOOKUP(C22,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-353</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>CRT-353</v>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-408</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-408</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" ref="D23:E23" ca="1" si="18">VLOOKUP(C23,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-408</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>CRT-408</v>
+      <c r="B23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-407</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-407</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" ref="D24:E24" ca="1" si="19">VLOOKUP(C24,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-407</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>CRT-407</v>
+      <c r="B24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-437</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-437</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" ref="D25:E25" ca="1" si="20">VLOOKUP(C25,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-437</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>CRT-437</v>
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-435</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-435</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" ref="D26:E26" ca="1" si="21">VLOOKUP(C26,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-435</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>CRT-435</v>
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-422</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-422</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" ref="D27:E27" ca="1" si="22">VLOOKUP(C27,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-422</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>CRT-422</v>
+      <c r="B27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-419</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-419</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" ref="D28:E28" ca="1" si="23">VLOOKUP(C28,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-419</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>CRT-419</v>
+      <c r="B28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-338</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-338</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" ref="D29:E29" ca="1" si="24">VLOOKUP(C29,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-338</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>CRT-338</v>
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-405</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-405</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" ref="D30:E30" ca="1" si="25">VLOOKUP(C30,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-405</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>CRT-405</v>
+      <c r="B30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-339</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-339</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" ref="D31:E31" ca="1" si="26">VLOOKUP(C31,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-339</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>CRT-339</v>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-395</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-395</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" ref="D32:E32" ca="1" si="27">VLOOKUP(C32,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-395</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>CRT-395</v>
+      <c r="B32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B33" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-337</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-337</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" ref="D33:E33" ca="1" si="28">VLOOKUP(C33,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-337</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>CRT-337</v>
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-340</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-340</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" ref="D34:E34" ca="1" si="29">VLOOKUP(C34,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-340</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>CRT-340</v>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-334</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-334</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" ref="D35:E35" ca="1" si="30">VLOOKUP(C35,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-334</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>CRT-334</v>
+      <c r="B35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E35" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -10750,63 +10518,51 @@
       <c r="A38" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-333</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-333</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" ref="D38:E38" ca="1" si="31">VLOOKUP(C38,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-333</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>CRT-333</v>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B39" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-403</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-403</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" ref="D39:E39" ca="1" si="32">VLOOKUP(C39,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-403</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>CRT-403</v>
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E39" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-335</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-335</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" ref="D40:E40" ca="1" si="33">VLOOKUP(C40,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-335</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>CRT-335</v>
+      <c r="B40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -10818,63 +10574,51 @@
       <c r="A42" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-404</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-404</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" ref="D42:E42" ca="1" si="34">VLOOKUP(C42,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-404</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>CRT-404</v>
+      <c r="B42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-344</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-344</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" ref="D43:E43" ca="1" si="35">VLOOKUP(C43,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-344</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>CRT-344</v>
+      <c r="B43" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-346</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-346</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" ref="D44:E44" ca="1" si="36">VLOOKUP(C44,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-346</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>CRT-346</v>
+      <c r="B44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -10898,357 +10642,289 @@
       <c r="A46" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-347</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-347</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" ref="D46:E46" ca="1" si="37">VLOOKUP(C46,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-347</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>CRT-347</v>
+      <c r="B46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" t="s">
+        <v>269</v>
+      </c>
+      <c r="E46" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-348</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-348</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" ref="D47:E47" ca="1" si="38">VLOOKUP(C47,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-348</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>CRT-348</v>
+      <c r="B47" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B48" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-414</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-414</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" ref="D48:E48" ca="1" si="39">VLOOKUP(C48,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-414</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v>CRT-414</v>
+      <c r="B48" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" t="s">
+        <v>301</v>
+      </c>
+      <c r="E48" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-417</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-417</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" ref="D49:E49" ca="1" si="40">VLOOKUP(C49,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-417</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>CRT-417</v>
+      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B50" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-401</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-401</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" ref="D50:E50" ca="1" si="41">VLOOKUP(C50,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-401</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>CRT-401</v>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-415</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-415</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" ref="D51:E51" ca="1" si="42">VLOOKUP(C51,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-415</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>CRT-415</v>
+      <c r="B51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-402</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-402</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" ref="D52:E52" ca="1" si="43">VLOOKUP(C52,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-402</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v>CRT-402</v>
+      <c r="B52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" t="s">
+        <v>274</v>
+      </c>
+      <c r="E52" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B53" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-412</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-412</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" ref="D53:E53" ca="1" si="44">VLOOKUP(C53,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-412</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>CRT-412</v>
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-350</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-350</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" ref="D54:E54" ca="1" si="45">VLOOKUP(C54,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-350</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>CRT-350</v>
+      <c r="B54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B55" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-342</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-342</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" ref="D55:E55" ca="1" si="46">VLOOKUP(C55,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-342</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>CRT-342</v>
+      <c r="B55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B56" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-349</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-349</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" ref="D56:E56" ca="1" si="47">VLOOKUP(C56,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-349</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>CRT-349</v>
+      <c r="B56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B57" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-343</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-343</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" ref="D57:E57" ca="1" si="48">VLOOKUP(C57,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-343</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>CRT-343</v>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B58" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-399</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-399</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" ref="D58:E58" ca="1" si="49">VLOOKUP(C58,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-399</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v>CRT-399</v>
+      <c r="B58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" t="s">
+        <v>273</v>
+      </c>
+      <c r="E58" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-423</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-423</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" ref="D59:E59" ca="1" si="50">VLOOKUP(C59,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-423</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v>CRT-423</v>
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-427</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-427</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" ref="D60:E60" ca="1" si="51">VLOOKUP(C60,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-427</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>CRT-427</v>
+      <c r="B60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" t="s">
+        <v>281</v>
+      </c>
+      <c r="E60" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-424</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-424</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" ref="D61:E61" ca="1" si="52">VLOOKUP(C61,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-424</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>CRT-424</v>
+      <c r="B61" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B62" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-425</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-425</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" ref="D62:E62" ca="1" si="53">VLOOKUP(C62,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-425</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>CRT-425</v>
+      <c r="B62" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" t="s">
+        <v>268</v>
+      </c>
+      <c r="E62" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -11272,105 +10948,85 @@
       <c r="A64" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B64" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-371</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-371</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" ref="D64:E64" ca="1" si="54">VLOOKUP(C64,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-371</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>CRT-371</v>
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B65" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-434</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-434</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" ref="D65:E65" ca="1" si="55">VLOOKUP(C65,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-434</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>CRT-434</v>
+      <c r="B65" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B66" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-438</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-438</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" ref="D66:E66" ca="1" si="56">VLOOKUP(C66,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-438</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>CRT-438</v>
+      <c r="B66" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" t="s">
+        <v>264</v>
+      </c>
+      <c r="E66" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B67" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-421</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CRT-421</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:E67" ca="1" si="57">VLOOKUP(C67,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-421</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>CRT-421</v>
+      <c r="B67" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B68" t="str">
-        <f t="shared" ref="B68:C99" ca="1" si="58">VLOOKUP(A68,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-420</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-420</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" ref="D68:E68" ca="1" si="59">VLOOKUP(C68,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-420</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>CRT-420</v>
+      <c r="B68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -11768,3289 +11424,3257 @@
       <c r="A92" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B92" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-328</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-328</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" ref="D92:E92" ca="1" si="60">VLOOKUP(C92,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-328</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v>CRT-328</v>
+      <c r="B92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" t="s">
+        <v>249</v>
+      </c>
+      <c r="E92" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B93" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-329</v>
-      </c>
-      <c r="C93" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-329</v>
-      </c>
-      <c r="D93" t="str">
-        <f t="shared" ref="D93:E93" ca="1" si="61">VLOOKUP(C93,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-329</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v>CRT-329</v>
+      <c r="B93" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" t="s">
+        <v>292</v>
+      </c>
+      <c r="D93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B94" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-330</v>
-      </c>
-      <c r="C94" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-330</v>
-      </c>
-      <c r="D94" t="str">
-        <f t="shared" ref="D94:E94" ca="1" si="62">VLOOKUP(C94,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-330</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v>CRT-330</v>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B95" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-354</v>
-      </c>
-      <c r="C95" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-354</v>
-      </c>
-      <c r="D95" t="str">
-        <f t="shared" ref="D95:E95" ca="1" si="63">VLOOKUP(C95,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-354</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v>CRT-354</v>
+      <c r="B95" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" t="s">
+        <v>284</v>
+      </c>
+      <c r="E95" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B96" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-355</v>
-      </c>
-      <c r="C96" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-355</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" ref="D96:E96" ca="1" si="64">VLOOKUP(C96,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-355</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v>CRT-355</v>
+      <c r="B96" t="s">
+        <v>243</v>
+      </c>
+      <c r="C96" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B97" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-356</v>
-      </c>
-      <c r="C97" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-356</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" ref="D97:E97" ca="1" si="65">VLOOKUP(C97,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-356</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v>CRT-356</v>
+      <c r="B97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" t="s">
+        <v>216</v>
+      </c>
+      <c r="E97" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B98" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-388</v>
-      </c>
-      <c r="C98" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-388</v>
-      </c>
-      <c r="D98" t="str">
-        <f t="shared" ref="D98:E98" ca="1" si="66">VLOOKUP(C98,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-388</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v>CRT-388</v>
+      <c r="B98" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
+        <v>277</v>
+      </c>
+      <c r="D98" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B99" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-386</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v>CRT-386</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" ref="D99:E99" ca="1" si="67">VLOOKUP(C99,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-386</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v>CRT-386</v>
+      <c r="B99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E99"/>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="959" priority="953">
+    <cfRule type="expression" dxfId="991" priority="953">
       <formula>$K3="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="958" priority="954">
+    <cfRule type="expression" dxfId="990" priority="954">
       <formula>$K3="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="957" priority="955">
+    <cfRule type="expression" dxfId="989" priority="955">
       <formula>$K3="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="956" priority="956">
+    <cfRule type="expression" dxfId="988" priority="956">
       <formula>$K3="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="955" priority="957">
+    <cfRule type="expression" dxfId="987" priority="957">
       <formula>$K3="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="954" priority="958">
+    <cfRule type="expression" dxfId="986" priority="958">
       <formula>$K3="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="953" priority="959">
+    <cfRule type="expression" dxfId="985" priority="959">
       <formula>$K3="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="960">
+    <cfRule type="expression" dxfId="984" priority="960">
       <formula>$K3="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="951" priority="945">
+    <cfRule type="expression" dxfId="983" priority="945">
       <formula>$K70="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="950" priority="946">
+    <cfRule type="expression" dxfId="982" priority="946">
       <formula>$K70="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="949" priority="947">
+    <cfRule type="expression" dxfId="981" priority="947">
       <formula>$K70="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="948">
+    <cfRule type="expression" dxfId="980" priority="948">
       <formula>$K70="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="947" priority="949">
+    <cfRule type="expression" dxfId="979" priority="949">
       <formula>$K70="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="946" priority="950">
+    <cfRule type="expression" dxfId="978" priority="950">
       <formula>$K70="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="945" priority="951">
+    <cfRule type="expression" dxfId="977" priority="951">
       <formula>$K70="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="944" priority="952">
+    <cfRule type="expression" dxfId="976" priority="952">
       <formula>$K70="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="943" priority="937">
+    <cfRule type="expression" dxfId="975" priority="937">
       <formula>$K71="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="942" priority="938">
+    <cfRule type="expression" dxfId="974" priority="938">
       <formula>$K71="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="941" priority="939">
+    <cfRule type="expression" dxfId="973" priority="939">
       <formula>$K71="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="940">
+    <cfRule type="expression" dxfId="972" priority="940">
       <formula>$K71="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="939" priority="941">
+    <cfRule type="expression" dxfId="971" priority="941">
       <formula>$K71="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="938" priority="942">
+    <cfRule type="expression" dxfId="970" priority="942">
       <formula>$K71="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="937" priority="943">
+    <cfRule type="expression" dxfId="969" priority="943">
       <formula>$K71="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="944">
+    <cfRule type="expression" dxfId="968" priority="944">
       <formula>$K71="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="expression" dxfId="935" priority="929">
+    <cfRule type="expression" dxfId="967" priority="929">
       <formula>$K72="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="930">
+    <cfRule type="expression" dxfId="966" priority="930">
       <formula>$K72="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="933" priority="931">
+    <cfRule type="expression" dxfId="965" priority="931">
       <formula>$K72="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="932">
+    <cfRule type="expression" dxfId="964" priority="932">
       <formula>$K72="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="931" priority="933">
+    <cfRule type="expression" dxfId="963" priority="933">
       <formula>$K72="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="934">
+    <cfRule type="expression" dxfId="962" priority="934">
       <formula>$K72="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="929" priority="935">
+    <cfRule type="expression" dxfId="961" priority="935">
       <formula>$K72="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="936">
+    <cfRule type="expression" dxfId="960" priority="936">
       <formula>$K72="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="expression" dxfId="927" priority="921">
+    <cfRule type="expression" dxfId="959" priority="921">
       <formula>$K75="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="926" priority="922">
+    <cfRule type="expression" dxfId="958" priority="922">
       <formula>$K75="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="925" priority="923">
+    <cfRule type="expression" dxfId="957" priority="923">
       <formula>$K75="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="924">
+    <cfRule type="expression" dxfId="956" priority="924">
       <formula>$K75="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="923" priority="925">
+    <cfRule type="expression" dxfId="955" priority="925">
       <formula>$K75="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="926">
+    <cfRule type="expression" dxfId="954" priority="926">
       <formula>$K75="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="921" priority="927">
+    <cfRule type="expression" dxfId="953" priority="927">
       <formula>$K75="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="928">
+    <cfRule type="expression" dxfId="952" priority="928">
       <formula>$K75="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="919" priority="913">
+    <cfRule type="expression" dxfId="951" priority="913">
       <formula>$K82="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="914">
+    <cfRule type="expression" dxfId="950" priority="914">
       <formula>$K82="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="917" priority="915">
+    <cfRule type="expression" dxfId="949" priority="915">
       <formula>$K82="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="916">
+    <cfRule type="expression" dxfId="948" priority="916">
       <formula>$K82="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="915" priority="917">
+    <cfRule type="expression" dxfId="947" priority="917">
       <formula>$K82="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="914" priority="918">
+    <cfRule type="expression" dxfId="946" priority="918">
       <formula>$K82="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="913" priority="919">
+    <cfRule type="expression" dxfId="945" priority="919">
       <formula>$K82="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="920">
+    <cfRule type="expression" dxfId="944" priority="920">
       <formula>$K82="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="911" priority="905">
+    <cfRule type="expression" dxfId="943" priority="905">
       <formula>$K78="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="906">
+    <cfRule type="expression" dxfId="942" priority="906">
       <formula>$K78="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="909" priority="907">
+    <cfRule type="expression" dxfId="941" priority="907">
       <formula>$K78="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="908">
+    <cfRule type="expression" dxfId="940" priority="908">
       <formula>$K78="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="907" priority="909">
+    <cfRule type="expression" dxfId="939" priority="909">
       <formula>$K78="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="910">
+    <cfRule type="expression" dxfId="938" priority="910">
       <formula>$K78="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="905" priority="911">
+    <cfRule type="expression" dxfId="937" priority="911">
       <formula>$K78="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="912">
+    <cfRule type="expression" dxfId="936" priority="912">
       <formula>$K78="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="903" priority="897">
+    <cfRule type="expression" dxfId="935" priority="897">
       <formula>$K85="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="902" priority="898">
+    <cfRule type="expression" dxfId="934" priority="898">
       <formula>$K85="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="901" priority="899">
+    <cfRule type="expression" dxfId="933" priority="899">
       <formula>$K85="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="900">
+    <cfRule type="expression" dxfId="932" priority="900">
       <formula>$K85="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="899" priority="901">
+    <cfRule type="expression" dxfId="931" priority="901">
       <formula>$K85="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="902">
+    <cfRule type="expression" dxfId="930" priority="902">
       <formula>$K85="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="897" priority="903">
+    <cfRule type="expression" dxfId="929" priority="903">
       <formula>$K85="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="904">
+    <cfRule type="expression" dxfId="928" priority="904">
       <formula>$K85="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="expression" dxfId="895" priority="889">
+    <cfRule type="expression" dxfId="927" priority="889">
       <formula>$K76="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="890">
+    <cfRule type="expression" dxfId="926" priority="890">
       <formula>$K76="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="891">
+    <cfRule type="expression" dxfId="925" priority="891">
       <formula>$K76="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="892">
+    <cfRule type="expression" dxfId="924" priority="892">
       <formula>$K76="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="893">
+    <cfRule type="expression" dxfId="923" priority="893">
       <formula>$K76="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="894">
+    <cfRule type="expression" dxfId="922" priority="894">
       <formula>$K76="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="895">
+    <cfRule type="expression" dxfId="921" priority="895">
       <formula>$K76="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="896">
+    <cfRule type="expression" dxfId="920" priority="896">
       <formula>$K76="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="887" priority="881">
+    <cfRule type="expression" dxfId="919" priority="881">
       <formula>$K74="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="882">
+    <cfRule type="expression" dxfId="918" priority="882">
       <formula>$K74="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="883">
+    <cfRule type="expression" dxfId="917" priority="883">
       <formula>$K74="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="884">
+    <cfRule type="expression" dxfId="916" priority="884">
       <formula>$K74="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="885">
+    <cfRule type="expression" dxfId="915" priority="885">
       <formula>$K74="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="886">
+    <cfRule type="expression" dxfId="914" priority="886">
       <formula>$K74="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="881" priority="887">
+    <cfRule type="expression" dxfId="913" priority="887">
       <formula>$K74="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="888">
+    <cfRule type="expression" dxfId="912" priority="888">
       <formula>$K74="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="879" priority="873">
+    <cfRule type="expression" dxfId="911" priority="873">
       <formula>$K83="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="874">
+    <cfRule type="expression" dxfId="910" priority="874">
       <formula>$K83="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="875">
+    <cfRule type="expression" dxfId="909" priority="875">
       <formula>$K83="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="876">
+    <cfRule type="expression" dxfId="908" priority="876">
       <formula>$K83="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="875" priority="877">
+    <cfRule type="expression" dxfId="907" priority="877">
       <formula>$K83="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="878">
+    <cfRule type="expression" dxfId="906" priority="878">
       <formula>$K83="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="879">
+    <cfRule type="expression" dxfId="905" priority="879">
       <formula>$K83="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="880">
+    <cfRule type="expression" dxfId="904" priority="880">
       <formula>$K83="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="871" priority="865">
+    <cfRule type="expression" dxfId="903" priority="865">
       <formula>$K73="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="870" priority="866">
+    <cfRule type="expression" dxfId="902" priority="866">
       <formula>$K73="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="869" priority="867">
+    <cfRule type="expression" dxfId="901" priority="867">
       <formula>$K73="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="868">
+    <cfRule type="expression" dxfId="900" priority="868">
       <formula>$K73="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="869">
+    <cfRule type="expression" dxfId="899" priority="869">
       <formula>$K73="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="870">
+    <cfRule type="expression" dxfId="898" priority="870">
       <formula>$K73="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="871">
+    <cfRule type="expression" dxfId="897" priority="871">
       <formula>$K73="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="872">
+    <cfRule type="expression" dxfId="896" priority="872">
       <formula>$K73="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="863" priority="857">
+    <cfRule type="expression" dxfId="895" priority="857">
       <formula>$K86="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="858">
+    <cfRule type="expression" dxfId="894" priority="858">
       <formula>$K86="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="859">
+    <cfRule type="expression" dxfId="893" priority="859">
       <formula>$K86="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="860">
+    <cfRule type="expression" dxfId="892" priority="860">
       <formula>$K86="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="861">
+    <cfRule type="expression" dxfId="891" priority="861">
       <formula>$K86="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="862">
+    <cfRule type="expression" dxfId="890" priority="862">
       <formula>$K86="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="857" priority="863">
+    <cfRule type="expression" dxfId="889" priority="863">
       <formula>$K86="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="864">
+    <cfRule type="expression" dxfId="888" priority="864">
       <formula>$K86="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="855" priority="849">
+    <cfRule type="expression" dxfId="887" priority="849">
       <formula>$K77="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="850">
+    <cfRule type="expression" dxfId="886" priority="850">
       <formula>$K77="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="853" priority="851">
+    <cfRule type="expression" dxfId="885" priority="851">
       <formula>$K77="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="852">
+    <cfRule type="expression" dxfId="884" priority="852">
       <formula>$K77="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="851" priority="853">
+    <cfRule type="expression" dxfId="883" priority="853">
       <formula>$K77="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="854">
+    <cfRule type="expression" dxfId="882" priority="854">
       <formula>$K77="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="849" priority="855">
+    <cfRule type="expression" dxfId="881" priority="855">
       <formula>$K77="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="856">
+    <cfRule type="expression" dxfId="880" priority="856">
       <formula>$K77="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="847" priority="841">
+    <cfRule type="expression" dxfId="879" priority="841">
       <formula>$K80="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="842">
+    <cfRule type="expression" dxfId="878" priority="842">
       <formula>$K80="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="845" priority="843">
+    <cfRule type="expression" dxfId="877" priority="843">
       <formula>$K80="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="844">
+    <cfRule type="expression" dxfId="876" priority="844">
       <formula>$K80="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="845">
+    <cfRule type="expression" dxfId="875" priority="845">
       <formula>$K80="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="846">
+    <cfRule type="expression" dxfId="874" priority="846">
       <formula>$K80="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="847">
+    <cfRule type="expression" dxfId="873" priority="847">
       <formula>$K80="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="848">
+    <cfRule type="expression" dxfId="872" priority="848">
       <formula>$K80="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="expression" dxfId="839" priority="833">
+    <cfRule type="expression" dxfId="871" priority="833">
       <formula>$K84="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="834">
+    <cfRule type="expression" dxfId="870" priority="834">
       <formula>$K84="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="835">
+    <cfRule type="expression" dxfId="869" priority="835">
       <formula>$K84="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="836">
+    <cfRule type="expression" dxfId="868" priority="836">
       <formula>$K84="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="837">
+    <cfRule type="expression" dxfId="867" priority="837">
       <formula>$K84="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="838">
+    <cfRule type="expression" dxfId="866" priority="838">
       <formula>$K84="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="833" priority="839">
+    <cfRule type="expression" dxfId="865" priority="839">
       <formula>$K84="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="840">
+    <cfRule type="expression" dxfId="864" priority="840">
       <formula>$K84="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="831" priority="825">
+    <cfRule type="expression" dxfId="863" priority="825">
       <formula>$K81="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="826">
+    <cfRule type="expression" dxfId="862" priority="826">
       <formula>$K81="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="827">
+    <cfRule type="expression" dxfId="861" priority="827">
       <formula>$K81="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="828">
+    <cfRule type="expression" dxfId="860" priority="828">
       <formula>$K81="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="827" priority="829">
+    <cfRule type="expression" dxfId="859" priority="829">
       <formula>$K81="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="830">
+    <cfRule type="expression" dxfId="858" priority="830">
       <formula>$K81="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="831">
+    <cfRule type="expression" dxfId="857" priority="831">
       <formula>$K81="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="832">
+    <cfRule type="expression" dxfId="856" priority="832">
       <formula>$K81="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="823" priority="817">
+    <cfRule type="expression" dxfId="855" priority="817">
       <formula>$K79="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="818">
+    <cfRule type="expression" dxfId="854" priority="818">
       <formula>$K79="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="821" priority="819">
+    <cfRule type="expression" dxfId="853" priority="819">
       <formula>$K79="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="820">
+    <cfRule type="expression" dxfId="852" priority="820">
       <formula>$K79="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="821">
+    <cfRule type="expression" dxfId="851" priority="821">
       <formula>$K79="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="822">
+    <cfRule type="expression" dxfId="850" priority="822">
       <formula>$K79="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="823">
+    <cfRule type="expression" dxfId="849" priority="823">
       <formula>$K79="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="824">
+    <cfRule type="expression" dxfId="848" priority="824">
       <formula>$K79="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="815" priority="809">
+    <cfRule type="expression" dxfId="847" priority="809">
       <formula>$K4="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="810">
+    <cfRule type="expression" dxfId="846" priority="810">
       <formula>$K4="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="811">
+    <cfRule type="expression" dxfId="845" priority="811">
       <formula>$K4="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="812">
+    <cfRule type="expression" dxfId="844" priority="812">
       <formula>$K4="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="813">
+    <cfRule type="expression" dxfId="843" priority="813">
       <formula>$K4="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="814">
+    <cfRule type="expression" dxfId="842" priority="814">
       <formula>$K4="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="809" priority="815">
+    <cfRule type="expression" dxfId="841" priority="815">
       <formula>$K4="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="816">
+    <cfRule type="expression" dxfId="840" priority="816">
       <formula>$K4="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="807" priority="801">
+    <cfRule type="expression" dxfId="839" priority="801">
       <formula>$K91="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="802">
+    <cfRule type="expression" dxfId="838" priority="802">
       <formula>$K91="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="803">
+    <cfRule type="expression" dxfId="837" priority="803">
       <formula>$K91="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="804">
+    <cfRule type="expression" dxfId="836" priority="804">
       <formula>$K91="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="803" priority="805">
+    <cfRule type="expression" dxfId="835" priority="805">
       <formula>$K91="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="806">
+    <cfRule type="expression" dxfId="834" priority="806">
       <formula>$K91="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="807">
+    <cfRule type="expression" dxfId="833" priority="807">
       <formula>$K91="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="808">
+    <cfRule type="expression" dxfId="832" priority="808">
       <formula>$K91="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="799" priority="793">
+    <cfRule type="expression" dxfId="831" priority="793">
       <formula>$K90="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="794">
+    <cfRule type="expression" dxfId="830" priority="794">
       <formula>$K90="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="797" priority="795">
+    <cfRule type="expression" dxfId="829" priority="795">
       <formula>$K90="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="796">
+    <cfRule type="expression" dxfId="828" priority="796">
       <formula>$K90="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="797">
+    <cfRule type="expression" dxfId="827" priority="797">
       <formula>$K90="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="798">
+    <cfRule type="expression" dxfId="826" priority="798">
       <formula>$K90="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="799">
+    <cfRule type="expression" dxfId="825" priority="799">
       <formula>$K90="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="800">
+    <cfRule type="expression" dxfId="824" priority="800">
       <formula>$K90="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="791" priority="785">
+    <cfRule type="expression" dxfId="823" priority="785">
       <formula>$K89="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="786">
+    <cfRule type="expression" dxfId="822" priority="786">
       <formula>$K89="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="787">
+    <cfRule type="expression" dxfId="821" priority="787">
       <formula>$K89="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="788">
+    <cfRule type="expression" dxfId="820" priority="788">
       <formula>$K89="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="789">
+    <cfRule type="expression" dxfId="819" priority="789">
       <formula>$K89="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="790">
+    <cfRule type="expression" dxfId="818" priority="790">
       <formula>$K89="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="791">
+    <cfRule type="expression" dxfId="817" priority="791">
       <formula>$K89="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="792">
+    <cfRule type="expression" dxfId="816" priority="792">
       <formula>$K89="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="783" priority="777">
+    <cfRule type="expression" dxfId="815" priority="777">
       <formula>$K88="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="778">
+    <cfRule type="expression" dxfId="814" priority="778">
       <formula>$K88="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="779">
+    <cfRule type="expression" dxfId="813" priority="779">
       <formula>$K88="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="780">
+    <cfRule type="expression" dxfId="812" priority="780">
       <formula>$K88="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="781">
+    <cfRule type="expression" dxfId="811" priority="781">
       <formula>$K88="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="782">
+    <cfRule type="expression" dxfId="810" priority="782">
       <formula>$K88="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="783">
+    <cfRule type="expression" dxfId="809" priority="783">
       <formula>$K88="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="784">
+    <cfRule type="expression" dxfId="808" priority="784">
       <formula>$K88="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="775" priority="769">
+    <cfRule type="expression" dxfId="807" priority="769">
       <formula>$K87="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="770">
+    <cfRule type="expression" dxfId="806" priority="770">
       <formula>$K87="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="773" priority="771">
+    <cfRule type="expression" dxfId="805" priority="771">
       <formula>$K87="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="772">
+    <cfRule type="expression" dxfId="804" priority="772">
       <formula>$K87="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="773">
+    <cfRule type="expression" dxfId="803" priority="773">
       <formula>$K87="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="774">
+    <cfRule type="expression" dxfId="802" priority="774">
       <formula>$K87="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="775">
+    <cfRule type="expression" dxfId="801" priority="775">
       <formula>$K87="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="776">
+    <cfRule type="expression" dxfId="800" priority="776">
       <formula>$K87="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="767" priority="761">
+    <cfRule type="expression" dxfId="799" priority="761">
       <formula>$K36="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="762">
+    <cfRule type="expression" dxfId="798" priority="762">
       <formula>$K36="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="763">
+    <cfRule type="expression" dxfId="797" priority="763">
       <formula>$K36="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="764">
+    <cfRule type="expression" dxfId="796" priority="764">
       <formula>$K36="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="765">
+    <cfRule type="expression" dxfId="795" priority="765">
       <formula>$K36="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="766">
+    <cfRule type="expression" dxfId="794" priority="766">
       <formula>$K36="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="767">
+    <cfRule type="expression" dxfId="793" priority="767">
       <formula>$K36="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="768">
+    <cfRule type="expression" dxfId="792" priority="768">
       <formula>$K36="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="759" priority="753">
+    <cfRule type="expression" dxfId="791" priority="753">
       <formula>$K37="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="754">
+    <cfRule type="expression" dxfId="790" priority="754">
       <formula>$K37="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="755">
+    <cfRule type="expression" dxfId="789" priority="755">
       <formula>$K37="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="756">
+    <cfRule type="expression" dxfId="788" priority="756">
       <formula>$K37="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="757">
+    <cfRule type="expression" dxfId="787" priority="757">
       <formula>$K37="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="758">
+    <cfRule type="expression" dxfId="786" priority="758">
       <formula>$K37="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="759">
+    <cfRule type="expression" dxfId="785" priority="759">
       <formula>$K37="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="760">
+    <cfRule type="expression" dxfId="784" priority="760">
       <formula>$K37="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="751" priority="745">
+    <cfRule type="expression" dxfId="783" priority="745">
       <formula>$K45="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="746">
+    <cfRule type="expression" dxfId="782" priority="746">
       <formula>$K45="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="747">
+    <cfRule type="expression" dxfId="781" priority="747">
       <formula>$K45="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="748">
+    <cfRule type="expression" dxfId="780" priority="748">
       <formula>$K45="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="749">
+    <cfRule type="expression" dxfId="779" priority="749">
       <formula>$K45="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="750">
+    <cfRule type="expression" dxfId="778" priority="750">
       <formula>$K45="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="751">
+    <cfRule type="expression" dxfId="777" priority="751">
       <formula>$K45="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="752">
+    <cfRule type="expression" dxfId="776" priority="752">
       <formula>$K45="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="743" priority="737">
+    <cfRule type="expression" dxfId="775" priority="737">
       <formula>$K63="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="738">
+    <cfRule type="expression" dxfId="774" priority="738">
       <formula>$K63="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="739">
+    <cfRule type="expression" dxfId="773" priority="739">
       <formula>$K63="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="740">
+    <cfRule type="expression" dxfId="772" priority="740">
       <formula>$K63="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="741">
+    <cfRule type="expression" dxfId="771" priority="741">
       <formula>$K63="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="742">
+    <cfRule type="expression" dxfId="770" priority="742">
       <formula>$K63="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="743">
+    <cfRule type="expression" dxfId="769" priority="743">
       <formula>$K63="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="744">
+    <cfRule type="expression" dxfId="768" priority="744">
       <formula>$K63="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="735" priority="729">
+    <cfRule type="expression" dxfId="767" priority="729">
       <formula>$K69="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="730">
+    <cfRule type="expression" dxfId="766" priority="730">
       <formula>$K69="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="731">
+    <cfRule type="expression" dxfId="765" priority="731">
       <formula>$K69="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="732">
+    <cfRule type="expression" dxfId="764" priority="732">
       <formula>$K69="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="733">
+    <cfRule type="expression" dxfId="763" priority="733">
       <formula>$K69="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="734">
+    <cfRule type="expression" dxfId="762" priority="734">
       <formula>$K69="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="735">
+    <cfRule type="expression" dxfId="761" priority="735">
       <formula>$K69="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="736">
+    <cfRule type="expression" dxfId="760" priority="736">
       <formula>$K69="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="727" priority="721">
+    <cfRule type="expression" dxfId="759" priority="721">
       <formula>$K9="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="722">
+    <cfRule type="expression" dxfId="758" priority="722">
       <formula>$K9="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="723">
+    <cfRule type="expression" dxfId="757" priority="723">
       <formula>$K9="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="724">
+    <cfRule type="expression" dxfId="756" priority="724">
       <formula>$K9="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="725">
+    <cfRule type="expression" dxfId="755" priority="725">
       <formula>$K9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="726">
+    <cfRule type="expression" dxfId="754" priority="726">
       <formula>$K9="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="727">
+    <cfRule type="expression" dxfId="753" priority="727">
       <formula>$K9="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="728">
+    <cfRule type="expression" dxfId="752" priority="728">
       <formula>$K9="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="719" priority="713">
+    <cfRule type="expression" dxfId="751" priority="713">
       <formula>$K3="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="714">
+    <cfRule type="expression" dxfId="750" priority="714">
       <formula>$K3="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="715">
+    <cfRule type="expression" dxfId="749" priority="715">
       <formula>$K3="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="716">
+    <cfRule type="expression" dxfId="748" priority="716">
       <formula>$K3="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="717">
+    <cfRule type="expression" dxfId="747" priority="717">
       <formula>$K3="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="718">
+    <cfRule type="expression" dxfId="746" priority="718">
       <formula>$K3="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="719">
+    <cfRule type="expression" dxfId="745" priority="719">
       <formula>$K3="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="720">
+    <cfRule type="expression" dxfId="744" priority="720">
       <formula>$K3="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="711" priority="705">
+    <cfRule type="expression" dxfId="743" priority="705">
       <formula>$K70="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="706">
+    <cfRule type="expression" dxfId="742" priority="706">
       <formula>$K70="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="707">
+    <cfRule type="expression" dxfId="741" priority="707">
       <formula>$K70="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="708">
+    <cfRule type="expression" dxfId="740" priority="708">
       <formula>$K70="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="709">
+    <cfRule type="expression" dxfId="739" priority="709">
       <formula>$K70="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="710">
+    <cfRule type="expression" dxfId="738" priority="710">
       <formula>$K70="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="711">
+    <cfRule type="expression" dxfId="737" priority="711">
       <formula>$K70="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="712">
+    <cfRule type="expression" dxfId="736" priority="712">
       <formula>$K70="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="703" priority="697">
+    <cfRule type="expression" dxfId="735" priority="697">
       <formula>$K71="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="698">
+    <cfRule type="expression" dxfId="734" priority="698">
       <formula>$K71="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="699">
+    <cfRule type="expression" dxfId="733" priority="699">
       <formula>$K71="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="700">
+    <cfRule type="expression" dxfId="732" priority="700">
       <formula>$K71="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="701">
+    <cfRule type="expression" dxfId="731" priority="701">
       <formula>$K71="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="702">
+    <cfRule type="expression" dxfId="730" priority="702">
       <formula>$K71="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="703">
+    <cfRule type="expression" dxfId="729" priority="703">
       <formula>$K71="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="704">
+    <cfRule type="expression" dxfId="728" priority="704">
       <formula>$K71="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="695" priority="689">
+    <cfRule type="expression" dxfId="727" priority="689">
       <formula>$K72="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="690">
+    <cfRule type="expression" dxfId="726" priority="690">
       <formula>$K72="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="691">
+    <cfRule type="expression" dxfId="725" priority="691">
       <formula>$K72="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="692">
+    <cfRule type="expression" dxfId="724" priority="692">
       <formula>$K72="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="693">
+    <cfRule type="expression" dxfId="723" priority="693">
       <formula>$K72="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="694">
+    <cfRule type="expression" dxfId="722" priority="694">
       <formula>$K72="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="695">
+    <cfRule type="expression" dxfId="721" priority="695">
       <formula>$K72="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="696">
+    <cfRule type="expression" dxfId="720" priority="696">
       <formula>$K72="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="687" priority="681">
+    <cfRule type="expression" dxfId="719" priority="681">
       <formula>$K75="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="682">
+    <cfRule type="expression" dxfId="718" priority="682">
       <formula>$K75="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="683">
+    <cfRule type="expression" dxfId="717" priority="683">
       <formula>$K75="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="684">
+    <cfRule type="expression" dxfId="716" priority="684">
       <formula>$K75="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="685">
+    <cfRule type="expression" dxfId="715" priority="685">
       <formula>$K75="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="686">
+    <cfRule type="expression" dxfId="714" priority="686">
       <formula>$K75="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="687">
+    <cfRule type="expression" dxfId="713" priority="687">
       <formula>$K75="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="688">
+    <cfRule type="expression" dxfId="712" priority="688">
       <formula>$K75="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="679" priority="673">
+    <cfRule type="expression" dxfId="711" priority="673">
       <formula>$K82="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="674">
+    <cfRule type="expression" dxfId="710" priority="674">
       <formula>$K82="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="675">
+    <cfRule type="expression" dxfId="709" priority="675">
       <formula>$K82="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="676">
+    <cfRule type="expression" dxfId="708" priority="676">
       <formula>$K82="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="677">
+    <cfRule type="expression" dxfId="707" priority="677">
       <formula>$K82="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="678">
+    <cfRule type="expression" dxfId="706" priority="678">
       <formula>$K82="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="679">
+    <cfRule type="expression" dxfId="705" priority="679">
       <formula>$K82="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="680">
+    <cfRule type="expression" dxfId="704" priority="680">
       <formula>$K82="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="671" priority="665">
+    <cfRule type="expression" dxfId="703" priority="665">
       <formula>$K78="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="666">
+    <cfRule type="expression" dxfId="702" priority="666">
       <formula>$K78="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="667">
+    <cfRule type="expression" dxfId="701" priority="667">
       <formula>$K78="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="668">
+    <cfRule type="expression" dxfId="700" priority="668">
       <formula>$K78="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="669">
+    <cfRule type="expression" dxfId="699" priority="669">
       <formula>$K78="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="670">
+    <cfRule type="expression" dxfId="698" priority="670">
       <formula>$K78="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="671">
+    <cfRule type="expression" dxfId="697" priority="671">
       <formula>$K78="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="672">
+    <cfRule type="expression" dxfId="696" priority="672">
       <formula>$K78="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="663" priority="657">
+    <cfRule type="expression" dxfId="695" priority="657">
       <formula>$K85="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="658">
+    <cfRule type="expression" dxfId="694" priority="658">
       <formula>$K85="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="659">
+    <cfRule type="expression" dxfId="693" priority="659">
       <formula>$K85="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="660">
+    <cfRule type="expression" dxfId="692" priority="660">
       <formula>$K85="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="661">
+    <cfRule type="expression" dxfId="691" priority="661">
       <formula>$K85="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="662">
+    <cfRule type="expression" dxfId="690" priority="662">
       <formula>$K85="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="663">
+    <cfRule type="expression" dxfId="689" priority="663">
       <formula>$K85="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="664">
+    <cfRule type="expression" dxfId="688" priority="664">
       <formula>$K85="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="expression" dxfId="655" priority="649">
+    <cfRule type="expression" dxfId="687" priority="649">
       <formula>$K76="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="650">
+    <cfRule type="expression" dxfId="686" priority="650">
       <formula>$K76="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="651">
+    <cfRule type="expression" dxfId="685" priority="651">
       <formula>$K76="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="652">
+    <cfRule type="expression" dxfId="684" priority="652">
       <formula>$K76="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="653">
+    <cfRule type="expression" dxfId="683" priority="653">
       <formula>$K76="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="654">
+    <cfRule type="expression" dxfId="682" priority="654">
       <formula>$K76="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="655">
+    <cfRule type="expression" dxfId="681" priority="655">
       <formula>$K76="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="656">
+    <cfRule type="expression" dxfId="680" priority="656">
       <formula>$K76="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="expression" dxfId="647" priority="641">
+    <cfRule type="expression" dxfId="679" priority="641">
       <formula>$K74="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="642">
+    <cfRule type="expression" dxfId="678" priority="642">
       <formula>$K74="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="643">
+    <cfRule type="expression" dxfId="677" priority="643">
       <formula>$K74="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="644">
+    <cfRule type="expression" dxfId="676" priority="644">
       <formula>$K74="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="645">
+    <cfRule type="expression" dxfId="675" priority="645">
       <formula>$K74="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="646">
+    <cfRule type="expression" dxfId="674" priority="646">
       <formula>$K74="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="647">
+    <cfRule type="expression" dxfId="673" priority="647">
       <formula>$K74="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="648">
+    <cfRule type="expression" dxfId="672" priority="648">
       <formula>$K74="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="639" priority="633">
+    <cfRule type="expression" dxfId="671" priority="633">
       <formula>$K83="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="634">
+    <cfRule type="expression" dxfId="670" priority="634">
       <formula>$K83="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="635">
+    <cfRule type="expression" dxfId="669" priority="635">
       <formula>$K83="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="636">
+    <cfRule type="expression" dxfId="668" priority="636">
       <formula>$K83="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="637">
+    <cfRule type="expression" dxfId="667" priority="637">
       <formula>$K83="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="638">
+    <cfRule type="expression" dxfId="666" priority="638">
       <formula>$K83="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="639">
+    <cfRule type="expression" dxfId="665" priority="639">
       <formula>$K83="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="640">
+    <cfRule type="expression" dxfId="664" priority="640">
       <formula>$K83="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="631" priority="625">
+    <cfRule type="expression" dxfId="663" priority="625">
       <formula>$K73="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="626">
+    <cfRule type="expression" dxfId="662" priority="626">
       <formula>$K73="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="627">
+    <cfRule type="expression" dxfId="661" priority="627">
       <formula>$K73="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="628">
+    <cfRule type="expression" dxfId="660" priority="628">
       <formula>$K73="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="629">
+    <cfRule type="expression" dxfId="659" priority="629">
       <formula>$K73="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="630">
+    <cfRule type="expression" dxfId="658" priority="630">
       <formula>$K73="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="631">
+    <cfRule type="expression" dxfId="657" priority="631">
       <formula>$K73="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="632">
+    <cfRule type="expression" dxfId="656" priority="632">
       <formula>$K73="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="623" priority="617">
+    <cfRule type="expression" dxfId="655" priority="617">
       <formula>$K86="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="618">
+    <cfRule type="expression" dxfId="654" priority="618">
       <formula>$K86="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="619">
+    <cfRule type="expression" dxfId="653" priority="619">
       <formula>$K86="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="620">
+    <cfRule type="expression" dxfId="652" priority="620">
       <formula>$K86="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="621">
+    <cfRule type="expression" dxfId="651" priority="621">
       <formula>$K86="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="622">
+    <cfRule type="expression" dxfId="650" priority="622">
       <formula>$K86="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="623">
+    <cfRule type="expression" dxfId="649" priority="623">
       <formula>$K86="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="624">
+    <cfRule type="expression" dxfId="648" priority="624">
       <formula>$K86="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="615" priority="609">
+    <cfRule type="expression" dxfId="647" priority="609">
       <formula>$K77="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="610">
+    <cfRule type="expression" dxfId="646" priority="610">
       <formula>$K77="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="611">
+    <cfRule type="expression" dxfId="645" priority="611">
       <formula>$K77="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="612">
+    <cfRule type="expression" dxfId="644" priority="612">
       <formula>$K77="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="613">
+    <cfRule type="expression" dxfId="643" priority="613">
       <formula>$K77="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="614">
+    <cfRule type="expression" dxfId="642" priority="614">
       <formula>$K77="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="615">
+    <cfRule type="expression" dxfId="641" priority="615">
       <formula>$K77="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="616">
+    <cfRule type="expression" dxfId="640" priority="616">
       <formula>$K77="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="607" priority="601">
+    <cfRule type="expression" dxfId="639" priority="601">
       <formula>$K80="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="602">
+    <cfRule type="expression" dxfId="638" priority="602">
       <formula>$K80="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="603">
+    <cfRule type="expression" dxfId="637" priority="603">
       <formula>$K80="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="604">
+    <cfRule type="expression" dxfId="636" priority="604">
       <formula>$K80="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="605">
+    <cfRule type="expression" dxfId="635" priority="605">
       <formula>$K80="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="606">
+    <cfRule type="expression" dxfId="634" priority="606">
       <formula>$K80="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="607">
+    <cfRule type="expression" dxfId="633" priority="607">
       <formula>$K80="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="608">
+    <cfRule type="expression" dxfId="632" priority="608">
       <formula>$K80="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="expression" dxfId="599" priority="593">
+    <cfRule type="expression" dxfId="631" priority="593">
       <formula>$K84="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="594">
+    <cfRule type="expression" dxfId="630" priority="594">
       <formula>$K84="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="595">
+    <cfRule type="expression" dxfId="629" priority="595">
       <formula>$K84="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="596">
+    <cfRule type="expression" dxfId="628" priority="596">
       <formula>$K84="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="597">
+    <cfRule type="expression" dxfId="627" priority="597">
       <formula>$K84="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="598">
+    <cfRule type="expression" dxfId="626" priority="598">
       <formula>$K84="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="599">
+    <cfRule type="expression" dxfId="625" priority="599">
       <formula>$K84="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="600">
+    <cfRule type="expression" dxfId="624" priority="600">
       <formula>$K84="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="591" priority="585">
+    <cfRule type="expression" dxfId="623" priority="585">
       <formula>$K81="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="586">
+    <cfRule type="expression" dxfId="622" priority="586">
       <formula>$K81="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="587">
+    <cfRule type="expression" dxfId="621" priority="587">
       <formula>$K81="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="588">
+    <cfRule type="expression" dxfId="620" priority="588">
       <formula>$K81="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="589">
+    <cfRule type="expression" dxfId="619" priority="589">
       <formula>$K81="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="590">
+    <cfRule type="expression" dxfId="618" priority="590">
       <formula>$K81="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="591">
+    <cfRule type="expression" dxfId="617" priority="591">
       <formula>$K81="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="592">
+    <cfRule type="expression" dxfId="616" priority="592">
       <formula>$K81="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="expression" dxfId="583" priority="577">
+    <cfRule type="expression" dxfId="615" priority="577">
       <formula>$K79="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="578">
+    <cfRule type="expression" dxfId="614" priority="578">
       <formula>$K79="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="579">
+    <cfRule type="expression" dxfId="613" priority="579">
       <formula>$K79="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="580">
+    <cfRule type="expression" dxfId="612" priority="580">
       <formula>$K79="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="581">
+    <cfRule type="expression" dxfId="611" priority="581">
       <formula>$K79="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="582">
+    <cfRule type="expression" dxfId="610" priority="582">
       <formula>$K79="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="583">
+    <cfRule type="expression" dxfId="609" priority="583">
       <formula>$K79="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="584">
+    <cfRule type="expression" dxfId="608" priority="584">
       <formula>$K79="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="575" priority="569">
+    <cfRule type="expression" dxfId="607" priority="569">
       <formula>$K4="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="570">
+    <cfRule type="expression" dxfId="606" priority="570">
       <formula>$K4="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="571">
+    <cfRule type="expression" dxfId="605" priority="571">
       <formula>$K4="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="572">
+    <cfRule type="expression" dxfId="604" priority="572">
       <formula>$K4="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="573">
+    <cfRule type="expression" dxfId="603" priority="573">
       <formula>$K4="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="574">
+    <cfRule type="expression" dxfId="602" priority="574">
       <formula>$K4="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="575">
+    <cfRule type="expression" dxfId="601" priority="575">
       <formula>$K4="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="576">
+    <cfRule type="expression" dxfId="600" priority="576">
       <formula>$K4="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="567" priority="561">
+    <cfRule type="expression" dxfId="599" priority="561">
       <formula>$K91="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="562">
+    <cfRule type="expression" dxfId="598" priority="562">
       <formula>$K91="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="563">
+    <cfRule type="expression" dxfId="597" priority="563">
       <formula>$K91="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="564">
+    <cfRule type="expression" dxfId="596" priority="564">
       <formula>$K91="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="565">
+    <cfRule type="expression" dxfId="595" priority="565">
       <formula>$K91="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="566">
+    <cfRule type="expression" dxfId="594" priority="566">
       <formula>$K91="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="567">
+    <cfRule type="expression" dxfId="593" priority="567">
       <formula>$K91="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="568">
+    <cfRule type="expression" dxfId="592" priority="568">
       <formula>$K91="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="559" priority="553">
+    <cfRule type="expression" dxfId="591" priority="553">
       <formula>$K90="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="554">
+    <cfRule type="expression" dxfId="590" priority="554">
       <formula>$K90="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="555">
+    <cfRule type="expression" dxfId="589" priority="555">
       <formula>$K90="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="556">
+    <cfRule type="expression" dxfId="588" priority="556">
       <formula>$K90="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="557">
+    <cfRule type="expression" dxfId="587" priority="557">
       <formula>$K90="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="558">
+    <cfRule type="expression" dxfId="586" priority="558">
       <formula>$K90="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="559">
+    <cfRule type="expression" dxfId="585" priority="559">
       <formula>$K90="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="560">
+    <cfRule type="expression" dxfId="584" priority="560">
       <formula>$K90="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="551" priority="545">
+    <cfRule type="expression" dxfId="583" priority="545">
       <formula>$K89="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="546">
+    <cfRule type="expression" dxfId="582" priority="546">
       <formula>$K89="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="547">
+    <cfRule type="expression" dxfId="581" priority="547">
       <formula>$K89="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="548">
+    <cfRule type="expression" dxfId="580" priority="548">
       <formula>$K89="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="549">
+    <cfRule type="expression" dxfId="579" priority="549">
       <formula>$K89="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="550">
+    <cfRule type="expression" dxfId="578" priority="550">
       <formula>$K89="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="551">
+    <cfRule type="expression" dxfId="577" priority="551">
       <formula>$K89="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="552">
+    <cfRule type="expression" dxfId="576" priority="552">
       <formula>$K89="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="543" priority="537">
+    <cfRule type="expression" dxfId="575" priority="537">
       <formula>$K88="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="538">
+    <cfRule type="expression" dxfId="574" priority="538">
       <formula>$K88="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="539">
+    <cfRule type="expression" dxfId="573" priority="539">
       <formula>$K88="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="540">
+    <cfRule type="expression" dxfId="572" priority="540">
       <formula>$K88="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="541">
+    <cfRule type="expression" dxfId="571" priority="541">
       <formula>$K88="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="542">
+    <cfRule type="expression" dxfId="570" priority="542">
       <formula>$K88="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="543">
+    <cfRule type="expression" dxfId="569" priority="543">
       <formula>$K88="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="544">
+    <cfRule type="expression" dxfId="568" priority="544">
       <formula>$K88="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="535" priority="529">
+    <cfRule type="expression" dxfId="567" priority="529">
       <formula>$K87="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="530">
+    <cfRule type="expression" dxfId="566" priority="530">
       <formula>$K87="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="531">
+    <cfRule type="expression" dxfId="565" priority="531">
       <formula>$K87="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="532">
+    <cfRule type="expression" dxfId="564" priority="532">
       <formula>$K87="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="533">
+    <cfRule type="expression" dxfId="563" priority="533">
       <formula>$K87="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="534">
+    <cfRule type="expression" dxfId="562" priority="534">
       <formula>$K87="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="535">
+    <cfRule type="expression" dxfId="561" priority="535">
       <formula>$K87="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="536">
+    <cfRule type="expression" dxfId="560" priority="536">
       <formula>$K87="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="527" priority="521">
+    <cfRule type="expression" dxfId="559" priority="521">
       <formula>$K36="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="522">
+    <cfRule type="expression" dxfId="558" priority="522">
       <formula>$K36="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="523">
+    <cfRule type="expression" dxfId="557" priority="523">
       <formula>$K36="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="524">
+    <cfRule type="expression" dxfId="556" priority="524">
       <formula>$K36="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="525">
+    <cfRule type="expression" dxfId="555" priority="525">
       <formula>$K36="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="526">
+    <cfRule type="expression" dxfId="554" priority="526">
       <formula>$K36="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="527">
+    <cfRule type="expression" dxfId="553" priority="527">
       <formula>$K36="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="528">
+    <cfRule type="expression" dxfId="552" priority="528">
       <formula>$K36="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="519" priority="513">
+    <cfRule type="expression" dxfId="551" priority="513">
       <formula>$K37="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="514">
+    <cfRule type="expression" dxfId="550" priority="514">
       <formula>$K37="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="515">
+    <cfRule type="expression" dxfId="549" priority="515">
       <formula>$K37="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="516">
+    <cfRule type="expression" dxfId="548" priority="516">
       <formula>$K37="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="517">
+    <cfRule type="expression" dxfId="547" priority="517">
       <formula>$K37="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="518">
+    <cfRule type="expression" dxfId="546" priority="518">
       <formula>$K37="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="519">
+    <cfRule type="expression" dxfId="545" priority="519">
       <formula>$K37="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="520">
+    <cfRule type="expression" dxfId="544" priority="520">
       <formula>$K37="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="511" priority="505">
+    <cfRule type="expression" dxfId="543" priority="505">
       <formula>$K45="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="506">
+    <cfRule type="expression" dxfId="542" priority="506">
       <formula>$K45="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="507">
+    <cfRule type="expression" dxfId="541" priority="507">
       <formula>$K45="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="508">
+    <cfRule type="expression" dxfId="540" priority="508">
       <formula>$K45="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="509">
+    <cfRule type="expression" dxfId="539" priority="509">
       <formula>$K45="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="510">
+    <cfRule type="expression" dxfId="538" priority="510">
       <formula>$K45="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="511">
+    <cfRule type="expression" dxfId="537" priority="511">
       <formula>$K45="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="512">
+    <cfRule type="expression" dxfId="536" priority="512">
       <formula>$K45="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="503" priority="497">
+    <cfRule type="expression" dxfId="535" priority="497">
       <formula>$K63="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="498">
+    <cfRule type="expression" dxfId="534" priority="498">
       <formula>$K63="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="499">
+    <cfRule type="expression" dxfId="533" priority="499">
       <formula>$K63="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="500">
+    <cfRule type="expression" dxfId="532" priority="500">
       <formula>$K63="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="501">
+    <cfRule type="expression" dxfId="531" priority="501">
       <formula>$K63="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="502">
+    <cfRule type="expression" dxfId="530" priority="502">
       <formula>$K63="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="503">
+    <cfRule type="expression" dxfId="529" priority="503">
       <formula>$K63="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="504">
+    <cfRule type="expression" dxfId="528" priority="504">
       <formula>$K63="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="495" priority="489">
+    <cfRule type="expression" dxfId="527" priority="489">
       <formula>$K69="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="490">
+    <cfRule type="expression" dxfId="526" priority="490">
       <formula>$K69="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="491">
+    <cfRule type="expression" dxfId="525" priority="491">
       <formula>$K69="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="492">
+    <cfRule type="expression" dxfId="524" priority="492">
       <formula>$K69="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="493">
+    <cfRule type="expression" dxfId="523" priority="493">
       <formula>$K69="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="494">
+    <cfRule type="expression" dxfId="522" priority="494">
       <formula>$K69="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="495">
+    <cfRule type="expression" dxfId="521" priority="495">
       <formula>$K69="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="496">
+    <cfRule type="expression" dxfId="520" priority="496">
       <formula>$K69="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="487" priority="481">
+    <cfRule type="expression" dxfId="519" priority="481">
       <formula>$K9="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="482">
+    <cfRule type="expression" dxfId="518" priority="482">
       <formula>$K9="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="483">
+    <cfRule type="expression" dxfId="517" priority="483">
       <formula>$K9="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="484">
+    <cfRule type="expression" dxfId="516" priority="484">
       <formula>$K9="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="485">
+    <cfRule type="expression" dxfId="515" priority="485">
       <formula>$K9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="486">
+    <cfRule type="expression" dxfId="514" priority="486">
       <formula>$K9="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="487">
+    <cfRule type="expression" dxfId="513" priority="487">
       <formula>$K9="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="488">
+    <cfRule type="expression" dxfId="512" priority="488">
       <formula>$K9="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="479" priority="473">
+    <cfRule type="expression" dxfId="511" priority="473">
       <formula>$K3="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="474">
+    <cfRule type="expression" dxfId="510" priority="474">
       <formula>$K3="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="475">
+    <cfRule type="expression" dxfId="509" priority="475">
       <formula>$K3="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="476">
+    <cfRule type="expression" dxfId="508" priority="476">
       <formula>$K3="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="477">
+    <cfRule type="expression" dxfId="507" priority="477">
       <formula>$K3="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="478">
+    <cfRule type="expression" dxfId="506" priority="478">
       <formula>$K3="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="479">
+    <cfRule type="expression" dxfId="505" priority="479">
       <formula>$K3="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="480">
+    <cfRule type="expression" dxfId="504" priority="480">
       <formula>$K3="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="471" priority="465">
+    <cfRule type="expression" dxfId="503" priority="465">
       <formula>$K70="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="466">
+    <cfRule type="expression" dxfId="502" priority="466">
       <formula>$K70="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="467">
+    <cfRule type="expression" dxfId="501" priority="467">
       <formula>$K70="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="468">
+    <cfRule type="expression" dxfId="500" priority="468">
       <formula>$K70="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="469">
+    <cfRule type="expression" dxfId="499" priority="469">
       <formula>$K70="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="470">
+    <cfRule type="expression" dxfId="498" priority="470">
       <formula>$K70="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="471">
+    <cfRule type="expression" dxfId="497" priority="471">
       <formula>$K70="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="472">
+    <cfRule type="expression" dxfId="496" priority="472">
       <formula>$K70="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="463" priority="457">
+    <cfRule type="expression" dxfId="495" priority="457">
       <formula>$K71="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="458">
+    <cfRule type="expression" dxfId="494" priority="458">
       <formula>$K71="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="459">
+    <cfRule type="expression" dxfId="493" priority="459">
       <formula>$K71="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="460">
+    <cfRule type="expression" dxfId="492" priority="460">
       <formula>$K71="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="461">
+    <cfRule type="expression" dxfId="491" priority="461">
       <formula>$K71="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="462">
+    <cfRule type="expression" dxfId="490" priority="462">
       <formula>$K71="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="463">
+    <cfRule type="expression" dxfId="489" priority="463">
       <formula>$K71="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="464">
+    <cfRule type="expression" dxfId="488" priority="464">
       <formula>$K71="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="455" priority="449">
+    <cfRule type="expression" dxfId="487" priority="449">
       <formula>$K72="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="450">
+    <cfRule type="expression" dxfId="486" priority="450">
       <formula>$K72="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="451">
+    <cfRule type="expression" dxfId="485" priority="451">
       <formula>$K72="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="452">
+    <cfRule type="expression" dxfId="484" priority="452">
       <formula>$K72="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="453">
+    <cfRule type="expression" dxfId="483" priority="453">
       <formula>$K72="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="454">
+    <cfRule type="expression" dxfId="482" priority="454">
       <formula>$K72="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="455">
+    <cfRule type="expression" dxfId="481" priority="455">
       <formula>$K72="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="456">
+    <cfRule type="expression" dxfId="480" priority="456">
       <formula>$K72="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="expression" dxfId="447" priority="441">
+    <cfRule type="expression" dxfId="479" priority="441">
       <formula>$K75="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="442">
+    <cfRule type="expression" dxfId="478" priority="442">
       <formula>$K75="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="443">
+    <cfRule type="expression" dxfId="477" priority="443">
       <formula>$K75="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="444">
+    <cfRule type="expression" dxfId="476" priority="444">
       <formula>$K75="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="445">
+    <cfRule type="expression" dxfId="475" priority="445">
       <formula>$K75="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="446">
+    <cfRule type="expression" dxfId="474" priority="446">
       <formula>$K75="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="447">
+    <cfRule type="expression" dxfId="473" priority="447">
       <formula>$K75="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="448">
+    <cfRule type="expression" dxfId="472" priority="448">
       <formula>$K75="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="expression" dxfId="439" priority="433">
+    <cfRule type="expression" dxfId="471" priority="433">
       <formula>$K82="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="434">
+    <cfRule type="expression" dxfId="470" priority="434">
       <formula>$K82="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="435">
+    <cfRule type="expression" dxfId="469" priority="435">
       <formula>$K82="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="436">
+    <cfRule type="expression" dxfId="468" priority="436">
       <formula>$K82="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="437">
+    <cfRule type="expression" dxfId="467" priority="437">
       <formula>$K82="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="438">
+    <cfRule type="expression" dxfId="466" priority="438">
       <formula>$K82="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="439">
+    <cfRule type="expression" dxfId="465" priority="439">
       <formula>$K82="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="440">
+    <cfRule type="expression" dxfId="464" priority="440">
       <formula>$K82="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="431" priority="425">
+    <cfRule type="expression" dxfId="463" priority="425">
       <formula>$K78="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="426">
+    <cfRule type="expression" dxfId="462" priority="426">
       <formula>$K78="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="427">
+    <cfRule type="expression" dxfId="461" priority="427">
       <formula>$K78="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="428">
+    <cfRule type="expression" dxfId="460" priority="428">
       <formula>$K78="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="429">
+    <cfRule type="expression" dxfId="459" priority="429">
       <formula>$K78="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="430">
+    <cfRule type="expression" dxfId="458" priority="430">
       <formula>$K78="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="431">
+    <cfRule type="expression" dxfId="457" priority="431">
       <formula>$K78="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="432">
+    <cfRule type="expression" dxfId="456" priority="432">
       <formula>$K78="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="expression" dxfId="423" priority="417">
+    <cfRule type="expression" dxfId="455" priority="417">
       <formula>$K85="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="418">
+    <cfRule type="expression" dxfId="454" priority="418">
       <formula>$K85="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="419">
+    <cfRule type="expression" dxfId="453" priority="419">
       <formula>$K85="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="420">
+    <cfRule type="expression" dxfId="452" priority="420">
       <formula>$K85="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="421">
+    <cfRule type="expression" dxfId="451" priority="421">
       <formula>$K85="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="422">
+    <cfRule type="expression" dxfId="450" priority="422">
       <formula>$K85="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="423">
+    <cfRule type="expression" dxfId="449" priority="423">
       <formula>$K85="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="424">
+    <cfRule type="expression" dxfId="448" priority="424">
       <formula>$K85="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="expression" dxfId="415" priority="409">
+    <cfRule type="expression" dxfId="447" priority="409">
       <formula>$K76="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="410">
+    <cfRule type="expression" dxfId="446" priority="410">
       <formula>$K76="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="411">
+    <cfRule type="expression" dxfId="445" priority="411">
       <formula>$K76="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="412">
+    <cfRule type="expression" dxfId="444" priority="412">
       <formula>$K76="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="413">
+    <cfRule type="expression" dxfId="443" priority="413">
       <formula>$K76="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="414">
+    <cfRule type="expression" dxfId="442" priority="414">
       <formula>$K76="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="415">
+    <cfRule type="expression" dxfId="441" priority="415">
       <formula>$K76="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="416">
+    <cfRule type="expression" dxfId="440" priority="416">
       <formula>$K76="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="407" priority="401">
+    <cfRule type="expression" dxfId="439" priority="401">
       <formula>$K74="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="402">
+    <cfRule type="expression" dxfId="438" priority="402">
       <formula>$K74="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="403">
+    <cfRule type="expression" dxfId="437" priority="403">
       <formula>$K74="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="404">
+    <cfRule type="expression" dxfId="436" priority="404">
       <formula>$K74="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="405">
+    <cfRule type="expression" dxfId="435" priority="405">
       <formula>$K74="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="406">
+    <cfRule type="expression" dxfId="434" priority="406">
       <formula>$K74="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="407">
+    <cfRule type="expression" dxfId="433" priority="407">
       <formula>$K74="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="408">
+    <cfRule type="expression" dxfId="432" priority="408">
       <formula>$K74="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="expression" dxfId="399" priority="393">
+    <cfRule type="expression" dxfId="431" priority="393">
       <formula>$K83="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="394">
+    <cfRule type="expression" dxfId="430" priority="394">
       <formula>$K83="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="395">
+    <cfRule type="expression" dxfId="429" priority="395">
       <formula>$K83="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="396">
+    <cfRule type="expression" dxfId="428" priority="396">
       <formula>$K83="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="397">
+    <cfRule type="expression" dxfId="427" priority="397">
       <formula>$K83="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="398">
+    <cfRule type="expression" dxfId="426" priority="398">
       <formula>$K83="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="399">
+    <cfRule type="expression" dxfId="425" priority="399">
       <formula>$K83="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="400">
+    <cfRule type="expression" dxfId="424" priority="400">
       <formula>$K83="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="391" priority="385">
+    <cfRule type="expression" dxfId="423" priority="385">
       <formula>$K73="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="386">
+    <cfRule type="expression" dxfId="422" priority="386">
       <formula>$K73="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="387">
+    <cfRule type="expression" dxfId="421" priority="387">
       <formula>$K73="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="388">
+    <cfRule type="expression" dxfId="420" priority="388">
       <formula>$K73="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="389">
+    <cfRule type="expression" dxfId="419" priority="389">
       <formula>$K73="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="390">
+    <cfRule type="expression" dxfId="418" priority="390">
       <formula>$K73="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="391">
+    <cfRule type="expression" dxfId="417" priority="391">
       <formula>$K73="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="392">
+    <cfRule type="expression" dxfId="416" priority="392">
       <formula>$K73="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="expression" dxfId="383" priority="377">
+    <cfRule type="expression" dxfId="415" priority="377">
       <formula>$K86="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="378">
+    <cfRule type="expression" dxfId="414" priority="378">
       <formula>$K86="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="379">
+    <cfRule type="expression" dxfId="413" priority="379">
       <formula>$K86="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="380">
+    <cfRule type="expression" dxfId="412" priority="380">
       <formula>$K86="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="381">
+    <cfRule type="expression" dxfId="411" priority="381">
       <formula>$K86="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="382">
+    <cfRule type="expression" dxfId="410" priority="382">
       <formula>$K86="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="383">
+    <cfRule type="expression" dxfId="409" priority="383">
       <formula>$K86="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="384">
+    <cfRule type="expression" dxfId="408" priority="384">
       <formula>$K86="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="expression" dxfId="375" priority="369">
+    <cfRule type="expression" dxfId="407" priority="369">
       <formula>$K77="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="370">
+    <cfRule type="expression" dxfId="406" priority="370">
       <formula>$K77="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="371">
+    <cfRule type="expression" dxfId="405" priority="371">
       <formula>$K77="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="372">
+    <cfRule type="expression" dxfId="404" priority="372">
       <formula>$K77="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="373">
+    <cfRule type="expression" dxfId="403" priority="373">
       <formula>$K77="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="374">
+    <cfRule type="expression" dxfId="402" priority="374">
       <formula>$K77="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="375">
+    <cfRule type="expression" dxfId="401" priority="375">
       <formula>$K77="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="376">
+    <cfRule type="expression" dxfId="400" priority="376">
       <formula>$K77="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="367" priority="361">
+    <cfRule type="expression" dxfId="399" priority="361">
       <formula>$K80="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="362">
+    <cfRule type="expression" dxfId="398" priority="362">
       <formula>$K80="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="363">
+    <cfRule type="expression" dxfId="397" priority="363">
       <formula>$K80="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="364">
+    <cfRule type="expression" dxfId="396" priority="364">
       <formula>$K80="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="365">
+    <cfRule type="expression" dxfId="395" priority="365">
       <formula>$K80="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="366">
+    <cfRule type="expression" dxfId="394" priority="366">
       <formula>$K80="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="367">
+    <cfRule type="expression" dxfId="393" priority="367">
       <formula>$K80="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="368">
+    <cfRule type="expression" dxfId="392" priority="368">
       <formula>$K80="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="expression" dxfId="359" priority="353">
+    <cfRule type="expression" dxfId="391" priority="353">
       <formula>$K84="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="354">
+    <cfRule type="expression" dxfId="390" priority="354">
       <formula>$K84="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="355">
+    <cfRule type="expression" dxfId="389" priority="355">
       <formula>$K84="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="356">
+    <cfRule type="expression" dxfId="388" priority="356">
       <formula>$K84="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="357">
+    <cfRule type="expression" dxfId="387" priority="357">
       <formula>$K84="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="358">
+    <cfRule type="expression" dxfId="386" priority="358">
       <formula>$K84="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="359">
+    <cfRule type="expression" dxfId="385" priority="359">
       <formula>$K84="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="360">
+    <cfRule type="expression" dxfId="384" priority="360">
       <formula>$K84="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="expression" dxfId="351" priority="345">
+    <cfRule type="expression" dxfId="383" priority="345">
       <formula>$K81="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="346">
+    <cfRule type="expression" dxfId="382" priority="346">
       <formula>$K81="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="347">
+    <cfRule type="expression" dxfId="381" priority="347">
       <formula>$K81="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="348">
+    <cfRule type="expression" dxfId="380" priority="348">
       <formula>$K81="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="349">
+    <cfRule type="expression" dxfId="379" priority="349">
       <formula>$K81="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="350">
+    <cfRule type="expression" dxfId="378" priority="350">
       <formula>$K81="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="351">
+    <cfRule type="expression" dxfId="377" priority="351">
       <formula>$K81="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="352">
+    <cfRule type="expression" dxfId="376" priority="352">
       <formula>$K81="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="343" priority="337">
+    <cfRule type="expression" dxfId="375" priority="337">
       <formula>$K79="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="338">
+    <cfRule type="expression" dxfId="374" priority="338">
       <formula>$K79="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="339">
+    <cfRule type="expression" dxfId="373" priority="339">
       <formula>$K79="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="340">
+    <cfRule type="expression" dxfId="372" priority="340">
       <formula>$K79="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="341">
+    <cfRule type="expression" dxfId="371" priority="341">
       <formula>$K79="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="342">
+    <cfRule type="expression" dxfId="370" priority="342">
       <formula>$K79="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="343">
+    <cfRule type="expression" dxfId="369" priority="343">
       <formula>$K79="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="344">
+    <cfRule type="expression" dxfId="368" priority="344">
       <formula>$K79="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="335" priority="329">
+    <cfRule type="expression" dxfId="367" priority="329">
       <formula>$K4="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="330">
+    <cfRule type="expression" dxfId="366" priority="330">
       <formula>$K4="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="331">
+    <cfRule type="expression" dxfId="365" priority="331">
       <formula>$K4="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="332">
+    <cfRule type="expression" dxfId="364" priority="332">
       <formula>$K4="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="333">
+    <cfRule type="expression" dxfId="363" priority="333">
       <formula>$K4="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="334">
+    <cfRule type="expression" dxfId="362" priority="334">
       <formula>$K4="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="335">
+    <cfRule type="expression" dxfId="361" priority="335">
       <formula>$K4="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="336">
+    <cfRule type="expression" dxfId="360" priority="336">
       <formula>$K4="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="327" priority="321">
+    <cfRule type="expression" dxfId="359" priority="321">
       <formula>$K91="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="322">
+    <cfRule type="expression" dxfId="358" priority="322">
       <formula>$K91="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="323">
+    <cfRule type="expression" dxfId="357" priority="323">
       <formula>$K91="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="324">
+    <cfRule type="expression" dxfId="356" priority="324">
       <formula>$K91="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="325">
+    <cfRule type="expression" dxfId="355" priority="325">
       <formula>$K91="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="326">
+    <cfRule type="expression" dxfId="354" priority="326">
       <formula>$K91="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="327">
+    <cfRule type="expression" dxfId="353" priority="327">
       <formula>$K91="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="328">
+    <cfRule type="expression" dxfId="352" priority="328">
       <formula>$K91="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="expression" dxfId="319" priority="313">
+    <cfRule type="expression" dxfId="351" priority="313">
       <formula>$K90="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="314">
+    <cfRule type="expression" dxfId="350" priority="314">
       <formula>$K90="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="315">
+    <cfRule type="expression" dxfId="349" priority="315">
       <formula>$K90="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="316">
+    <cfRule type="expression" dxfId="348" priority="316">
       <formula>$K90="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="317">
+    <cfRule type="expression" dxfId="347" priority="317">
       <formula>$K90="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="318">
+    <cfRule type="expression" dxfId="346" priority="318">
       <formula>$K90="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="319">
+    <cfRule type="expression" dxfId="345" priority="319">
       <formula>$K90="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="320">
+    <cfRule type="expression" dxfId="344" priority="320">
       <formula>$K90="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="311" priority="305">
+    <cfRule type="expression" dxfId="343" priority="305">
       <formula>$K89="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="306">
+    <cfRule type="expression" dxfId="342" priority="306">
       <formula>$K89="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="307">
+    <cfRule type="expression" dxfId="341" priority="307">
       <formula>$K89="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="308">
+    <cfRule type="expression" dxfId="340" priority="308">
       <formula>$K89="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="309">
+    <cfRule type="expression" dxfId="339" priority="309">
       <formula>$K89="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="310">
+    <cfRule type="expression" dxfId="338" priority="310">
       <formula>$K89="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="311">
+    <cfRule type="expression" dxfId="337" priority="311">
       <formula>$K89="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="312">
+    <cfRule type="expression" dxfId="336" priority="312">
       <formula>$K89="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="303" priority="297">
+    <cfRule type="expression" dxfId="335" priority="297">
       <formula>$K88="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="298">
+    <cfRule type="expression" dxfId="334" priority="298">
       <formula>$K88="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="299">
+    <cfRule type="expression" dxfId="333" priority="299">
       <formula>$K88="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="300">
+    <cfRule type="expression" dxfId="332" priority="300">
       <formula>$K88="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="301">
+    <cfRule type="expression" dxfId="331" priority="301">
       <formula>$K88="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="302">
+    <cfRule type="expression" dxfId="330" priority="302">
       <formula>$K88="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="303">
+    <cfRule type="expression" dxfId="329" priority="303">
       <formula>$K88="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="304">
+    <cfRule type="expression" dxfId="328" priority="304">
       <formula>$K88="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="expression" dxfId="295" priority="289">
+    <cfRule type="expression" dxfId="327" priority="289">
       <formula>$K87="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="290">
+    <cfRule type="expression" dxfId="326" priority="290">
       <formula>$K87="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="291">
+    <cfRule type="expression" dxfId="325" priority="291">
       <formula>$K87="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="292">
+    <cfRule type="expression" dxfId="324" priority="292">
       <formula>$K87="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="293">
+    <cfRule type="expression" dxfId="323" priority="293">
       <formula>$K87="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="294">
+    <cfRule type="expression" dxfId="322" priority="294">
       <formula>$K87="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="295">
+    <cfRule type="expression" dxfId="321" priority="295">
       <formula>$K87="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="296">
+    <cfRule type="expression" dxfId="320" priority="296">
       <formula>$K87="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="287" priority="281">
+    <cfRule type="expression" dxfId="319" priority="281">
       <formula>$K36="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="282">
+    <cfRule type="expression" dxfId="318" priority="282">
       <formula>$K36="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="283">
+    <cfRule type="expression" dxfId="317" priority="283">
       <formula>$K36="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="284">
+    <cfRule type="expression" dxfId="316" priority="284">
       <formula>$K36="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="285">
+    <cfRule type="expression" dxfId="315" priority="285">
       <formula>$K36="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="286">
+    <cfRule type="expression" dxfId="314" priority="286">
       <formula>$K36="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="287">
+    <cfRule type="expression" dxfId="313" priority="287">
       <formula>$K36="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="288">
+    <cfRule type="expression" dxfId="312" priority="288">
       <formula>$K36="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="279" priority="273">
+    <cfRule type="expression" dxfId="311" priority="273">
       <formula>$K37="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="274">
+    <cfRule type="expression" dxfId="310" priority="274">
       <formula>$K37="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="275">
+    <cfRule type="expression" dxfId="309" priority="275">
       <formula>$K37="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="276">
+    <cfRule type="expression" dxfId="308" priority="276">
       <formula>$K37="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="277">
+    <cfRule type="expression" dxfId="307" priority="277">
       <formula>$K37="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="278">
+    <cfRule type="expression" dxfId="306" priority="278">
       <formula>$K37="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="279">
+    <cfRule type="expression" dxfId="305" priority="279">
       <formula>$K37="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="280">
+    <cfRule type="expression" dxfId="304" priority="280">
       <formula>$K37="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="271" priority="265">
+    <cfRule type="expression" dxfId="303" priority="265">
       <formula>$K45="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="266">
+    <cfRule type="expression" dxfId="302" priority="266">
       <formula>$K45="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="267">
+    <cfRule type="expression" dxfId="301" priority="267">
       <formula>$K45="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="268">
+    <cfRule type="expression" dxfId="300" priority="268">
       <formula>$K45="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="269">
+    <cfRule type="expression" dxfId="299" priority="269">
       <formula>$K45="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="270">
+    <cfRule type="expression" dxfId="298" priority="270">
       <formula>$K45="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="271">
+    <cfRule type="expression" dxfId="297" priority="271">
       <formula>$K45="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="272">
+    <cfRule type="expression" dxfId="296" priority="272">
       <formula>$K45="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="263" priority="257">
+    <cfRule type="expression" dxfId="295" priority="257">
       <formula>$K63="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="258">
+    <cfRule type="expression" dxfId="294" priority="258">
       <formula>$K63="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="259">
+    <cfRule type="expression" dxfId="293" priority="259">
       <formula>$K63="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="260">
+    <cfRule type="expression" dxfId="292" priority="260">
       <formula>$K63="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="261">
+    <cfRule type="expression" dxfId="291" priority="261">
       <formula>$K63="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="262">
+    <cfRule type="expression" dxfId="290" priority="262">
       <formula>$K63="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="263">
+    <cfRule type="expression" dxfId="289" priority="263">
       <formula>$K63="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="264">
+    <cfRule type="expression" dxfId="288" priority="264">
       <formula>$K63="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="255" priority="249">
+    <cfRule type="expression" dxfId="287" priority="249">
       <formula>$K69="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="250">
+    <cfRule type="expression" dxfId="286" priority="250">
       <formula>$K69="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="251">
+    <cfRule type="expression" dxfId="285" priority="251">
       <formula>$K69="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="252">
+    <cfRule type="expression" dxfId="284" priority="252">
       <formula>$K69="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="253">
+    <cfRule type="expression" dxfId="283" priority="253">
       <formula>$K69="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="254">
+    <cfRule type="expression" dxfId="282" priority="254">
       <formula>$K69="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="255">
+    <cfRule type="expression" dxfId="281" priority="255">
       <formula>$K69="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="256">
+    <cfRule type="expression" dxfId="280" priority="256">
       <formula>$K69="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="247" priority="241">
+    <cfRule type="expression" dxfId="279" priority="241">
       <formula>$K9="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="242">
+    <cfRule type="expression" dxfId="278" priority="242">
       <formula>$K9="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="243">
+    <cfRule type="expression" dxfId="277" priority="243">
       <formula>$K9="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="244">
+    <cfRule type="expression" dxfId="276" priority="244">
       <formula>$K9="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="245">
+    <cfRule type="expression" dxfId="275" priority="245">
       <formula>$K9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="246">
+    <cfRule type="expression" dxfId="274" priority="246">
       <formula>$K9="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="247">
+    <cfRule type="expression" dxfId="273" priority="247">
       <formula>$K9="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="248">
+    <cfRule type="expression" dxfId="272" priority="248">
       <formula>$K9="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="239" priority="233">
+    <cfRule type="expression" dxfId="271" priority="233">
       <formula>$K3="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="234">
+    <cfRule type="expression" dxfId="270" priority="234">
       <formula>$K3="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="235">
+    <cfRule type="expression" dxfId="269" priority="235">
       <formula>$K3="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="236">
+    <cfRule type="expression" dxfId="268" priority="236">
       <formula>$K3="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="237">
+    <cfRule type="expression" dxfId="267" priority="237">
       <formula>$K3="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="238">
+    <cfRule type="expression" dxfId="266" priority="238">
       <formula>$K3="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="239">
+    <cfRule type="expression" dxfId="265" priority="239">
       <formula>$K3="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="240">
+    <cfRule type="expression" dxfId="264" priority="240">
       <formula>$K3="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="231" priority="225">
+    <cfRule type="expression" dxfId="263" priority="225">
       <formula>$K70="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="226">
+    <cfRule type="expression" dxfId="262" priority="226">
       <formula>$K70="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="227">
+    <cfRule type="expression" dxfId="261" priority="227">
       <formula>$K70="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="228">
+    <cfRule type="expression" dxfId="260" priority="228">
       <formula>$K70="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="229">
+    <cfRule type="expression" dxfId="259" priority="229">
       <formula>$K70="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="230">
+    <cfRule type="expression" dxfId="258" priority="230">
       <formula>$K70="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="231">
+    <cfRule type="expression" dxfId="257" priority="231">
       <formula>$K70="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="232">
+    <cfRule type="expression" dxfId="256" priority="232">
       <formula>$K70="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="223" priority="217">
+    <cfRule type="expression" dxfId="255" priority="217">
       <formula>$K71="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="218">
+    <cfRule type="expression" dxfId="254" priority="218">
       <formula>$K71="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="219">
+    <cfRule type="expression" dxfId="253" priority="219">
       <formula>$K71="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="220">
+    <cfRule type="expression" dxfId="252" priority="220">
       <formula>$K71="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="221">
+    <cfRule type="expression" dxfId="251" priority="221">
       <formula>$K71="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="222">
+    <cfRule type="expression" dxfId="250" priority="222">
       <formula>$K71="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="223">
+    <cfRule type="expression" dxfId="249" priority="223">
       <formula>$K71="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="224">
+    <cfRule type="expression" dxfId="248" priority="224">
       <formula>$K71="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="215" priority="209">
+    <cfRule type="expression" dxfId="247" priority="209">
       <formula>$K72="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="210">
+    <cfRule type="expression" dxfId="246" priority="210">
       <formula>$K72="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="211">
+    <cfRule type="expression" dxfId="245" priority="211">
       <formula>$K72="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="212">
+    <cfRule type="expression" dxfId="244" priority="212">
       <formula>$K72="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="213">
+    <cfRule type="expression" dxfId="243" priority="213">
       <formula>$K72="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="214">
+    <cfRule type="expression" dxfId="242" priority="214">
       <formula>$K72="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="215">
+    <cfRule type="expression" dxfId="241" priority="215">
       <formula>$K72="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="216">
+    <cfRule type="expression" dxfId="240" priority="216">
       <formula>$K72="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="207" priority="201">
+    <cfRule type="expression" dxfId="239" priority="201">
       <formula>$K75="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="202">
+    <cfRule type="expression" dxfId="238" priority="202">
       <formula>$K75="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="203">
+    <cfRule type="expression" dxfId="237" priority="203">
       <formula>$K75="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="204">
+    <cfRule type="expression" dxfId="236" priority="204">
       <formula>$K75="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="205">
+    <cfRule type="expression" dxfId="235" priority="205">
       <formula>$K75="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="206">
+    <cfRule type="expression" dxfId="234" priority="206">
       <formula>$K75="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="207">
+    <cfRule type="expression" dxfId="233" priority="207">
       <formula>$K75="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="208">
+    <cfRule type="expression" dxfId="232" priority="208">
       <formula>$K75="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="199" priority="193">
+    <cfRule type="expression" dxfId="231" priority="193">
       <formula>$K82="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="194">
+    <cfRule type="expression" dxfId="230" priority="194">
       <formula>$K82="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="195">
+    <cfRule type="expression" dxfId="229" priority="195">
       <formula>$K82="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="196">
+    <cfRule type="expression" dxfId="228" priority="196">
       <formula>$K82="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="197">
+    <cfRule type="expression" dxfId="227" priority="197">
       <formula>$K82="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="198">
+    <cfRule type="expression" dxfId="226" priority="198">
       <formula>$K82="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="199">
+    <cfRule type="expression" dxfId="225" priority="199">
       <formula>$K82="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="200">
+    <cfRule type="expression" dxfId="224" priority="200">
       <formula>$K82="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="191" priority="185">
+    <cfRule type="expression" dxfId="223" priority="185">
       <formula>$K78="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="186">
+    <cfRule type="expression" dxfId="222" priority="186">
       <formula>$K78="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="187">
+    <cfRule type="expression" dxfId="221" priority="187">
       <formula>$K78="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="188">
+    <cfRule type="expression" dxfId="220" priority="188">
       <formula>$K78="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="189">
+    <cfRule type="expression" dxfId="219" priority="189">
       <formula>$K78="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="190">
+    <cfRule type="expression" dxfId="218" priority="190">
       <formula>$K78="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="191">
+    <cfRule type="expression" dxfId="217" priority="191">
       <formula>$K78="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="192">
+    <cfRule type="expression" dxfId="216" priority="192">
       <formula>$K78="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="183" priority="177">
+    <cfRule type="expression" dxfId="215" priority="177">
       <formula>$K85="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="178">
+    <cfRule type="expression" dxfId="214" priority="178">
       <formula>$K85="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="179">
+    <cfRule type="expression" dxfId="213" priority="179">
       <formula>$K85="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="180">
+    <cfRule type="expression" dxfId="212" priority="180">
       <formula>$K85="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="181">
+    <cfRule type="expression" dxfId="211" priority="181">
       <formula>$K85="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="182">
+    <cfRule type="expression" dxfId="210" priority="182">
       <formula>$K85="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="183">
+    <cfRule type="expression" dxfId="209" priority="183">
       <formula>$K85="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
+    <cfRule type="expression" dxfId="208" priority="184">
       <formula>$K85="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="175" priority="169">
+    <cfRule type="expression" dxfId="207" priority="169">
       <formula>$K76="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="170">
+    <cfRule type="expression" dxfId="206" priority="170">
       <formula>$K76="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="171">
+    <cfRule type="expression" dxfId="205" priority="171">
       <formula>$K76="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="172">
+    <cfRule type="expression" dxfId="204" priority="172">
       <formula>$K76="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="173">
+    <cfRule type="expression" dxfId="203" priority="173">
       <formula>$K76="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="174">
+    <cfRule type="expression" dxfId="202" priority="174">
       <formula>$K76="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="175">
+    <cfRule type="expression" dxfId="201" priority="175">
       <formula>$K76="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="176">
+    <cfRule type="expression" dxfId="200" priority="176">
       <formula>$K76="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="167" priority="161">
+    <cfRule type="expression" dxfId="199" priority="161">
       <formula>$K74="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="162">
+    <cfRule type="expression" dxfId="198" priority="162">
       <formula>$K74="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="163">
+    <cfRule type="expression" dxfId="197" priority="163">
       <formula>$K74="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="164">
+    <cfRule type="expression" dxfId="196" priority="164">
       <formula>$K74="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="165">
+    <cfRule type="expression" dxfId="195" priority="165">
       <formula>$K74="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="166">
+    <cfRule type="expression" dxfId="194" priority="166">
       <formula>$K74="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="167">
+    <cfRule type="expression" dxfId="193" priority="167">
       <formula>$K74="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
+    <cfRule type="expression" dxfId="192" priority="168">
       <formula>$K74="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="159" priority="153">
+    <cfRule type="expression" dxfId="191" priority="153">
       <formula>$K83="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="154">
+    <cfRule type="expression" dxfId="190" priority="154">
       <formula>$K83="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="155">
+    <cfRule type="expression" dxfId="189" priority="155">
       <formula>$K83="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="156">
+    <cfRule type="expression" dxfId="188" priority="156">
       <formula>$K83="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="157">
+    <cfRule type="expression" dxfId="187" priority="157">
       <formula>$K83="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="158">
+    <cfRule type="expression" dxfId="186" priority="158">
       <formula>$K83="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="159">
+    <cfRule type="expression" dxfId="185" priority="159">
       <formula>$K83="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="160">
+    <cfRule type="expression" dxfId="184" priority="160">
       <formula>$K83="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="151" priority="145">
+    <cfRule type="expression" dxfId="183" priority="145">
       <formula>$K73="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="146">
+    <cfRule type="expression" dxfId="182" priority="146">
       <formula>$K73="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="147">
+    <cfRule type="expression" dxfId="181" priority="147">
       <formula>$K73="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="148">
+    <cfRule type="expression" dxfId="180" priority="148">
       <formula>$K73="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="149">
+    <cfRule type="expression" dxfId="179" priority="149">
       <formula>$K73="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="150">
+    <cfRule type="expression" dxfId="178" priority="150">
       <formula>$K73="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="151">
+    <cfRule type="expression" dxfId="177" priority="151">
       <formula>$K73="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="152">
+    <cfRule type="expression" dxfId="176" priority="152">
       <formula>$K73="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="143" priority="137">
+    <cfRule type="expression" dxfId="175" priority="137">
       <formula>$K86="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="138">
+    <cfRule type="expression" dxfId="174" priority="138">
       <formula>$K86="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="139">
+    <cfRule type="expression" dxfId="173" priority="139">
       <formula>$K86="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="140">
+    <cfRule type="expression" dxfId="172" priority="140">
       <formula>$K86="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="141">
+    <cfRule type="expression" dxfId="171" priority="141">
       <formula>$K86="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="142">
+    <cfRule type="expression" dxfId="170" priority="142">
       <formula>$K86="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="143">
+    <cfRule type="expression" dxfId="169" priority="143">
       <formula>$K86="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="144">
+    <cfRule type="expression" dxfId="168" priority="144">
       <formula>$K86="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="135" priority="129">
+    <cfRule type="expression" dxfId="167" priority="129">
       <formula>$K77="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="130">
+    <cfRule type="expression" dxfId="166" priority="130">
       <formula>$K77="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="131">
+    <cfRule type="expression" dxfId="165" priority="131">
       <formula>$K77="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="132">
+    <cfRule type="expression" dxfId="164" priority="132">
       <formula>$K77="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="133">
+    <cfRule type="expression" dxfId="163" priority="133">
       <formula>$K77="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="134">
+    <cfRule type="expression" dxfId="162" priority="134">
       <formula>$K77="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="135">
+    <cfRule type="expression" dxfId="161" priority="135">
       <formula>$K77="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="136">
+    <cfRule type="expression" dxfId="160" priority="136">
       <formula>$K77="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="127" priority="121">
+    <cfRule type="expression" dxfId="159" priority="121">
       <formula>$K80="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="122">
+    <cfRule type="expression" dxfId="158" priority="122">
       <formula>$K80="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="123">
+    <cfRule type="expression" dxfId="157" priority="123">
       <formula>$K80="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="124">
+    <cfRule type="expression" dxfId="156" priority="124">
       <formula>$K80="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="125">
+    <cfRule type="expression" dxfId="155" priority="125">
       <formula>$K80="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="126">
+    <cfRule type="expression" dxfId="154" priority="126">
       <formula>$K80="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="127">
+    <cfRule type="expression" dxfId="153" priority="127">
       <formula>$K80="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="128">
+    <cfRule type="expression" dxfId="152" priority="128">
       <formula>$K80="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="119" priority="113">
+    <cfRule type="expression" dxfId="151" priority="113">
       <formula>$K84="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="150" priority="114">
       <formula>$K84="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="115">
+    <cfRule type="expression" dxfId="149" priority="115">
       <formula>$K84="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="148" priority="116">
       <formula>$K84="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="117">
+    <cfRule type="expression" dxfId="147" priority="117">
       <formula>$K84="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="118">
+    <cfRule type="expression" dxfId="146" priority="118">
       <formula>$K84="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="119">
+    <cfRule type="expression" dxfId="145" priority="119">
       <formula>$K84="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="120">
+    <cfRule type="expression" dxfId="144" priority="120">
       <formula>$K84="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="111" priority="105">
+    <cfRule type="expression" dxfId="143" priority="105">
       <formula>$K81="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="106">
+    <cfRule type="expression" dxfId="142" priority="106">
       <formula>$K81="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="107">
+    <cfRule type="expression" dxfId="141" priority="107">
       <formula>$K81="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="108">
+    <cfRule type="expression" dxfId="140" priority="108">
       <formula>$K81="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="109">
+    <cfRule type="expression" dxfId="139" priority="109">
       <formula>$K81="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="110">
+    <cfRule type="expression" dxfId="138" priority="110">
       <formula>$K81="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="111">
+    <cfRule type="expression" dxfId="137" priority="111">
       <formula>$K81="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="112">
+    <cfRule type="expression" dxfId="136" priority="112">
       <formula>$K81="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="103" priority="97">
+    <cfRule type="expression" dxfId="135" priority="97">
       <formula>$K79="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="98">
+    <cfRule type="expression" dxfId="134" priority="98">
       <formula>$K79="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="99">
+    <cfRule type="expression" dxfId="133" priority="99">
       <formula>$K79="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="100">
+    <cfRule type="expression" dxfId="132" priority="100">
       <formula>$K79="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="101">
+    <cfRule type="expression" dxfId="131" priority="101">
       <formula>$K79="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="102">
+    <cfRule type="expression" dxfId="130" priority="102">
       <formula>$K79="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="103">
+    <cfRule type="expression" dxfId="129" priority="103">
       <formula>$K79="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="104">
+    <cfRule type="expression" dxfId="128" priority="104">
       <formula>$K79="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="95" priority="89">
+    <cfRule type="expression" dxfId="127" priority="89">
       <formula>$K4="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="126" priority="90">
       <formula>$K4="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="91">
+    <cfRule type="expression" dxfId="125" priority="91">
       <formula>$K4="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="92">
+    <cfRule type="expression" dxfId="124" priority="92">
       <formula>$K4="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="123" priority="93">
       <formula>$K4="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="94">
+    <cfRule type="expression" dxfId="122" priority="94">
       <formula>$K4="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="95">
+    <cfRule type="expression" dxfId="121" priority="95">
       <formula>$K4="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="96">
+    <cfRule type="expression" dxfId="120" priority="96">
       <formula>$K4="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="119" priority="81">
       <formula>$K91="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="118" priority="82">
       <formula>$K91="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="117" priority="83">
       <formula>$K91="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="116" priority="84">
       <formula>$K91="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="115" priority="85">
       <formula>$K91="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="114" priority="86">
       <formula>$K91="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87">
+    <cfRule type="expression" dxfId="113" priority="87">
       <formula>$K91="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88">
+    <cfRule type="expression" dxfId="112" priority="88">
       <formula>$K91="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="111" priority="73">
       <formula>$K90="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="110" priority="74">
       <formula>$K90="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="75">
+    <cfRule type="expression" dxfId="109" priority="75">
       <formula>$K90="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="108" priority="76">
       <formula>$K90="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="107" priority="77">
       <formula>$K90="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78">
+    <cfRule type="expression" dxfId="106" priority="78">
       <formula>$K90="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="79">
+    <cfRule type="expression" dxfId="105" priority="79">
       <formula>$K90="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="80">
+    <cfRule type="expression" dxfId="104" priority="80">
       <formula>$K90="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="71" priority="65">
+    <cfRule type="expression" dxfId="103" priority="65">
       <formula>$K89="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="102" priority="66">
       <formula>$K89="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="67">
+    <cfRule type="expression" dxfId="101" priority="67">
       <formula>$K89="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="100" priority="68">
       <formula>$K89="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="99" priority="69">
       <formula>$K89="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="98" priority="70">
       <formula>$K89="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="97" priority="71">
       <formula>$K89="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="96" priority="72">
       <formula>$K89="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="63" priority="57">
+    <cfRule type="expression" dxfId="95" priority="57">
       <formula>$K88="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="94" priority="58">
       <formula>$K88="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="93" priority="59">
       <formula>$K88="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="92" priority="60">
       <formula>$K88="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="91" priority="61">
       <formula>$K88="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="90" priority="62">
       <formula>$K88="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="89" priority="63">
       <formula>$K88="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="88" priority="64">
       <formula>$K88="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="87" priority="49">
       <formula>$K87="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="86" priority="50">
       <formula>$K87="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="85" priority="51">
       <formula>$K87="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="84" priority="52">
       <formula>$K87="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="83" priority="53">
       <formula>$K87="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="82" priority="54">
       <formula>$K87="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="81" priority="55">
       <formula>$K87="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="80" priority="56">
       <formula>$K87="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="79" priority="41">
       <formula>$K36="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="78" priority="42">
       <formula>$K36="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="77" priority="43">
       <formula>$K36="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="76" priority="44">
       <formula>$K36="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="75" priority="45">
       <formula>$K36="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="74" priority="46">
       <formula>$K36="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="73" priority="47">
       <formula>$K36="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="72" priority="48">
       <formula>$K36="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="71" priority="33">
       <formula>$K37="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="70" priority="34">
       <formula>$K37="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="69" priority="35">
       <formula>$K37="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="68" priority="36">
       <formula>$K37="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="67" priority="37">
       <formula>$K37="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="66" priority="38">
       <formula>$K37="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="65" priority="39">
       <formula>$K37="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="64" priority="40">
       <formula>$K37="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="63" priority="25">
       <formula>$K45="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="62" priority="26">
       <formula>$K45="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="61" priority="27">
       <formula>$K45="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="60" priority="28">
       <formula>$K45="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="59" priority="29">
       <formula>$K45="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="58" priority="30">
       <formula>$K45="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="57" priority="31">
       <formula>$K45="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="56" priority="32">
       <formula>$K45="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="55" priority="17">
       <formula>$K63="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="54" priority="18">
       <formula>$K63="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="53" priority="19">
       <formula>$K63="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="52" priority="20">
       <formula>$K63="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="51" priority="21">
       <formula>$K63="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="50" priority="22">
       <formula>$K63="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="49" priority="23">
       <formula>$K63="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="48" priority="24">
       <formula>$K63="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>$K69="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>$K69="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="45" priority="11">
       <formula>$K69="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="44" priority="12">
       <formula>$K69="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="43" priority="13">
       <formula>$K69="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="42" priority="14">
       <formula>$K69="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="41" priority="15">
       <formula>$K69="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="40" priority="16">
       <formula>$K69="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>$K9="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>$K9="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$K9="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$K9="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>$K9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>$K9="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>$K9="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>$K9="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16642,106 +16266,106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A104">
-    <cfRule type="expression" dxfId="1007" priority="41">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>$D1="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="42">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>$D1="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1005" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$D1="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>$D1="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1003" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>$D1="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1002" priority="46">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>$D1="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="47">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>$D1="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="48">
+    <cfRule type="expression" dxfId="24" priority="48">
       <formula>$D1="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="expression" dxfId="999" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>$D105="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="998" priority="34">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>$D105="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="997" priority="35">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>$D105="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="36">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>$D105="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="995" priority="37">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>$D105="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="994" priority="38">
+    <cfRule type="expression" dxfId="18" priority="38">
       <formula>$D105="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="993" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>$D105="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="40">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>$D105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B104">
-    <cfRule type="expression" dxfId="975" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$D1="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="974" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$D1="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="973" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$D1="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="972" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$D1="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="971" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$D1="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="970" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$D1="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="969" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$D1="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="968" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$D1="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="expression" dxfId="967" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$D105="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$D105="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$D105="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$D105="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$D105="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D105="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$D105="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$D105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16885,9 +16509,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17088,27 +16715,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17133,9 +16748,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\July Regression\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1253,332 +1253,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2117,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2395,7 +2070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -5683,106 +5358,106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A104">
-    <cfRule type="expression" dxfId="71" priority="41">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>$D1="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="42">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>$D1="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$D1="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>$D1="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>$D1="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="46">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>$D1="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="47">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>$D1="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="48">
+    <cfRule type="expression" dxfId="24" priority="48">
       <formula>$D1="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="expression" dxfId="63" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>$D105="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="34">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>$D105="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="35">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>$D105="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="36">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>$D105="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="37">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>$D105="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="38">
+    <cfRule type="expression" dxfId="18" priority="38">
       <formula>$D105="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>$D105="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="40">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>$D105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B104">
-    <cfRule type="expression" dxfId="55" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$D1="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$D1="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$D1="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$D1="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$D1="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$D1="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$D1="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$D1="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$D105="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$D105="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$D105="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$D105="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$D105="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D105="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$D105="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$D105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5926,12 +5601,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6132,15 +5804,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6165,18 +5849,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -1793,7 +1793,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1838,7 @@
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5601,9 +5601,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5804,27 +5807,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5849,9 +5840,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -1793,7 +1793,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -1793,7 +1793,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5601,12 +5601,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5807,15 +5804,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5840,18 +5849,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Script Fixing\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8087,7 +8087,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10213,2394 +10213,2394 @@
   </sheetData>
   <autoFilter ref="A1:E100"/>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="735" priority="729">
+    <cfRule type="expression" dxfId="767" priority="729">
       <formula>$L3="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="730">
+    <cfRule type="expression" dxfId="766" priority="730">
       <formula>$L3="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="731">
+    <cfRule type="expression" dxfId="765" priority="731">
       <formula>$L3="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="732">
+    <cfRule type="expression" dxfId="764" priority="732">
       <formula>$L3="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="733">
+    <cfRule type="expression" dxfId="763" priority="733">
       <formula>$L3="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="734">
+    <cfRule type="expression" dxfId="762" priority="734">
       <formula>$L3="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="735">
+    <cfRule type="expression" dxfId="761" priority="735">
       <formula>$L3="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="736">
+    <cfRule type="expression" dxfId="760" priority="736">
       <formula>$L3="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="727" priority="721">
+    <cfRule type="expression" dxfId="759" priority="721">
       <formula>$L4="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="722">
+    <cfRule type="expression" dxfId="758" priority="722">
       <formula>$L4="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="723">
+    <cfRule type="expression" dxfId="757" priority="723">
       <formula>$L4="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="724">
+    <cfRule type="expression" dxfId="756" priority="724">
       <formula>$L4="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="725">
+    <cfRule type="expression" dxfId="755" priority="725">
       <formula>$L4="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="726">
+    <cfRule type="expression" dxfId="754" priority="726">
       <formula>$L4="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="727">
+    <cfRule type="expression" dxfId="753" priority="727">
       <formula>$L4="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="728">
+    <cfRule type="expression" dxfId="752" priority="728">
       <formula>$L4="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B44">
-    <cfRule type="expression" dxfId="719" priority="713">
+    <cfRule type="expression" dxfId="751" priority="713">
       <formula>$L43="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="714">
+    <cfRule type="expression" dxfId="750" priority="714">
       <formula>$L43="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="715">
+    <cfRule type="expression" dxfId="749" priority="715">
       <formula>$L43="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="716">
+    <cfRule type="expression" dxfId="748" priority="716">
       <formula>$L43="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="717">
+    <cfRule type="expression" dxfId="747" priority="717">
       <formula>$L43="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="718">
+    <cfRule type="expression" dxfId="746" priority="718">
       <formula>$L43="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="719">
+    <cfRule type="expression" dxfId="745" priority="719">
       <formula>$L43="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="720">
+    <cfRule type="expression" dxfId="744" priority="720">
       <formula>$L43="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="expression" dxfId="711" priority="609">
+    <cfRule type="expression" dxfId="743" priority="609">
       <formula>$L98="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="610">
+    <cfRule type="expression" dxfId="742" priority="610">
       <formula>$L98="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="611">
+    <cfRule type="expression" dxfId="741" priority="611">
       <formula>$L98="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="612">
+    <cfRule type="expression" dxfId="740" priority="612">
       <formula>$L98="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="613">
+    <cfRule type="expression" dxfId="739" priority="613">
       <formula>$L98="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="614">
+    <cfRule type="expression" dxfId="738" priority="614">
       <formula>$L98="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="615">
+    <cfRule type="expression" dxfId="737" priority="615">
       <formula>$L98="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="616">
+    <cfRule type="expression" dxfId="736" priority="616">
       <formula>$L98="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="703" priority="705">
+    <cfRule type="expression" dxfId="735" priority="705">
       <formula>$L70="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="706">
+    <cfRule type="expression" dxfId="734" priority="706">
       <formula>$L70="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="707">
+    <cfRule type="expression" dxfId="733" priority="707">
       <formula>$L70="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="708">
+    <cfRule type="expression" dxfId="732" priority="708">
       <formula>$L70="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="709">
+    <cfRule type="expression" dxfId="731" priority="709">
       <formula>$L70="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="710">
+    <cfRule type="expression" dxfId="730" priority="710">
       <formula>$L70="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="711">
+    <cfRule type="expression" dxfId="729" priority="711">
       <formula>$L70="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="712">
+    <cfRule type="expression" dxfId="728" priority="712">
       <formula>$L70="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="expression" dxfId="695" priority="697">
+    <cfRule type="expression" dxfId="727" priority="697">
       <formula>$L76="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="698">
+    <cfRule type="expression" dxfId="726" priority="698">
       <formula>$L76="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="699">
+    <cfRule type="expression" dxfId="725" priority="699">
       <formula>$L76="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="700">
+    <cfRule type="expression" dxfId="724" priority="700">
       <formula>$L76="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="701">
+    <cfRule type="expression" dxfId="723" priority="701">
       <formula>$L76="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="702">
+    <cfRule type="expression" dxfId="722" priority="702">
       <formula>$L76="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="703">
+    <cfRule type="expression" dxfId="721" priority="703">
       <formula>$L76="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="704">
+    <cfRule type="expression" dxfId="720" priority="704">
       <formula>$L76="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B81">
-    <cfRule type="expression" dxfId="687" priority="689">
+    <cfRule type="expression" dxfId="719" priority="689">
       <formula>$L77="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="690">
+    <cfRule type="expression" dxfId="718" priority="690">
       <formula>$L77="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="691">
+    <cfRule type="expression" dxfId="717" priority="691">
       <formula>$L77="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="692">
+    <cfRule type="expression" dxfId="716" priority="692">
       <formula>$L77="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="693">
+    <cfRule type="expression" dxfId="715" priority="693">
       <formula>$L77="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="694">
+    <cfRule type="expression" dxfId="714" priority="694">
       <formula>$L77="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="695">
+    <cfRule type="expression" dxfId="713" priority="695">
       <formula>$L77="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="696">
+    <cfRule type="expression" dxfId="712" priority="696">
       <formula>$L77="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B87">
-    <cfRule type="expression" dxfId="679" priority="681">
+    <cfRule type="expression" dxfId="711" priority="681">
       <formula>$L82="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="682">
+    <cfRule type="expression" dxfId="710" priority="682">
       <formula>$L82="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="683">
+    <cfRule type="expression" dxfId="709" priority="683">
       <formula>$L82="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="684">
+    <cfRule type="expression" dxfId="708" priority="684">
       <formula>$L82="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="685">
+    <cfRule type="expression" dxfId="707" priority="685">
       <formula>$L82="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="686">
+    <cfRule type="expression" dxfId="706" priority="686">
       <formula>$L82="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="687">
+    <cfRule type="expression" dxfId="705" priority="687">
       <formula>$L82="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="688">
+    <cfRule type="expression" dxfId="704" priority="688">
       <formula>$L82="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="671" priority="673">
+    <cfRule type="expression" dxfId="703" priority="673">
       <formula>$L88="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="674">
+    <cfRule type="expression" dxfId="702" priority="674">
       <formula>$L88="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="675">
+    <cfRule type="expression" dxfId="701" priority="675">
       <formula>$L88="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="676">
+    <cfRule type="expression" dxfId="700" priority="676">
       <formula>$L88="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="677">
+    <cfRule type="expression" dxfId="699" priority="677">
       <formula>$L88="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="678">
+    <cfRule type="expression" dxfId="698" priority="678">
       <formula>$L88="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="679">
+    <cfRule type="expression" dxfId="697" priority="679">
       <formula>$L88="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="680">
+    <cfRule type="expression" dxfId="696" priority="680">
       <formula>$L88="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="663" priority="665">
+    <cfRule type="expression" dxfId="695" priority="665">
       <formula>$L89="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="666">
+    <cfRule type="expression" dxfId="694" priority="666">
       <formula>$L89="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="667">
+    <cfRule type="expression" dxfId="693" priority="667">
       <formula>$L89="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="668">
+    <cfRule type="expression" dxfId="692" priority="668">
       <formula>$L89="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="669">
+    <cfRule type="expression" dxfId="691" priority="669">
       <formula>$L89="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="670">
+    <cfRule type="expression" dxfId="690" priority="670">
       <formula>$L89="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="671">
+    <cfRule type="expression" dxfId="689" priority="671">
       <formula>$L89="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="672">
+    <cfRule type="expression" dxfId="688" priority="672">
       <formula>$L89="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="655" priority="657">
+    <cfRule type="expression" dxfId="687" priority="657">
       <formula>$L90="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="658">
+    <cfRule type="expression" dxfId="686" priority="658">
       <formula>$L90="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="659">
+    <cfRule type="expression" dxfId="685" priority="659">
       <formula>$L90="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="660">
+    <cfRule type="expression" dxfId="684" priority="660">
       <formula>$L90="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="661">
+    <cfRule type="expression" dxfId="683" priority="661">
       <formula>$L90="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="662">
+    <cfRule type="expression" dxfId="682" priority="662">
       <formula>$L90="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="663">
+    <cfRule type="expression" dxfId="681" priority="663">
       <formula>$L90="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="664">
+    <cfRule type="expression" dxfId="680" priority="664">
       <formula>$L90="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="647" priority="649">
+    <cfRule type="expression" dxfId="679" priority="649">
       <formula>$L91="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="650">
+    <cfRule type="expression" dxfId="678" priority="650">
       <formula>$L91="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="651">
+    <cfRule type="expression" dxfId="677" priority="651">
       <formula>$L91="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="652">
+    <cfRule type="expression" dxfId="676" priority="652">
       <formula>$L91="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="653">
+    <cfRule type="expression" dxfId="675" priority="653">
       <formula>$L91="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="654">
+    <cfRule type="expression" dxfId="674" priority="654">
       <formula>$L91="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="655">
+    <cfRule type="expression" dxfId="673" priority="655">
       <formula>$L91="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="656">
+    <cfRule type="expression" dxfId="672" priority="656">
       <formula>$L91="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="639" priority="641">
+    <cfRule type="expression" dxfId="671" priority="641">
       <formula>$L92="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="642">
+    <cfRule type="expression" dxfId="670" priority="642">
       <formula>$L92="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="643">
+    <cfRule type="expression" dxfId="669" priority="643">
       <formula>$L92="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="644">
+    <cfRule type="expression" dxfId="668" priority="644">
       <formula>$L92="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="645">
+    <cfRule type="expression" dxfId="667" priority="645">
       <formula>$L92="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="646">
+    <cfRule type="expression" dxfId="666" priority="646">
       <formula>$L92="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="647">
+    <cfRule type="expression" dxfId="665" priority="647">
       <formula>$L92="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="648">
+    <cfRule type="expression" dxfId="664" priority="648">
       <formula>$L92="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="631" priority="633">
+    <cfRule type="expression" dxfId="663" priority="633">
       <formula>$L93="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="634">
+    <cfRule type="expression" dxfId="662" priority="634">
       <formula>$L93="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="635">
+    <cfRule type="expression" dxfId="661" priority="635">
       <formula>$L93="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="636">
+    <cfRule type="expression" dxfId="660" priority="636">
       <formula>$L93="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="637">
+    <cfRule type="expression" dxfId="659" priority="637">
       <formula>$L93="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="638">
+    <cfRule type="expression" dxfId="658" priority="638">
       <formula>$L93="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="639">
+    <cfRule type="expression" dxfId="657" priority="639">
       <formula>$L93="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="640">
+    <cfRule type="expression" dxfId="656" priority="640">
       <formula>$L93="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B96">
-    <cfRule type="expression" dxfId="623" priority="625">
+    <cfRule type="expression" dxfId="655" priority="625">
       <formula>$L94="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="626">
+    <cfRule type="expression" dxfId="654" priority="626">
       <formula>$L94="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="627">
+    <cfRule type="expression" dxfId="653" priority="627">
       <formula>$L94="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="628">
+    <cfRule type="expression" dxfId="652" priority="628">
       <formula>$L94="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="629">
+    <cfRule type="expression" dxfId="651" priority="629">
       <formula>$L94="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="630">
+    <cfRule type="expression" dxfId="650" priority="630">
       <formula>$L94="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="631">
+    <cfRule type="expression" dxfId="649" priority="631">
       <formula>$L94="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="632">
+    <cfRule type="expression" dxfId="648" priority="632">
       <formula>$L94="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="expression" dxfId="615" priority="617">
+    <cfRule type="expression" dxfId="647" priority="617">
       <formula>$L97="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="618">
+    <cfRule type="expression" dxfId="646" priority="618">
       <formula>$L97="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="619">
+    <cfRule type="expression" dxfId="645" priority="619">
       <formula>$L97="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="620">
+    <cfRule type="expression" dxfId="644" priority="620">
       <formula>$L97="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="621">
+    <cfRule type="expression" dxfId="643" priority="621">
       <formula>$L97="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="622">
+    <cfRule type="expression" dxfId="642" priority="622">
       <formula>$L97="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="623">
+    <cfRule type="expression" dxfId="641" priority="623">
       <formula>$L97="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="624">
+    <cfRule type="expression" dxfId="640" priority="624">
       <formula>$L97="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B11">
-    <cfRule type="expression" dxfId="607" priority="601">
+    <cfRule type="expression" dxfId="639" priority="601">
       <formula>$L9="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="602">
+    <cfRule type="expression" dxfId="638" priority="602">
       <formula>$L9="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="603">
+    <cfRule type="expression" dxfId="637" priority="603">
       <formula>$L9="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="604">
+    <cfRule type="expression" dxfId="636" priority="604">
       <formula>$L9="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="605">
+    <cfRule type="expression" dxfId="635" priority="605">
       <formula>$L9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="606">
+    <cfRule type="expression" dxfId="634" priority="606">
       <formula>$L9="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="607">
+    <cfRule type="expression" dxfId="633" priority="607">
       <formula>$L9="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="608">
+    <cfRule type="expression" dxfId="632" priority="608">
       <formula>$L9="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="599" priority="593">
+    <cfRule type="expression" dxfId="631" priority="593">
       <formula>$L17="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="594">
+    <cfRule type="expression" dxfId="630" priority="594">
       <formula>$L17="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="595">
+    <cfRule type="expression" dxfId="629" priority="595">
       <formula>$L17="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="596">
+    <cfRule type="expression" dxfId="628" priority="596">
       <formula>$L17="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="597">
+    <cfRule type="expression" dxfId="627" priority="597">
       <formula>$L17="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="598">
+    <cfRule type="expression" dxfId="626" priority="598">
       <formula>$L17="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="599">
+    <cfRule type="expression" dxfId="625" priority="599">
       <formula>$L17="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="600">
+    <cfRule type="expression" dxfId="624" priority="600">
       <formula>$L17="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="591" priority="585">
+    <cfRule type="expression" dxfId="623" priority="585">
       <formula>$L29="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="586">
+    <cfRule type="expression" dxfId="622" priority="586">
       <formula>$L29="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="587">
+    <cfRule type="expression" dxfId="621" priority="587">
       <formula>$L29="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="588">
+    <cfRule type="expression" dxfId="620" priority="588">
       <formula>$L29="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="589">
+    <cfRule type="expression" dxfId="619" priority="589">
       <formula>$L29="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="590">
+    <cfRule type="expression" dxfId="618" priority="590">
       <formula>$L29="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="591">
+    <cfRule type="expression" dxfId="617" priority="591">
       <formula>$L29="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="592">
+    <cfRule type="expression" dxfId="616" priority="592">
       <formula>$L29="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="583" priority="577">
+    <cfRule type="expression" dxfId="615" priority="577">
       <formula>$L33="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="578">
+    <cfRule type="expression" dxfId="614" priority="578">
       <formula>$L33="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="579">
+    <cfRule type="expression" dxfId="613" priority="579">
       <formula>$L33="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="580">
+    <cfRule type="expression" dxfId="612" priority="580">
       <formula>$L33="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="581">
+    <cfRule type="expression" dxfId="611" priority="581">
       <formula>$L33="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="582">
+    <cfRule type="expression" dxfId="610" priority="582">
       <formula>$L33="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="583">
+    <cfRule type="expression" dxfId="609" priority="583">
       <formula>$L33="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="584">
+    <cfRule type="expression" dxfId="608" priority="584">
       <formula>$L33="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="expression" dxfId="575" priority="561">
+    <cfRule type="expression" dxfId="607" priority="561">
       <formula>$L36="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="562">
+    <cfRule type="expression" dxfId="606" priority="562">
       <formula>$L36="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="563">
+    <cfRule type="expression" dxfId="605" priority="563">
       <formula>$L36="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="564">
+    <cfRule type="expression" dxfId="604" priority="564">
       <formula>$L36="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="565">
+    <cfRule type="expression" dxfId="603" priority="565">
       <formula>$L36="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="566">
+    <cfRule type="expression" dxfId="602" priority="566">
       <formula>$L36="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="567">
+    <cfRule type="expression" dxfId="601" priority="567">
       <formula>$L36="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="568">
+    <cfRule type="expression" dxfId="600" priority="568">
       <formula>$L36="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B35">
-    <cfRule type="expression" dxfId="567" priority="569">
+    <cfRule type="expression" dxfId="599" priority="569">
       <formula>$L35="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="570">
+    <cfRule type="expression" dxfId="598" priority="570">
       <formula>$L35="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="571">
+    <cfRule type="expression" dxfId="597" priority="571">
       <formula>$L35="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="572">
+    <cfRule type="expression" dxfId="596" priority="572">
       <formula>$L35="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="573">
+    <cfRule type="expression" dxfId="595" priority="573">
       <formula>$L35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="574">
+    <cfRule type="expression" dxfId="594" priority="574">
       <formula>$L35="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="575">
+    <cfRule type="expression" dxfId="593" priority="575">
       <formula>$L35="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="576">
+    <cfRule type="expression" dxfId="592" priority="576">
       <formula>$L35="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B56">
-    <cfRule type="expression" dxfId="559" priority="553">
+    <cfRule type="expression" dxfId="591" priority="553">
       <formula>$L56="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="554">
+    <cfRule type="expression" dxfId="590" priority="554">
       <formula>$L56="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="555">
+    <cfRule type="expression" dxfId="589" priority="555">
       <formula>$L56="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="556">
+    <cfRule type="expression" dxfId="588" priority="556">
       <formula>$L56="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="557">
+    <cfRule type="expression" dxfId="587" priority="557">
       <formula>$L56="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="558">
+    <cfRule type="expression" dxfId="586" priority="558">
       <formula>$L56="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="559">
+    <cfRule type="expression" dxfId="585" priority="559">
       <formula>$L56="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="560">
+    <cfRule type="expression" dxfId="584" priority="560">
       <formula>$L56="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="551" priority="545">
+    <cfRule type="expression" dxfId="583" priority="545">
       <formula>$L3="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="546">
+    <cfRule type="expression" dxfId="582" priority="546">
       <formula>$L3="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="547">
+    <cfRule type="expression" dxfId="581" priority="547">
       <formula>$L3="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="548">
+    <cfRule type="expression" dxfId="580" priority="548">
       <formula>$L3="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="549">
+    <cfRule type="expression" dxfId="579" priority="549">
       <formula>$L3="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="550">
+    <cfRule type="expression" dxfId="578" priority="550">
       <formula>$L3="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="551">
+    <cfRule type="expression" dxfId="577" priority="551">
       <formula>$L3="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="552">
+    <cfRule type="expression" dxfId="576" priority="552">
       <formula>$L3="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="543" priority="537">
+    <cfRule type="expression" dxfId="575" priority="537">
       <formula>$L4="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="538">
+    <cfRule type="expression" dxfId="574" priority="538">
       <formula>$L4="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="539">
+    <cfRule type="expression" dxfId="573" priority="539">
       <formula>$L4="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="540">
+    <cfRule type="expression" dxfId="572" priority="540">
       <formula>$L4="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="541">
+    <cfRule type="expression" dxfId="571" priority="541">
       <formula>$L4="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="542">
+    <cfRule type="expression" dxfId="570" priority="542">
       <formula>$L4="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="543">
+    <cfRule type="expression" dxfId="569" priority="543">
       <formula>$L4="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="544">
+    <cfRule type="expression" dxfId="568" priority="544">
       <formula>$L4="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="expression" dxfId="535" priority="529">
+    <cfRule type="expression" dxfId="567" priority="529">
       <formula>$L43="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="530">
+    <cfRule type="expression" dxfId="566" priority="530">
       <formula>$L43="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="531">
+    <cfRule type="expression" dxfId="565" priority="531">
       <formula>$L43="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="532">
+    <cfRule type="expression" dxfId="564" priority="532">
       <formula>$L43="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="533">
+    <cfRule type="expression" dxfId="563" priority="533">
       <formula>$L43="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="534">
+    <cfRule type="expression" dxfId="562" priority="534">
       <formula>$L43="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="535">
+    <cfRule type="expression" dxfId="561" priority="535">
       <formula>$L43="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="536">
+    <cfRule type="expression" dxfId="560" priority="536">
       <formula>$L43="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="expression" dxfId="527" priority="425">
+    <cfRule type="expression" dxfId="559" priority="425">
       <formula>$L98="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="426">
+    <cfRule type="expression" dxfId="558" priority="426">
       <formula>$L98="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="427">
+    <cfRule type="expression" dxfId="557" priority="427">
       <formula>$L98="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="428">
+    <cfRule type="expression" dxfId="556" priority="428">
       <formula>$L98="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="429">
+    <cfRule type="expression" dxfId="555" priority="429">
       <formula>$L98="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="430">
+    <cfRule type="expression" dxfId="554" priority="430">
       <formula>$L98="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="431">
+    <cfRule type="expression" dxfId="553" priority="431">
       <formula>$L98="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="432">
+    <cfRule type="expression" dxfId="552" priority="432">
       <formula>$L98="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="519" priority="521">
+    <cfRule type="expression" dxfId="551" priority="521">
       <formula>$L70="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="522">
+    <cfRule type="expression" dxfId="550" priority="522">
       <formula>$L70="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="523">
+    <cfRule type="expression" dxfId="549" priority="523">
       <formula>$L70="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="524">
+    <cfRule type="expression" dxfId="548" priority="524">
       <formula>$L70="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="525">
+    <cfRule type="expression" dxfId="547" priority="525">
       <formula>$L70="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="526">
+    <cfRule type="expression" dxfId="546" priority="526">
       <formula>$L70="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="527">
+    <cfRule type="expression" dxfId="545" priority="527">
       <formula>$L70="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="528">
+    <cfRule type="expression" dxfId="544" priority="528">
       <formula>$L70="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="expression" dxfId="511" priority="513">
+    <cfRule type="expression" dxfId="543" priority="513">
       <formula>$L76="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="514">
+    <cfRule type="expression" dxfId="542" priority="514">
       <formula>$L76="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="515">
+    <cfRule type="expression" dxfId="541" priority="515">
       <formula>$L76="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="516">
+    <cfRule type="expression" dxfId="540" priority="516">
       <formula>$L76="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="517">
+    <cfRule type="expression" dxfId="539" priority="517">
       <formula>$L76="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="518">
+    <cfRule type="expression" dxfId="538" priority="518">
       <formula>$L76="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="519">
+    <cfRule type="expression" dxfId="537" priority="519">
       <formula>$L76="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="520">
+    <cfRule type="expression" dxfId="536" priority="520">
       <formula>$L76="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C81">
-    <cfRule type="expression" dxfId="503" priority="505">
+    <cfRule type="expression" dxfId="535" priority="505">
       <formula>$L77="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="506">
+    <cfRule type="expression" dxfId="534" priority="506">
       <formula>$L77="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="507">
+    <cfRule type="expression" dxfId="533" priority="507">
       <formula>$L77="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="508">
+    <cfRule type="expression" dxfId="532" priority="508">
       <formula>$L77="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="509">
+    <cfRule type="expression" dxfId="531" priority="509">
       <formula>$L77="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="510">
+    <cfRule type="expression" dxfId="530" priority="510">
       <formula>$L77="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="511">
+    <cfRule type="expression" dxfId="529" priority="511">
       <formula>$L77="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="512">
+    <cfRule type="expression" dxfId="528" priority="512">
       <formula>$L77="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="495" priority="497">
+    <cfRule type="expression" dxfId="527" priority="497">
       <formula>$L82="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="498">
+    <cfRule type="expression" dxfId="526" priority="498">
       <formula>$L82="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="499">
+    <cfRule type="expression" dxfId="525" priority="499">
       <formula>$L82="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="500">
+    <cfRule type="expression" dxfId="524" priority="500">
       <formula>$L82="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="501">
+    <cfRule type="expression" dxfId="523" priority="501">
       <formula>$L82="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="502">
+    <cfRule type="expression" dxfId="522" priority="502">
       <formula>$L82="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="503">
+    <cfRule type="expression" dxfId="521" priority="503">
       <formula>$L82="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="504">
+    <cfRule type="expression" dxfId="520" priority="504">
       <formula>$L82="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="487" priority="489">
+    <cfRule type="expression" dxfId="519" priority="489">
       <formula>$L88="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="490">
+    <cfRule type="expression" dxfId="518" priority="490">
       <formula>$L88="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="491">
+    <cfRule type="expression" dxfId="517" priority="491">
       <formula>$L88="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="492">
+    <cfRule type="expression" dxfId="516" priority="492">
       <formula>$L88="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="493">
+    <cfRule type="expression" dxfId="515" priority="493">
       <formula>$L88="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="494">
+    <cfRule type="expression" dxfId="514" priority="494">
       <formula>$L88="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="495">
+    <cfRule type="expression" dxfId="513" priority="495">
       <formula>$L88="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="496">
+    <cfRule type="expression" dxfId="512" priority="496">
       <formula>$L88="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="479" priority="481">
+    <cfRule type="expression" dxfId="511" priority="481">
       <formula>$L89="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="482">
+    <cfRule type="expression" dxfId="510" priority="482">
       <formula>$L89="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="483">
+    <cfRule type="expression" dxfId="509" priority="483">
       <formula>$L89="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="484">
+    <cfRule type="expression" dxfId="508" priority="484">
       <formula>$L89="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="485">
+    <cfRule type="expression" dxfId="507" priority="485">
       <formula>$L89="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="486">
+    <cfRule type="expression" dxfId="506" priority="486">
       <formula>$L89="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="487">
+    <cfRule type="expression" dxfId="505" priority="487">
       <formula>$L89="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="488">
+    <cfRule type="expression" dxfId="504" priority="488">
       <formula>$L89="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="471" priority="473">
+    <cfRule type="expression" dxfId="503" priority="473">
       <formula>$L90="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="474">
+    <cfRule type="expression" dxfId="502" priority="474">
       <formula>$L90="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="475">
+    <cfRule type="expression" dxfId="501" priority="475">
       <formula>$L90="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="476">
+    <cfRule type="expression" dxfId="500" priority="476">
       <formula>$L90="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="477">
+    <cfRule type="expression" dxfId="499" priority="477">
       <formula>$L90="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="478">
+    <cfRule type="expression" dxfId="498" priority="478">
       <formula>$L90="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="479">
+    <cfRule type="expression" dxfId="497" priority="479">
       <formula>$L90="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="480">
+    <cfRule type="expression" dxfId="496" priority="480">
       <formula>$L90="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="463" priority="465">
+    <cfRule type="expression" dxfId="495" priority="465">
       <formula>$L91="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="466">
+    <cfRule type="expression" dxfId="494" priority="466">
       <formula>$L91="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="467">
+    <cfRule type="expression" dxfId="493" priority="467">
       <formula>$L91="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="468">
+    <cfRule type="expression" dxfId="492" priority="468">
       <formula>$L91="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="469">
+    <cfRule type="expression" dxfId="491" priority="469">
       <formula>$L91="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="470">
+    <cfRule type="expression" dxfId="490" priority="470">
       <formula>$L91="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="471">
+    <cfRule type="expression" dxfId="489" priority="471">
       <formula>$L91="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="472">
+    <cfRule type="expression" dxfId="488" priority="472">
       <formula>$L91="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="455" priority="457">
+    <cfRule type="expression" dxfId="487" priority="457">
       <formula>$L92="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="458">
+    <cfRule type="expression" dxfId="486" priority="458">
       <formula>$L92="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="459">
+    <cfRule type="expression" dxfId="485" priority="459">
       <formula>$L92="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="460">
+    <cfRule type="expression" dxfId="484" priority="460">
       <formula>$L92="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="461">
+    <cfRule type="expression" dxfId="483" priority="461">
       <formula>$L92="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="462">
+    <cfRule type="expression" dxfId="482" priority="462">
       <formula>$L92="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="463">
+    <cfRule type="expression" dxfId="481" priority="463">
       <formula>$L92="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="464">
+    <cfRule type="expression" dxfId="480" priority="464">
       <formula>$L92="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="447" priority="449">
+    <cfRule type="expression" dxfId="479" priority="449">
       <formula>$L93="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="450">
+    <cfRule type="expression" dxfId="478" priority="450">
       <formula>$L93="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="451">
+    <cfRule type="expression" dxfId="477" priority="451">
       <formula>$L93="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="452">
+    <cfRule type="expression" dxfId="476" priority="452">
       <formula>$L93="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="453">
+    <cfRule type="expression" dxfId="475" priority="453">
       <formula>$L93="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="454">
+    <cfRule type="expression" dxfId="474" priority="454">
       <formula>$L93="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="455">
+    <cfRule type="expression" dxfId="473" priority="455">
       <formula>$L93="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="456">
+    <cfRule type="expression" dxfId="472" priority="456">
       <formula>$L93="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:C96">
-    <cfRule type="expression" dxfId="439" priority="441">
+    <cfRule type="expression" dxfId="471" priority="441">
       <formula>$L94="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="442">
+    <cfRule type="expression" dxfId="470" priority="442">
       <formula>$L94="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="443">
+    <cfRule type="expression" dxfId="469" priority="443">
       <formula>$L94="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="444">
+    <cfRule type="expression" dxfId="468" priority="444">
       <formula>$L94="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="445">
+    <cfRule type="expression" dxfId="467" priority="445">
       <formula>$L94="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="446">
+    <cfRule type="expression" dxfId="466" priority="446">
       <formula>$L94="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="447">
+    <cfRule type="expression" dxfId="465" priority="447">
       <formula>$L94="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="448">
+    <cfRule type="expression" dxfId="464" priority="448">
       <formula>$L94="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="431" priority="433">
+    <cfRule type="expression" dxfId="463" priority="433">
       <formula>$L97="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="434">
+    <cfRule type="expression" dxfId="462" priority="434">
       <formula>$L97="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="435">
+    <cfRule type="expression" dxfId="461" priority="435">
       <formula>$L97="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="436">
+    <cfRule type="expression" dxfId="460" priority="436">
       <formula>$L97="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="437">
+    <cfRule type="expression" dxfId="459" priority="437">
       <formula>$L97="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="438">
+    <cfRule type="expression" dxfId="458" priority="438">
       <formula>$L97="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="439">
+    <cfRule type="expression" dxfId="457" priority="439">
       <formula>$L97="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="440">
+    <cfRule type="expression" dxfId="456" priority="440">
       <formula>$L97="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C11">
-    <cfRule type="expression" dxfId="423" priority="417">
+    <cfRule type="expression" dxfId="455" priority="417">
       <formula>$L9="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="418">
+    <cfRule type="expression" dxfId="454" priority="418">
       <formula>$L9="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="419">
+    <cfRule type="expression" dxfId="453" priority="419">
       <formula>$L9="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="420">
+    <cfRule type="expression" dxfId="452" priority="420">
       <formula>$L9="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="421">
+    <cfRule type="expression" dxfId="451" priority="421">
       <formula>$L9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="422">
+    <cfRule type="expression" dxfId="450" priority="422">
       <formula>$L9="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="423">
+    <cfRule type="expression" dxfId="449" priority="423">
       <formula>$L9="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="424">
+    <cfRule type="expression" dxfId="448" priority="424">
       <formula>$L9="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="415" priority="409">
+    <cfRule type="expression" dxfId="447" priority="409">
       <formula>$L17="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="410">
+    <cfRule type="expression" dxfId="446" priority="410">
       <formula>$L17="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="411">
+    <cfRule type="expression" dxfId="445" priority="411">
       <formula>$L17="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="412">
+    <cfRule type="expression" dxfId="444" priority="412">
       <formula>$L17="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="413">
+    <cfRule type="expression" dxfId="443" priority="413">
       <formula>$L17="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="414">
+    <cfRule type="expression" dxfId="442" priority="414">
       <formula>$L17="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="415">
+    <cfRule type="expression" dxfId="441" priority="415">
       <formula>$L17="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="416">
+    <cfRule type="expression" dxfId="440" priority="416">
       <formula>$L17="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="407" priority="401">
+    <cfRule type="expression" dxfId="439" priority="401">
       <formula>$L29="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="402">
+    <cfRule type="expression" dxfId="438" priority="402">
       <formula>$L29="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="403">
+    <cfRule type="expression" dxfId="437" priority="403">
       <formula>$L29="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="404">
+    <cfRule type="expression" dxfId="436" priority="404">
       <formula>$L29="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="405">
+    <cfRule type="expression" dxfId="435" priority="405">
       <formula>$L29="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="406">
+    <cfRule type="expression" dxfId="434" priority="406">
       <formula>$L29="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="407">
+    <cfRule type="expression" dxfId="433" priority="407">
       <formula>$L29="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="408">
+    <cfRule type="expression" dxfId="432" priority="408">
       <formula>$L29="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="399" priority="393">
+    <cfRule type="expression" dxfId="431" priority="393">
       <formula>$L33="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="394">
+    <cfRule type="expression" dxfId="430" priority="394">
       <formula>$L33="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="395">
+    <cfRule type="expression" dxfId="429" priority="395">
       <formula>$L33="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="396">
+    <cfRule type="expression" dxfId="428" priority="396">
       <formula>$L33="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="397">
+    <cfRule type="expression" dxfId="427" priority="397">
       <formula>$L33="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="398">
+    <cfRule type="expression" dxfId="426" priority="398">
       <formula>$L33="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="399">
+    <cfRule type="expression" dxfId="425" priority="399">
       <formula>$L33="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="400">
+    <cfRule type="expression" dxfId="424" priority="400">
       <formula>$L33="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="391" priority="377">
+    <cfRule type="expression" dxfId="423" priority="377">
       <formula>$L36="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="378">
+    <cfRule type="expression" dxfId="422" priority="378">
       <formula>$L36="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="379">
+    <cfRule type="expression" dxfId="421" priority="379">
       <formula>$L36="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="380">
+    <cfRule type="expression" dxfId="420" priority="380">
       <formula>$L36="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="381">
+    <cfRule type="expression" dxfId="419" priority="381">
       <formula>$L36="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="382">
+    <cfRule type="expression" dxfId="418" priority="382">
       <formula>$L36="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="383">
+    <cfRule type="expression" dxfId="417" priority="383">
       <formula>$L36="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="384">
+    <cfRule type="expression" dxfId="416" priority="384">
       <formula>$L36="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="383" priority="385">
+    <cfRule type="expression" dxfId="415" priority="385">
       <formula>$L35="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="386">
+    <cfRule type="expression" dxfId="414" priority="386">
       <formula>$L35="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="387">
+    <cfRule type="expression" dxfId="413" priority="387">
       <formula>$L35="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="388">
+    <cfRule type="expression" dxfId="412" priority="388">
       <formula>$L35="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="389">
+    <cfRule type="expression" dxfId="411" priority="389">
       <formula>$L35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="390">
+    <cfRule type="expression" dxfId="410" priority="390">
       <formula>$L35="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="391">
+    <cfRule type="expression" dxfId="409" priority="391">
       <formula>$L35="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="392">
+    <cfRule type="expression" dxfId="408" priority="392">
       <formula>$L35="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="375" priority="369">
+    <cfRule type="expression" dxfId="407" priority="369">
       <formula>$L56="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="370">
+    <cfRule type="expression" dxfId="406" priority="370">
       <formula>$L56="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="371">
+    <cfRule type="expression" dxfId="405" priority="371">
       <formula>$L56="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="372">
+    <cfRule type="expression" dxfId="404" priority="372">
       <formula>$L56="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="373">
+    <cfRule type="expression" dxfId="403" priority="373">
       <formula>$L56="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="374">
+    <cfRule type="expression" dxfId="402" priority="374">
       <formula>$L56="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="375">
+    <cfRule type="expression" dxfId="401" priority="375">
       <formula>$L56="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="376">
+    <cfRule type="expression" dxfId="400" priority="376">
       <formula>$L56="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="367" priority="361">
+    <cfRule type="expression" dxfId="399" priority="361">
       <formula>$L3="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="362">
+    <cfRule type="expression" dxfId="398" priority="362">
       <formula>$L3="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="363">
+    <cfRule type="expression" dxfId="397" priority="363">
       <formula>$L3="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="364">
+    <cfRule type="expression" dxfId="396" priority="364">
       <formula>$L3="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="365">
+    <cfRule type="expression" dxfId="395" priority="365">
       <formula>$L3="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="366">
+    <cfRule type="expression" dxfId="394" priority="366">
       <formula>$L3="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="367">
+    <cfRule type="expression" dxfId="393" priority="367">
       <formula>$L3="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="368">
+    <cfRule type="expression" dxfId="392" priority="368">
       <formula>$L3="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="359" priority="353">
+    <cfRule type="expression" dxfId="391" priority="353">
       <formula>$L4="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="354">
+    <cfRule type="expression" dxfId="390" priority="354">
       <formula>$L4="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="355">
+    <cfRule type="expression" dxfId="389" priority="355">
       <formula>$L4="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="356">
+    <cfRule type="expression" dxfId="388" priority="356">
       <formula>$L4="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="357">
+    <cfRule type="expression" dxfId="387" priority="357">
       <formula>$L4="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="358">
+    <cfRule type="expression" dxfId="386" priority="358">
       <formula>$L4="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="359">
+    <cfRule type="expression" dxfId="385" priority="359">
       <formula>$L4="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="360">
+    <cfRule type="expression" dxfId="384" priority="360">
       <formula>$L4="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="expression" dxfId="351" priority="345">
+    <cfRule type="expression" dxfId="383" priority="345">
       <formula>$L43="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="346">
+    <cfRule type="expression" dxfId="382" priority="346">
       <formula>$L43="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="347">
+    <cfRule type="expression" dxfId="381" priority="347">
       <formula>$L43="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="348">
+    <cfRule type="expression" dxfId="380" priority="348">
       <formula>$L43="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="349">
+    <cfRule type="expression" dxfId="379" priority="349">
       <formula>$L43="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="350">
+    <cfRule type="expression" dxfId="378" priority="350">
       <formula>$L43="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="351">
+    <cfRule type="expression" dxfId="377" priority="351">
       <formula>$L43="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="352">
+    <cfRule type="expression" dxfId="376" priority="352">
       <formula>$L43="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="expression" dxfId="343" priority="241">
+    <cfRule type="expression" dxfId="375" priority="241">
       <formula>$L98="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="242">
+    <cfRule type="expression" dxfId="374" priority="242">
       <formula>$L98="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="243">
+    <cfRule type="expression" dxfId="373" priority="243">
       <formula>$L98="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="244">
+    <cfRule type="expression" dxfId="372" priority="244">
       <formula>$L98="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="245">
+    <cfRule type="expression" dxfId="371" priority="245">
       <formula>$L98="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="246">
+    <cfRule type="expression" dxfId="370" priority="246">
       <formula>$L98="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="247">
+    <cfRule type="expression" dxfId="369" priority="247">
       <formula>$L98="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="248">
+    <cfRule type="expression" dxfId="368" priority="248">
       <formula>$L98="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="335" priority="337">
+    <cfRule type="expression" dxfId="367" priority="337">
       <formula>$L70="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="338">
+    <cfRule type="expression" dxfId="366" priority="338">
       <formula>$L70="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="339">
+    <cfRule type="expression" dxfId="365" priority="339">
       <formula>$L70="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="340">
+    <cfRule type="expression" dxfId="364" priority="340">
       <formula>$L70="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="341">
+    <cfRule type="expression" dxfId="363" priority="341">
       <formula>$L70="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="342">
+    <cfRule type="expression" dxfId="362" priority="342">
       <formula>$L70="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="343">
+    <cfRule type="expression" dxfId="361" priority="343">
       <formula>$L70="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="344">
+    <cfRule type="expression" dxfId="360" priority="344">
       <formula>$L70="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="expression" dxfId="327" priority="329">
+    <cfRule type="expression" dxfId="359" priority="329">
       <formula>$L76="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="330">
+    <cfRule type="expression" dxfId="358" priority="330">
       <formula>$L76="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="331">
+    <cfRule type="expression" dxfId="357" priority="331">
       <formula>$L76="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="332">
+    <cfRule type="expression" dxfId="356" priority="332">
       <formula>$L76="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="333">
+    <cfRule type="expression" dxfId="355" priority="333">
       <formula>$L76="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="334">
+    <cfRule type="expression" dxfId="354" priority="334">
       <formula>$L76="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="335">
+    <cfRule type="expression" dxfId="353" priority="335">
       <formula>$L76="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="336">
+    <cfRule type="expression" dxfId="352" priority="336">
       <formula>$L76="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D81">
-    <cfRule type="expression" dxfId="319" priority="321">
+    <cfRule type="expression" dxfId="351" priority="321">
       <formula>$L77="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="322">
+    <cfRule type="expression" dxfId="350" priority="322">
       <formula>$L77="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="323">
+    <cfRule type="expression" dxfId="349" priority="323">
       <formula>$L77="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="324">
+    <cfRule type="expression" dxfId="348" priority="324">
       <formula>$L77="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="325">
+    <cfRule type="expression" dxfId="347" priority="325">
       <formula>$L77="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="326">
+    <cfRule type="expression" dxfId="346" priority="326">
       <formula>$L77="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="327">
+    <cfRule type="expression" dxfId="345" priority="327">
       <formula>$L77="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="328">
+    <cfRule type="expression" dxfId="344" priority="328">
       <formula>$L77="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D87">
-    <cfRule type="expression" dxfId="311" priority="313">
+    <cfRule type="expression" dxfId="343" priority="313">
       <formula>$L82="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="314">
+    <cfRule type="expression" dxfId="342" priority="314">
       <formula>$L82="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="315">
+    <cfRule type="expression" dxfId="341" priority="315">
       <formula>$L82="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="316">
+    <cfRule type="expression" dxfId="340" priority="316">
       <formula>$L82="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="317">
+    <cfRule type="expression" dxfId="339" priority="317">
       <formula>$L82="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="318">
+    <cfRule type="expression" dxfId="338" priority="318">
       <formula>$L82="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="319">
+    <cfRule type="expression" dxfId="337" priority="319">
       <formula>$L82="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="320">
+    <cfRule type="expression" dxfId="336" priority="320">
       <formula>$L82="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="303" priority="305">
+    <cfRule type="expression" dxfId="335" priority="305">
       <formula>$L88="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="306">
+    <cfRule type="expression" dxfId="334" priority="306">
       <formula>$L88="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="307">
+    <cfRule type="expression" dxfId="333" priority="307">
       <formula>$L88="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="308">
+    <cfRule type="expression" dxfId="332" priority="308">
       <formula>$L88="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="309">
+    <cfRule type="expression" dxfId="331" priority="309">
       <formula>$L88="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="310">
+    <cfRule type="expression" dxfId="330" priority="310">
       <formula>$L88="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="311">
+    <cfRule type="expression" dxfId="329" priority="311">
       <formula>$L88="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="312">
+    <cfRule type="expression" dxfId="328" priority="312">
       <formula>$L88="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="295" priority="297">
+    <cfRule type="expression" dxfId="327" priority="297">
       <formula>$L89="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="298">
+    <cfRule type="expression" dxfId="326" priority="298">
       <formula>$L89="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="299">
+    <cfRule type="expression" dxfId="325" priority="299">
       <formula>$L89="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="300">
+    <cfRule type="expression" dxfId="324" priority="300">
       <formula>$L89="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="301">
+    <cfRule type="expression" dxfId="323" priority="301">
       <formula>$L89="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="302">
+    <cfRule type="expression" dxfId="322" priority="302">
       <formula>$L89="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="303">
+    <cfRule type="expression" dxfId="321" priority="303">
       <formula>$L89="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="304">
+    <cfRule type="expression" dxfId="320" priority="304">
       <formula>$L89="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="expression" dxfId="287" priority="289">
+    <cfRule type="expression" dxfId="319" priority="289">
       <formula>$L90="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="290">
+    <cfRule type="expression" dxfId="318" priority="290">
       <formula>$L90="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="291">
+    <cfRule type="expression" dxfId="317" priority="291">
       <formula>$L90="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="292">
+    <cfRule type="expression" dxfId="316" priority="292">
       <formula>$L90="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="293">
+    <cfRule type="expression" dxfId="315" priority="293">
       <formula>$L90="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="294">
+    <cfRule type="expression" dxfId="314" priority="294">
       <formula>$L90="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="295">
+    <cfRule type="expression" dxfId="313" priority="295">
       <formula>$L90="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="296">
+    <cfRule type="expression" dxfId="312" priority="296">
       <formula>$L90="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="279" priority="281">
+    <cfRule type="expression" dxfId="311" priority="281">
       <formula>$L91="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="282">
+    <cfRule type="expression" dxfId="310" priority="282">
       <formula>$L91="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="283">
+    <cfRule type="expression" dxfId="309" priority="283">
       <formula>$L91="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="284">
+    <cfRule type="expression" dxfId="308" priority="284">
       <formula>$L91="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="285">
+    <cfRule type="expression" dxfId="307" priority="285">
       <formula>$L91="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="286">
+    <cfRule type="expression" dxfId="306" priority="286">
       <formula>$L91="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="287">
+    <cfRule type="expression" dxfId="305" priority="287">
       <formula>$L91="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="288">
+    <cfRule type="expression" dxfId="304" priority="288">
       <formula>$L91="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="expression" dxfId="271" priority="273">
+    <cfRule type="expression" dxfId="303" priority="273">
       <formula>$L92="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="274">
+    <cfRule type="expression" dxfId="302" priority="274">
       <formula>$L92="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="275">
+    <cfRule type="expression" dxfId="301" priority="275">
       <formula>$L92="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="276">
+    <cfRule type="expression" dxfId="300" priority="276">
       <formula>$L92="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="277">
+    <cfRule type="expression" dxfId="299" priority="277">
       <formula>$L92="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="278">
+    <cfRule type="expression" dxfId="298" priority="278">
       <formula>$L92="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="279">
+    <cfRule type="expression" dxfId="297" priority="279">
       <formula>$L92="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="280">
+    <cfRule type="expression" dxfId="296" priority="280">
       <formula>$L92="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="expression" dxfId="263" priority="265">
+    <cfRule type="expression" dxfId="295" priority="265">
       <formula>$L93="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="266">
+    <cfRule type="expression" dxfId="294" priority="266">
       <formula>$L93="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="267">
+    <cfRule type="expression" dxfId="293" priority="267">
       <formula>$L93="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="268">
+    <cfRule type="expression" dxfId="292" priority="268">
       <formula>$L93="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="269">
+    <cfRule type="expression" dxfId="291" priority="269">
       <formula>$L93="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="270">
+    <cfRule type="expression" dxfId="290" priority="270">
       <formula>$L93="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="271">
+    <cfRule type="expression" dxfId="289" priority="271">
       <formula>$L93="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="272">
+    <cfRule type="expression" dxfId="288" priority="272">
       <formula>$L93="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94:D96">
-    <cfRule type="expression" dxfId="255" priority="257">
+    <cfRule type="expression" dxfId="287" priority="257">
       <formula>$L94="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="258">
+    <cfRule type="expression" dxfId="286" priority="258">
       <formula>$L94="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="259">
+    <cfRule type="expression" dxfId="285" priority="259">
       <formula>$L94="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="260">
+    <cfRule type="expression" dxfId="284" priority="260">
       <formula>$L94="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="261">
+    <cfRule type="expression" dxfId="283" priority="261">
       <formula>$L94="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="262">
+    <cfRule type="expression" dxfId="282" priority="262">
       <formula>$L94="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="263">
+    <cfRule type="expression" dxfId="281" priority="263">
       <formula>$L94="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="264">
+    <cfRule type="expression" dxfId="280" priority="264">
       <formula>$L94="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="expression" dxfId="247" priority="249">
+    <cfRule type="expression" dxfId="279" priority="249">
       <formula>$L97="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="250">
+    <cfRule type="expression" dxfId="278" priority="250">
       <formula>$L97="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="251">
+    <cfRule type="expression" dxfId="277" priority="251">
       <formula>$L97="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="252">
+    <cfRule type="expression" dxfId="276" priority="252">
       <formula>$L97="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="253">
+    <cfRule type="expression" dxfId="275" priority="253">
       <formula>$L97="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="254">
+    <cfRule type="expression" dxfId="274" priority="254">
       <formula>$L97="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="255">
+    <cfRule type="expression" dxfId="273" priority="255">
       <formula>$L97="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="256">
+    <cfRule type="expression" dxfId="272" priority="256">
       <formula>$L97="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="expression" dxfId="239" priority="233">
+    <cfRule type="expression" dxfId="271" priority="233">
       <formula>$L9="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="234">
+    <cfRule type="expression" dxfId="270" priority="234">
       <formula>$L9="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="235">
+    <cfRule type="expression" dxfId="269" priority="235">
       <formula>$L9="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="236">
+    <cfRule type="expression" dxfId="268" priority="236">
       <formula>$L9="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="237">
+    <cfRule type="expression" dxfId="267" priority="237">
       <formula>$L9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="238">
+    <cfRule type="expression" dxfId="266" priority="238">
       <formula>$L9="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="239">
+    <cfRule type="expression" dxfId="265" priority="239">
       <formula>$L9="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="240">
+    <cfRule type="expression" dxfId="264" priority="240">
       <formula>$L9="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="231" priority="225">
+    <cfRule type="expression" dxfId="263" priority="225">
       <formula>$L17="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="226">
+    <cfRule type="expression" dxfId="262" priority="226">
       <formula>$L17="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="227">
+    <cfRule type="expression" dxfId="261" priority="227">
       <formula>$L17="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="228">
+    <cfRule type="expression" dxfId="260" priority="228">
       <formula>$L17="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="229">
+    <cfRule type="expression" dxfId="259" priority="229">
       <formula>$L17="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="230">
+    <cfRule type="expression" dxfId="258" priority="230">
       <formula>$L17="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="231">
+    <cfRule type="expression" dxfId="257" priority="231">
       <formula>$L17="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="232">
+    <cfRule type="expression" dxfId="256" priority="232">
       <formula>$L17="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="223" priority="217">
+    <cfRule type="expression" dxfId="255" priority="217">
       <formula>$L29="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="218">
+    <cfRule type="expression" dxfId="254" priority="218">
       <formula>$L29="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="219">
+    <cfRule type="expression" dxfId="253" priority="219">
       <formula>$L29="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="220">
+    <cfRule type="expression" dxfId="252" priority="220">
       <formula>$L29="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="221">
+    <cfRule type="expression" dxfId="251" priority="221">
       <formula>$L29="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="222">
+    <cfRule type="expression" dxfId="250" priority="222">
       <formula>$L29="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="223">
+    <cfRule type="expression" dxfId="249" priority="223">
       <formula>$L29="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="224">
+    <cfRule type="expression" dxfId="248" priority="224">
       <formula>$L29="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="215" priority="209">
+    <cfRule type="expression" dxfId="247" priority="209">
       <formula>$L33="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="210">
+    <cfRule type="expression" dxfId="246" priority="210">
       <formula>$L33="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="211">
+    <cfRule type="expression" dxfId="245" priority="211">
       <formula>$L33="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="212">
+    <cfRule type="expression" dxfId="244" priority="212">
       <formula>$L33="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="213">
+    <cfRule type="expression" dxfId="243" priority="213">
       <formula>$L33="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="214">
+    <cfRule type="expression" dxfId="242" priority="214">
       <formula>$L33="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="215">
+    <cfRule type="expression" dxfId="241" priority="215">
       <formula>$L33="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="216">
+    <cfRule type="expression" dxfId="240" priority="216">
       <formula>$L33="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="207" priority="193">
+    <cfRule type="expression" dxfId="239" priority="193">
       <formula>$L36="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="194">
+    <cfRule type="expression" dxfId="238" priority="194">
       <formula>$L36="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="195">
+    <cfRule type="expression" dxfId="237" priority="195">
       <formula>$L36="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="196">
+    <cfRule type="expression" dxfId="236" priority="196">
       <formula>$L36="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="197">
+    <cfRule type="expression" dxfId="235" priority="197">
       <formula>$L36="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="198">
+    <cfRule type="expression" dxfId="234" priority="198">
       <formula>$L36="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="199">
+    <cfRule type="expression" dxfId="233" priority="199">
       <formula>$L36="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="200">
+    <cfRule type="expression" dxfId="232" priority="200">
       <formula>$L36="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="199" priority="201">
+    <cfRule type="expression" dxfId="231" priority="201">
       <formula>$L35="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="202">
+    <cfRule type="expression" dxfId="230" priority="202">
       <formula>$L35="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="203">
+    <cfRule type="expression" dxfId="229" priority="203">
       <formula>$L35="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="204">
+    <cfRule type="expression" dxfId="228" priority="204">
       <formula>$L35="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="205">
+    <cfRule type="expression" dxfId="227" priority="205">
       <formula>$L35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="206">
+    <cfRule type="expression" dxfId="226" priority="206">
       <formula>$L35="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="207">
+    <cfRule type="expression" dxfId="225" priority="207">
       <formula>$L35="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="208">
+    <cfRule type="expression" dxfId="224" priority="208">
       <formula>$L35="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="191" priority="185">
+    <cfRule type="expression" dxfId="223" priority="185">
       <formula>$L56="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="186">
+    <cfRule type="expression" dxfId="222" priority="186">
       <formula>$L56="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="187">
+    <cfRule type="expression" dxfId="221" priority="187">
       <formula>$L56="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="188">
+    <cfRule type="expression" dxfId="220" priority="188">
       <formula>$L56="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="189">
+    <cfRule type="expression" dxfId="219" priority="189">
       <formula>$L56="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="190">
+    <cfRule type="expression" dxfId="218" priority="190">
       <formula>$L56="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="191">
+    <cfRule type="expression" dxfId="217" priority="191">
       <formula>$L56="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="192">
+    <cfRule type="expression" dxfId="216" priority="192">
       <formula>$L56="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="183" priority="177">
+    <cfRule type="expression" dxfId="215" priority="177">
       <formula>$L3="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="178">
+    <cfRule type="expression" dxfId="214" priority="178">
       <formula>$L3="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="179">
+    <cfRule type="expression" dxfId="213" priority="179">
       <formula>$L3="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="180">
+    <cfRule type="expression" dxfId="212" priority="180">
       <formula>$L3="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="181">
+    <cfRule type="expression" dxfId="211" priority="181">
       <formula>$L3="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="182">
+    <cfRule type="expression" dxfId="210" priority="182">
       <formula>$L3="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="183">
+    <cfRule type="expression" dxfId="209" priority="183">
       <formula>$L3="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
+    <cfRule type="expression" dxfId="208" priority="184">
       <formula>$L3="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="175" priority="169">
+    <cfRule type="expression" dxfId="207" priority="169">
       <formula>$L4="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="170">
+    <cfRule type="expression" dxfId="206" priority="170">
       <formula>$L4="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="171">
+    <cfRule type="expression" dxfId="205" priority="171">
       <formula>$L4="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="172">
+    <cfRule type="expression" dxfId="204" priority="172">
       <formula>$L4="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="173">
+    <cfRule type="expression" dxfId="203" priority="173">
       <formula>$L4="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="174">
+    <cfRule type="expression" dxfId="202" priority="174">
       <formula>$L4="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="175">
+    <cfRule type="expression" dxfId="201" priority="175">
       <formula>$L4="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="176">
+    <cfRule type="expression" dxfId="200" priority="176">
       <formula>$L4="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E44">
-    <cfRule type="expression" dxfId="167" priority="161">
+    <cfRule type="expression" dxfId="199" priority="161">
       <formula>$L43="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="162">
+    <cfRule type="expression" dxfId="198" priority="162">
       <formula>$L43="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="163">
+    <cfRule type="expression" dxfId="197" priority="163">
       <formula>$L43="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="164">
+    <cfRule type="expression" dxfId="196" priority="164">
       <formula>$L43="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="165">
+    <cfRule type="expression" dxfId="195" priority="165">
       <formula>$L43="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="166">
+    <cfRule type="expression" dxfId="194" priority="166">
       <formula>$L43="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="167">
+    <cfRule type="expression" dxfId="193" priority="167">
       <formula>$L43="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
+    <cfRule type="expression" dxfId="192" priority="168">
       <formula>$L43="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="159" priority="57">
+    <cfRule type="expression" dxfId="191" priority="57">
       <formula>$L98="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="58">
+    <cfRule type="expression" dxfId="190" priority="58">
       <formula>$L98="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="59">
+    <cfRule type="expression" dxfId="189" priority="59">
       <formula>$L98="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="60">
+    <cfRule type="expression" dxfId="188" priority="60">
       <formula>$L98="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="61">
+    <cfRule type="expression" dxfId="187" priority="61">
       <formula>$L98="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="62">
+    <cfRule type="expression" dxfId="186" priority="62">
       <formula>$L98="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="63">
+    <cfRule type="expression" dxfId="185" priority="63">
       <formula>$L98="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="64">
+    <cfRule type="expression" dxfId="184" priority="64">
       <formula>$L98="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="151" priority="153">
+    <cfRule type="expression" dxfId="183" priority="153">
       <formula>$L70="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="154">
+    <cfRule type="expression" dxfId="182" priority="154">
       <formula>$L70="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="155">
+    <cfRule type="expression" dxfId="181" priority="155">
       <formula>$L70="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="156">
+    <cfRule type="expression" dxfId="180" priority="156">
       <formula>$L70="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="157">
+    <cfRule type="expression" dxfId="179" priority="157">
       <formula>$L70="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="158">
+    <cfRule type="expression" dxfId="178" priority="158">
       <formula>$L70="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="159">
+    <cfRule type="expression" dxfId="177" priority="159">
       <formula>$L70="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="160">
+    <cfRule type="expression" dxfId="176" priority="160">
       <formula>$L70="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="143" priority="145">
+    <cfRule type="expression" dxfId="175" priority="145">
       <formula>$L76="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="146">
+    <cfRule type="expression" dxfId="174" priority="146">
       <formula>$L76="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="147">
+    <cfRule type="expression" dxfId="173" priority="147">
       <formula>$L76="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="148">
+    <cfRule type="expression" dxfId="172" priority="148">
       <formula>$L76="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="149">
+    <cfRule type="expression" dxfId="171" priority="149">
       <formula>$L76="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="150">
+    <cfRule type="expression" dxfId="170" priority="150">
       <formula>$L76="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="151">
+    <cfRule type="expression" dxfId="169" priority="151">
       <formula>$L76="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="152">
+    <cfRule type="expression" dxfId="168" priority="152">
       <formula>$L76="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E81">
-    <cfRule type="expression" dxfId="135" priority="137">
+    <cfRule type="expression" dxfId="167" priority="137">
       <formula>$L77="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="138">
+    <cfRule type="expression" dxfId="166" priority="138">
       <formula>$L77="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="139">
+    <cfRule type="expression" dxfId="165" priority="139">
       <formula>$L77="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="140">
+    <cfRule type="expression" dxfId="164" priority="140">
       <formula>$L77="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="141">
+    <cfRule type="expression" dxfId="163" priority="141">
       <formula>$L77="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="142">
+    <cfRule type="expression" dxfId="162" priority="142">
       <formula>$L77="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="143">
+    <cfRule type="expression" dxfId="161" priority="143">
       <formula>$L77="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="144">
+    <cfRule type="expression" dxfId="160" priority="144">
       <formula>$L77="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82:E87">
-    <cfRule type="expression" dxfId="127" priority="129">
+    <cfRule type="expression" dxfId="159" priority="129">
       <formula>$L82="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="130">
+    <cfRule type="expression" dxfId="158" priority="130">
       <formula>$L82="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="131">
+    <cfRule type="expression" dxfId="157" priority="131">
       <formula>$L82="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="132">
+    <cfRule type="expression" dxfId="156" priority="132">
       <formula>$L82="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="133">
+    <cfRule type="expression" dxfId="155" priority="133">
       <formula>$L82="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="134">
+    <cfRule type="expression" dxfId="154" priority="134">
       <formula>$L82="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="135">
+    <cfRule type="expression" dxfId="153" priority="135">
       <formula>$L82="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="136">
+    <cfRule type="expression" dxfId="152" priority="136">
       <formula>$L82="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="119" priority="121">
+    <cfRule type="expression" dxfId="151" priority="121">
       <formula>$L88="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="122">
+    <cfRule type="expression" dxfId="150" priority="122">
       <formula>$L88="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="123">
+    <cfRule type="expression" dxfId="149" priority="123">
       <formula>$L88="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="124">
+    <cfRule type="expression" dxfId="148" priority="124">
       <formula>$L88="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="125">
+    <cfRule type="expression" dxfId="147" priority="125">
       <formula>$L88="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="126">
+    <cfRule type="expression" dxfId="146" priority="126">
       <formula>$L88="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="127">
+    <cfRule type="expression" dxfId="145" priority="127">
       <formula>$L88="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="128">
+    <cfRule type="expression" dxfId="144" priority="128">
       <formula>$L88="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="111" priority="113">
+    <cfRule type="expression" dxfId="143" priority="113">
       <formula>$L89="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="114">
+    <cfRule type="expression" dxfId="142" priority="114">
       <formula>$L89="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="115">
+    <cfRule type="expression" dxfId="141" priority="115">
       <formula>$L89="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116">
+    <cfRule type="expression" dxfId="140" priority="116">
       <formula>$L89="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="117">
+    <cfRule type="expression" dxfId="139" priority="117">
       <formula>$L89="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="118">
+    <cfRule type="expression" dxfId="138" priority="118">
       <formula>$L89="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="119">
+    <cfRule type="expression" dxfId="137" priority="119">
       <formula>$L89="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="120">
+    <cfRule type="expression" dxfId="136" priority="120">
       <formula>$L89="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="103" priority="105">
+    <cfRule type="expression" dxfId="135" priority="105">
       <formula>$L90="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="106">
+    <cfRule type="expression" dxfId="134" priority="106">
       <formula>$L90="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="107">
+    <cfRule type="expression" dxfId="133" priority="107">
       <formula>$L90="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="108">
+    <cfRule type="expression" dxfId="132" priority="108">
       <formula>$L90="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="109">
+    <cfRule type="expression" dxfId="131" priority="109">
       <formula>$L90="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="110">
+    <cfRule type="expression" dxfId="130" priority="110">
       <formula>$L90="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="111">
+    <cfRule type="expression" dxfId="129" priority="111">
       <formula>$L90="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="112">
+    <cfRule type="expression" dxfId="128" priority="112">
       <formula>$L90="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="95" priority="97">
+    <cfRule type="expression" dxfId="127" priority="97">
       <formula>$L91="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="98">
+    <cfRule type="expression" dxfId="126" priority="98">
       <formula>$L91="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="99">
+    <cfRule type="expression" dxfId="125" priority="99">
       <formula>$L91="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="100">
+    <cfRule type="expression" dxfId="124" priority="100">
       <formula>$L91="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="101">
+    <cfRule type="expression" dxfId="123" priority="101">
       <formula>$L91="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="102">
+    <cfRule type="expression" dxfId="122" priority="102">
       <formula>$L91="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="103">
+    <cfRule type="expression" dxfId="121" priority="103">
       <formula>$L91="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="104">
+    <cfRule type="expression" dxfId="120" priority="104">
       <formula>$L91="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" dxfId="87" priority="89">
+    <cfRule type="expression" dxfId="119" priority="89">
       <formula>$L92="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="90">
+    <cfRule type="expression" dxfId="118" priority="90">
       <formula>$L92="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="91">
+    <cfRule type="expression" dxfId="117" priority="91">
       <formula>$L92="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="92">
+    <cfRule type="expression" dxfId="116" priority="92">
       <formula>$L92="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="93">
+    <cfRule type="expression" dxfId="115" priority="93">
       <formula>$L92="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="94">
+    <cfRule type="expression" dxfId="114" priority="94">
       <formula>$L92="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="95">
+    <cfRule type="expression" dxfId="113" priority="95">
       <formula>$L92="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="96">
+    <cfRule type="expression" dxfId="112" priority="96">
       <formula>$L92="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" dxfId="79" priority="81">
+    <cfRule type="expression" dxfId="111" priority="81">
       <formula>$L93="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="82">
+    <cfRule type="expression" dxfId="110" priority="82">
       <formula>$L93="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="83">
+    <cfRule type="expression" dxfId="109" priority="83">
       <formula>$L93="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="84">
+    <cfRule type="expression" dxfId="108" priority="84">
       <formula>$L93="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="85">
+    <cfRule type="expression" dxfId="107" priority="85">
       <formula>$L93="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="86">
+    <cfRule type="expression" dxfId="106" priority="86">
       <formula>$L93="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="87">
+    <cfRule type="expression" dxfId="105" priority="87">
       <formula>$L93="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="88">
+    <cfRule type="expression" dxfId="104" priority="88">
       <formula>$L93="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94:E96">
-    <cfRule type="expression" dxfId="71" priority="73">
+    <cfRule type="expression" dxfId="103" priority="73">
       <formula>$L94="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="74">
+    <cfRule type="expression" dxfId="102" priority="74">
       <formula>$L94="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="75">
+    <cfRule type="expression" dxfId="101" priority="75">
       <formula>$L94="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="76">
+    <cfRule type="expression" dxfId="100" priority="76">
       <formula>$L94="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="77">
+    <cfRule type="expression" dxfId="99" priority="77">
       <formula>$L94="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="78">
+    <cfRule type="expression" dxfId="98" priority="78">
       <formula>$L94="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="79">
+    <cfRule type="expression" dxfId="97" priority="79">
       <formula>$L94="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="80">
+    <cfRule type="expression" dxfId="96" priority="80">
       <formula>$L94="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="63" priority="65">
+    <cfRule type="expression" dxfId="95" priority="65">
       <formula>$L97="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="94" priority="66">
       <formula>$L97="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="67">
+    <cfRule type="expression" dxfId="93" priority="67">
       <formula>$L97="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="68">
+    <cfRule type="expression" dxfId="92" priority="68">
       <formula>$L97="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="69">
+    <cfRule type="expression" dxfId="91" priority="69">
       <formula>$L97="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="70">
+    <cfRule type="expression" dxfId="90" priority="70">
       <formula>$L97="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="71">
+    <cfRule type="expression" dxfId="89" priority="71">
       <formula>$L97="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="72">
+    <cfRule type="expression" dxfId="88" priority="72">
       <formula>$L97="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="87" priority="49">
       <formula>$L9="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="86" priority="50">
       <formula>$L9="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="85" priority="51">
       <formula>$L9="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="84" priority="52">
       <formula>$L9="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="83" priority="53">
       <formula>$L9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="82" priority="54">
       <formula>$L9="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="81" priority="55">
       <formula>$L9="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="80" priority="56">
       <formula>$L9="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="79" priority="41">
       <formula>$L17="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="78" priority="42">
       <formula>$L17="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="77" priority="43">
       <formula>$L17="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="76" priority="44">
       <formula>$L17="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="75" priority="45">
       <formula>$L17="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="74" priority="46">
       <formula>$L17="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="73" priority="47">
       <formula>$L17="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="72" priority="48">
       <formula>$L17="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="71" priority="33">
       <formula>$L29="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="70" priority="34">
       <formula>$L29="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="69" priority="35">
       <formula>$L29="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="68" priority="36">
       <formula>$L29="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="67" priority="37">
       <formula>$L29="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="66" priority="38">
       <formula>$L29="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="65" priority="39">
       <formula>$L29="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="64" priority="40">
       <formula>$L29="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="63" priority="25">
       <formula>$L33="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="62" priority="26">
       <formula>$L33="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="61" priority="27">
       <formula>$L33="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="60" priority="28">
       <formula>$L33="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="59" priority="29">
       <formula>$L33="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="58" priority="30">
       <formula>$L33="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="57" priority="31">
       <formula>$L33="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="56" priority="32">
       <formula>$L33="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="55" priority="9">
       <formula>$L36="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="54" priority="10">
       <formula>$L36="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="53" priority="11">
       <formula>$L36="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="52" priority="12">
       <formula>$L36="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="51" priority="13">
       <formula>$L36="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="50" priority="14">
       <formula>$L36="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="49" priority="15">
       <formula>$L36="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="48" priority="16">
       <formula>$L36="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="47" priority="17">
       <formula>$L35="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="46" priority="18">
       <formula>$L35="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="45" priority="19">
       <formula>$L35="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="44" priority="20">
       <formula>$L35="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>$L35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>$L35="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>$L35="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>$L35="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>$L56="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>$L56="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$L56="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$L56="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>$L56="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>$L56="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>$L56="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>$L56="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14192,106 +14192,106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A104">
-    <cfRule type="expression" dxfId="767" priority="41">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>$D1="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="42">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>$D1="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$D1="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>$D1="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>$D1="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="46">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>$D1="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="47">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>$D1="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="48">
+    <cfRule type="expression" dxfId="24" priority="48">
       <formula>$D1="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="expression" dxfId="759" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>$D105="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="34">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>$D105="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="35">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>$D105="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="36">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>$D105="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="37">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>$D105="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="38">
+    <cfRule type="expression" dxfId="18" priority="38">
       <formula>$D105="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>$D105="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="40">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>$D105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B104">
-    <cfRule type="expression" dxfId="751" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$D1="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$D1="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$D1="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$D1="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$D1="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$D1="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$D1="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$D1="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="expression" dxfId="743" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$D105="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$D105="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$D105="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$D105="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$D105="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D105="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$D105="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$D105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Script Fixing\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="420">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -1276,6 +1276,24 @@
   </si>
   <si>
     <t>2020-08: CH1-TGL</t>
+  </si>
+  <si>
+    <t>JobCreation_2</t>
+  </si>
+  <si>
+    <t>CreateBudget_2</t>
+  </si>
+  <si>
+    <t>CreateQuote_2</t>
+  </si>
+  <si>
+    <t>CRT-748</t>
+  </si>
+  <si>
+    <t>2020-09: CH1-HC1</t>
+  </si>
+  <si>
+    <t>CRT-755</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1505,12 +1523,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1562,6 +1593,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8086,8 +8120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8109,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8125,7 +8159,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8141,7 +8175,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8196,10 +8230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8207,6 +8241,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8270,6 +8305,11 @@
       </c>
       <c r="D4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8283,7 +8323,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8335,6 +8375,9 @@
       <c r="E3">
         <v>1008</v>
       </c>
+      <c r="F3">
+        <v>2031</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8342,6 +8385,9 @@
       </c>
       <c r="B4">
         <v>1322</v>
+      </c>
+      <c r="E4">
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8362,19 +8408,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -8387,11 +8434,14 @@
       <c r="D1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
@@ -8404,11 +8454,14 @@
       <c r="D2" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="31" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -8425,7 +8478,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -8442,7 +8495,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -8459,7 +8512,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -8476,7 +8529,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -8493,7 +8546,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -8509,8 +8562,11 @@
       <c r="E8" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -8527,7 +8583,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -8544,7 +8600,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -8561,7 +8617,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -8578,7 +8634,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -8595,7 +8651,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -8612,7 +8668,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -8629,7 +8685,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -9190,7 +9246,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -9207,7 +9263,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -9224,7 +9280,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -9241,7 +9297,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -9258,7 +9314,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -9275,7 +9331,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -9292,7 +9348,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -9309,7 +9365,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -9326,7 +9382,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -9343,7 +9399,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -9360,7 +9416,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -9377,7 +9433,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -9394,7 +9450,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -9410,8 +9466,11 @@
       <c r="E61" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -9428,7 +9487,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -9445,7 +9504,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -10210,8 +10269,31 @@
         <v>412</v>
       </c>
     </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>414</v>
+      </c>
+      <c r="E109" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E110" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>416</v>
+      </c>
+      <c r="E111" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E100"/>
   <conditionalFormatting sqref="B3">
     <cfRule type="expression" dxfId="767" priority="729">
       <formula>$L3="Passed"</formula>
@@ -14435,15 +14517,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -14640,6 +14713,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -14647,14 +14729,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14669,6 +14743,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\UAE\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="305">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>PostVendorJournal_3</t>
+  </si>
+  <si>
+    <t>UAE</t>
   </si>
 </sst>
 </file>
@@ -3970,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4009,7 +4012,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4025,7 +4028,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1008</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4083,7 +4086,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,6 +4153,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
@@ -4175,15 +4181,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4202,8 +4208,11 @@
       <c r="F1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
@@ -4219,8 +4228,11 @@
       <c r="F2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
@@ -4233,8 +4245,11 @@
       <c r="F3">
         <v>2031</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1753</v>
       </c>
@@ -4247,13 +4262,16 @@
       <c r="F4">
         <v>2025</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1319</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1228</v>
       </c>
@@ -4268,7 +4286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
@@ -9420,15 +9438,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -9625,6 +9634,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
@@ -9643,14 +9661,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9667,4 +9677,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\W2\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -1552,202 +1552,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="184">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="160">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3536,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3571,6 +3376,9 @@
       </c>
       <c r="B2">
         <v>1307</v>
+      </c>
+      <c r="C2">
+        <v>2113</v>
       </c>
       <c r="D2">
         <v>1517</v>
@@ -3644,7 +3452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -9780,314 +9588,314 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A98:B98 A7:B7">
-    <cfRule type="expression" dxfId="183" priority="993">
+    <cfRule type="expression" dxfId="159" priority="993">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="994">
+    <cfRule type="expression" dxfId="158" priority="994">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="995">
+    <cfRule type="expression" dxfId="157" priority="995">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="996">
+    <cfRule type="expression" dxfId="156" priority="996">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="997">
+    <cfRule type="expression" dxfId="155" priority="997">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="998">
+    <cfRule type="expression" dxfId="154" priority="998">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="999">
+    <cfRule type="expression" dxfId="153" priority="999">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="1000">
+    <cfRule type="expression" dxfId="152" priority="1000">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39">
-    <cfRule type="expression" dxfId="175" priority="1041">
+    <cfRule type="expression" dxfId="151" priority="1041">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="1042">
+    <cfRule type="expression" dxfId="150" priority="1042">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="1043">
+    <cfRule type="expression" dxfId="149" priority="1043">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="1044">
+    <cfRule type="expression" dxfId="148" priority="1044">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="1045">
+    <cfRule type="expression" dxfId="147" priority="1045">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="1046">
+    <cfRule type="expression" dxfId="146" priority="1046">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="1047">
+    <cfRule type="expression" dxfId="145" priority="1047">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="1048">
+    <cfRule type="expression" dxfId="144" priority="1048">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="167" priority="193">
+    <cfRule type="expression" dxfId="143" priority="193">
       <formula>$K101="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="194">
+    <cfRule type="expression" dxfId="142" priority="194">
       <formula>$K101="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="195">
+    <cfRule type="expression" dxfId="141" priority="195">
       <formula>$K101="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="196">
+    <cfRule type="expression" dxfId="140" priority="196">
       <formula>$K101="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="197">
+    <cfRule type="expression" dxfId="139" priority="197">
       <formula>$K101="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="198">
+    <cfRule type="expression" dxfId="138" priority="198">
       <formula>$K101="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="199">
+    <cfRule type="expression" dxfId="137" priority="199">
       <formula>$K101="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="200">
+    <cfRule type="expression" dxfId="136" priority="200">
       <formula>$K101="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="159" priority="185">
+    <cfRule type="expression" dxfId="135" priority="185">
       <formula>$K102="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="186">
+    <cfRule type="expression" dxfId="134" priority="186">
       <formula>$K102="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="187">
+    <cfRule type="expression" dxfId="133" priority="187">
       <formula>$K102="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="188">
+    <cfRule type="expression" dxfId="132" priority="188">
       <formula>$K102="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="189">
+    <cfRule type="expression" dxfId="131" priority="189">
       <formula>$K102="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="190">
+    <cfRule type="expression" dxfId="130" priority="190">
       <formula>$K102="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="191">
+    <cfRule type="expression" dxfId="129" priority="191">
       <formula>$K102="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="192">
+    <cfRule type="expression" dxfId="128" priority="192">
       <formula>$K102="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="151" priority="177">
+    <cfRule type="expression" dxfId="127" priority="177">
       <formula>$K103="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="178">
+    <cfRule type="expression" dxfId="126" priority="178">
       <formula>$K103="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="179">
+    <cfRule type="expression" dxfId="125" priority="179">
       <formula>$K103="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="180">
+    <cfRule type="expression" dxfId="124" priority="180">
       <formula>$K103="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="181">
+    <cfRule type="expression" dxfId="123" priority="181">
       <formula>$K103="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="182">
+    <cfRule type="expression" dxfId="122" priority="182">
       <formula>$K103="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="183">
+    <cfRule type="expression" dxfId="121" priority="183">
       <formula>$K103="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="184">
+    <cfRule type="expression" dxfId="120" priority="184">
       <formula>$K103="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="143" priority="169">
+    <cfRule type="expression" dxfId="119" priority="169">
       <formula>$K105="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="170">
+    <cfRule type="expression" dxfId="118" priority="170">
       <formula>$K105="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="171">
+    <cfRule type="expression" dxfId="117" priority="171">
       <formula>$K105="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="172">
+    <cfRule type="expression" dxfId="116" priority="172">
       <formula>$K105="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="173">
+    <cfRule type="expression" dxfId="115" priority="173">
       <formula>$K105="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="174">
+    <cfRule type="expression" dxfId="114" priority="174">
       <formula>$K105="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="175">
+    <cfRule type="expression" dxfId="113" priority="175">
       <formula>$K105="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="176">
+    <cfRule type="expression" dxfId="112" priority="176">
       <formula>$K105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="135" priority="161">
+    <cfRule type="expression" dxfId="111" priority="161">
       <formula>$K106="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="162">
+    <cfRule type="expression" dxfId="110" priority="162">
       <formula>$K106="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="163">
+    <cfRule type="expression" dxfId="109" priority="163">
       <formula>$K106="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="164">
+    <cfRule type="expression" dxfId="108" priority="164">
       <formula>$K106="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="165">
+    <cfRule type="expression" dxfId="107" priority="165">
       <formula>$K106="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="166">
+    <cfRule type="expression" dxfId="106" priority="166">
       <formula>$K106="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="167">
+    <cfRule type="expression" dxfId="105" priority="167">
       <formula>$K106="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="168">
+    <cfRule type="expression" dxfId="104" priority="168">
       <formula>$K106="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="127" priority="153">
+    <cfRule type="expression" dxfId="103" priority="153">
       <formula>$K104="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="154">
+    <cfRule type="expression" dxfId="102" priority="154">
       <formula>$K104="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="155">
+    <cfRule type="expression" dxfId="101" priority="155">
       <formula>$K104="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="156">
+    <cfRule type="expression" dxfId="100" priority="156">
       <formula>$K104="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="157">
+    <cfRule type="expression" dxfId="99" priority="157">
       <formula>$K104="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="158">
+    <cfRule type="expression" dxfId="98" priority="158">
       <formula>$K104="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="159">
+    <cfRule type="expression" dxfId="97" priority="159">
       <formula>$K104="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="160">
+    <cfRule type="expression" dxfId="96" priority="160">
       <formula>$K104="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B6">
-    <cfRule type="expression" dxfId="119" priority="1049">
+    <cfRule type="expression" dxfId="95" priority="1049">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="1050">
+    <cfRule type="expression" dxfId="94" priority="1050">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="1051">
+    <cfRule type="expression" dxfId="93" priority="1051">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="1052">
+    <cfRule type="expression" dxfId="92" priority="1052">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="1053">
+    <cfRule type="expression" dxfId="91" priority="1053">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="1054">
+    <cfRule type="expression" dxfId="90" priority="1054">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="1055">
+    <cfRule type="expression" dxfId="89" priority="1055">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="1056">
+    <cfRule type="expression" dxfId="88" priority="1056">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B111">
-    <cfRule type="expression" dxfId="111" priority="1057">
+    <cfRule type="expression" dxfId="87" priority="1057">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="1058">
+    <cfRule type="expression" dxfId="86" priority="1058">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="1059">
+    <cfRule type="expression" dxfId="85" priority="1059">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="1060">
+    <cfRule type="expression" dxfId="84" priority="1060">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="1061">
+    <cfRule type="expression" dxfId="83" priority="1061">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="1062">
+    <cfRule type="expression" dxfId="82" priority="1062">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="1063">
+    <cfRule type="expression" dxfId="81" priority="1063">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="1064">
+    <cfRule type="expression" dxfId="80" priority="1064">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B38">
-    <cfRule type="expression" dxfId="103" priority="1081">
+    <cfRule type="expression" dxfId="79" priority="1081">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="1082">
+    <cfRule type="expression" dxfId="78" priority="1082">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="1083">
+    <cfRule type="expression" dxfId="77" priority="1083">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="1084">
+    <cfRule type="expression" dxfId="76" priority="1084">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="1085">
+    <cfRule type="expression" dxfId="75" priority="1085">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="1086">
+    <cfRule type="expression" dxfId="74" priority="1086">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="1087">
+    <cfRule type="expression" dxfId="73" priority="1087">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="1088">
+    <cfRule type="expression" dxfId="72" priority="1088">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B97">
-    <cfRule type="expression" dxfId="95" priority="1089">
+    <cfRule type="expression" dxfId="71" priority="1089">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="1090">
+    <cfRule type="expression" dxfId="70" priority="1090">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="1091">
+    <cfRule type="expression" dxfId="69" priority="1091">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="1092">
+    <cfRule type="expression" dxfId="68" priority="1092">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="1093">
+    <cfRule type="expression" dxfId="67" priority="1093">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="1094">
+    <cfRule type="expression" dxfId="66" priority="1094">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="1095">
+    <cfRule type="expression" dxfId="65" priority="1095">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="1096">
+    <cfRule type="expression" dxfId="64" priority="1096">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10439,21 +10247,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -10650,10 +10443,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10676,20 +10495,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Dec Reg\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="411">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -604,15 +604,6 @@
     <t>UAE</t>
   </si>
   <si>
-    <t>CRT-892</t>
-  </si>
-  <si>
-    <t>CRT-916</t>
-  </si>
-  <si>
-    <t>CRT-891</t>
-  </si>
-  <si>
     <t>Job Crediting</t>
   </si>
   <si>
@@ -928,9 +919,6 @@
     <t>PostVendorJournal_4</t>
   </si>
   <si>
-    <t>CORE - 07. China Rollout</t>
-  </si>
-  <si>
     <t>Customer Payment - Single Invoice</t>
   </si>
   <si>
@@ -943,340 +931,343 @@
     <t>Bank Reconciliation in Progress</t>
   </si>
   <si>
-    <t>CRT-979</t>
-  </si>
-  <si>
-    <t>CRT-980</t>
-  </si>
-  <si>
-    <t>CRT-969</t>
-  </si>
-  <si>
-    <t>CRT-970</t>
-  </si>
-  <si>
-    <t>CRT-966</t>
-  </si>
-  <si>
-    <t>CRT-1024</t>
-  </si>
-  <si>
-    <t>CRT-982</t>
-  </si>
-  <si>
-    <t>CRT-983</t>
-  </si>
-  <si>
-    <t>CRT-984</t>
-  </si>
-  <si>
-    <t>CRT-978</t>
-  </si>
-  <si>
-    <t>CRT-976</t>
-  </si>
-  <si>
-    <t>CRT-977</t>
-  </si>
-  <si>
-    <t>CRT-981</t>
-  </si>
-  <si>
-    <t>CRT-992</t>
-  </si>
-  <si>
-    <t>CRT-989</t>
-  </si>
-  <si>
-    <t>CRT-990</t>
-  </si>
-  <si>
-    <t>CRT-985</t>
-  </si>
-  <si>
-    <t>CRT-986</t>
-  </si>
-  <si>
-    <t>CRT-987</t>
-  </si>
-  <si>
-    <t>CRT-988</t>
-  </si>
-  <si>
-    <t>CRT-1055</t>
-  </si>
-  <si>
-    <t>CRT-1058</t>
-  </si>
-  <si>
-    <t>CRT-991</t>
-  </si>
-  <si>
-    <t>CRT-1054</t>
-  </si>
-  <si>
-    <t>CRT-1057</t>
-  </si>
-  <si>
-    <t>CRT-1056</t>
-  </si>
-  <si>
-    <t>CRT-1061</t>
-  </si>
-  <si>
-    <t>CRT-1060</t>
-  </si>
-  <si>
-    <t>CRT-1063</t>
-  </si>
-  <si>
-    <t>CRT-1062</t>
-  </si>
-  <si>
-    <t>CRT-1059</t>
-  </si>
-  <si>
-    <t>CRT-1069</t>
-  </si>
-  <si>
-    <t>CRT-1068</t>
-  </si>
-  <si>
-    <t>CRT-1065</t>
-  </si>
-  <si>
-    <t>CRT-1064</t>
-  </si>
-  <si>
-    <t>CRT-1067</t>
-  </si>
-  <si>
-    <t>CRT-1066</t>
-  </si>
-  <si>
-    <t>CRT-1071</t>
-  </si>
-  <si>
-    <t>CRT-1070</t>
-  </si>
-  <si>
-    <t>CRT-1073</t>
-  </si>
-  <si>
-    <t>CRT-1072</t>
-  </si>
-  <si>
-    <t>CRT-1025</t>
-  </si>
-  <si>
-    <t>CRT-1026</t>
-  </si>
-  <si>
-    <t>CRT-1030</t>
-  </si>
-  <si>
-    <t>CRT-1031</t>
-  </si>
-  <si>
-    <t>CRT-1029</t>
-  </si>
-  <si>
-    <t>CRT-1028</t>
-  </si>
-  <si>
-    <t>CRT-1032</t>
-  </si>
-  <si>
-    <t>CRT-1033</t>
-  </si>
-  <si>
-    <t>CRT-1027</t>
-  </si>
-  <si>
-    <t>CRT-1034</t>
-  </si>
-  <si>
-    <t>CRT-1041</t>
-  </si>
-  <si>
-    <t>CRT-1035</t>
-  </si>
-  <si>
-    <t>CRT-1036</t>
-  </si>
-  <si>
-    <t>CRT-1039</t>
-  </si>
-  <si>
-    <t>CRT-1042</t>
-  </si>
-  <si>
-    <t>CRT-1043</t>
-  </si>
-  <si>
-    <t>CRT-1040</t>
-  </si>
-  <si>
-    <t>CRT-1015</t>
-  </si>
-  <si>
-    <t>CRT-1014</t>
-  </si>
-  <si>
-    <t>CRT-998</t>
-  </si>
-  <si>
-    <t>CRT-999</t>
-  </si>
-  <si>
-    <t>CRT-1011</t>
-  </si>
-  <si>
-    <t>CRT-995</t>
-  </si>
-  <si>
-    <t>CRT-1048</t>
-  </si>
-  <si>
-    <t>CRT-1050</t>
-  </si>
-  <si>
-    <t>CRT-1037</t>
-  </si>
-  <si>
-    <t>CRT-996</t>
-  </si>
-  <si>
-    <t>CRT-1003</t>
-  </si>
-  <si>
-    <t>CRT-1004</t>
-  </si>
-  <si>
-    <t>CRT-1001</t>
-  </si>
-  <si>
-    <t>CRT-1002</t>
-  </si>
-  <si>
-    <t>CRT-994</t>
-  </si>
-  <si>
-    <t>CRT-1018</t>
-  </si>
-  <si>
-    <t>CRT-1019</t>
-  </si>
-  <si>
-    <t>CRT-1016</t>
-  </si>
-  <si>
-    <t>CRT-1017</t>
-  </si>
-  <si>
-    <t>CRT-1022</t>
-  </si>
-  <si>
-    <t>CRT-1023</t>
-  </si>
-  <si>
-    <t>CRT-1020</t>
-  </si>
-  <si>
-    <t>CRT-965</t>
-  </si>
-  <si>
-    <t>CRT-963</t>
-  </si>
-  <si>
-    <t>CRT-1021</t>
-  </si>
-  <si>
-    <t>CRT-974</t>
-  </si>
-  <si>
-    <t>CRT-975</t>
-  </si>
-  <si>
-    <t>CRT-964</t>
-  </si>
-  <si>
-    <t>CRT-1053</t>
-  </si>
-  <si>
-    <t>CRT-1049</t>
-  </si>
-  <si>
-    <t>CRT-1051</t>
-  </si>
-  <si>
-    <t>CRT-1038</t>
-  </si>
-  <si>
-    <t>CRT-971</t>
-  </si>
-  <si>
-    <t>CRT-967</t>
-  </si>
-  <si>
-    <t>CRT-968</t>
-  </si>
-  <si>
-    <t>CRT-1044</t>
-  </si>
-  <si>
-    <t>CRT-972</t>
-  </si>
-  <si>
-    <t>CRT-973</t>
-  </si>
-  <si>
-    <t>CRT-1045</t>
-  </si>
-  <si>
-    <t>CRT-1052</t>
-  </si>
-  <si>
-    <t>CRT-1010</t>
-  </si>
-  <si>
-    <t>CRT-997</t>
-  </si>
-  <si>
-    <t>CRT-1000</t>
-  </si>
-  <si>
-    <t>CRT-993</t>
-  </si>
-  <si>
-    <t>CRT-1046</t>
-  </si>
-  <si>
-    <t>CRT-1047</t>
-  </si>
-  <si>
-    <t>CRT-1009</t>
-  </si>
-  <si>
-    <t>CRT-1013</t>
-  </si>
-  <si>
-    <t>CRT-1012</t>
-  </si>
-  <si>
-    <t>CRT-1006</t>
-  </si>
-  <si>
-    <t>CRT-1005</t>
-  </si>
-  <si>
-    <t>CRT-1008</t>
-  </si>
-  <si>
-    <t>CRT-1007</t>
-  </si>
-  <si>
-    <t>2020-11: CH1-HC4</t>
+    <t>CORE - Regression Testing</t>
+  </si>
+  <si>
+    <t>CRT-1123</t>
+  </si>
+  <si>
+    <t>CRT-1124</t>
+  </si>
+  <si>
+    <t>CRT-1125</t>
+  </si>
+  <si>
+    <t>CRT-1126</t>
+  </si>
+  <si>
+    <t>CRT-1121</t>
+  </si>
+  <si>
+    <t>CRT-1122</t>
+  </si>
+  <si>
+    <t>CRT-1120</t>
+  </si>
+  <si>
+    <t>CRT-1110</t>
+  </si>
+  <si>
+    <t>CRT-1111</t>
+  </si>
+  <si>
+    <t>CRT-1112</t>
+  </si>
+  <si>
+    <t>CRT-1117</t>
+  </si>
+  <si>
+    <t>CRT-1118</t>
+  </si>
+  <si>
+    <t>CRT-1119</t>
+  </si>
+  <si>
+    <t>CRT-1109</t>
+  </si>
+  <si>
+    <t>CRT-1113</t>
+  </si>
+  <si>
+    <t>CRT-1114</t>
+  </si>
+  <si>
+    <t>CRT-1115</t>
+  </si>
+  <si>
+    <t>CRT-1116</t>
+  </si>
+  <si>
+    <t>CRT-1140</t>
+  </si>
+  <si>
+    <t>CRT-1141</t>
+  </si>
+  <si>
+    <t>CRT-1142</t>
+  </si>
+  <si>
+    <t>CRT-1107</t>
+  </si>
+  <si>
+    <t>CRT-1108</t>
+  </si>
+  <si>
+    <t>CRT-1139</t>
+  </si>
+  <si>
+    <t>CRT-1146</t>
+  </si>
+  <si>
+    <t>CRT-1145</t>
+  </si>
+  <si>
+    <t>CRT-1144</t>
+  </si>
+  <si>
+    <t>CRT-1143</t>
+  </si>
+  <si>
+    <t>CRT-1138</t>
+  </si>
+  <si>
+    <t>CRT-1137</t>
+  </si>
+  <si>
+    <t>CRT-1136</t>
+  </si>
+  <si>
+    <t>CRT-1131</t>
+  </si>
+  <si>
+    <t>CRT-1130</t>
+  </si>
+  <si>
+    <t>CRT-1129</t>
+  </si>
+  <si>
+    <t>CRT-1128</t>
+  </si>
+  <si>
+    <t>CRT-1135</t>
+  </si>
+  <si>
+    <t>CRT-1134</t>
+  </si>
+  <si>
+    <t>CRT-1133</t>
+  </si>
+  <si>
+    <t>CRT-1132</t>
+  </si>
+  <si>
+    <t>CRT-1127</t>
+  </si>
+  <si>
+    <t>CRT-1184</t>
+  </si>
+  <si>
+    <t>CRT-1173</t>
+  </si>
+  <si>
+    <t>CRT-1174</t>
+  </si>
+  <si>
+    <t>CRT-1175</t>
+  </si>
+  <si>
+    <t>CRT-1176</t>
+  </si>
+  <si>
+    <t>CRT-1183</t>
+  </si>
+  <si>
+    <t>CRT-1182</t>
+  </si>
+  <si>
+    <t>CRT-1165</t>
+  </si>
+  <si>
+    <t>CRT-1177</t>
+  </si>
+  <si>
+    <t>CRT-1180</t>
+  </si>
+  <si>
+    <t>CRT-1164</t>
+  </si>
+  <si>
+    <t>CRT-1163</t>
+  </si>
+  <si>
+    <t>CRT-1160</t>
+  </si>
+  <si>
+    <t>CRT-1161</t>
+  </si>
+  <si>
+    <t>CRT-1157</t>
+  </si>
+  <si>
+    <t>CRT-1153</t>
+  </si>
+  <si>
+    <t>CRT-1154</t>
+  </si>
+  <si>
+    <t>CRT-1155</t>
+  </si>
+  <si>
+    <t>CRT-1084</t>
+  </si>
+  <si>
+    <t>CRT-1083</t>
+  </si>
+  <si>
+    <t>CRT-1086</t>
+  </si>
+  <si>
+    <t>CRT-1082</t>
+  </si>
+  <si>
+    <t>CRT-1085</t>
+  </si>
+  <si>
+    <t>CRT-1100</t>
+  </si>
+  <si>
+    <t>CRT-1104</t>
+  </si>
+  <si>
+    <t>CRT-1105</t>
+  </si>
+  <si>
+    <t>CRT-1106</t>
+  </si>
+  <si>
+    <t>CRT-1102</t>
+  </si>
+  <si>
+    <t>CRT-1092</t>
+  </si>
+  <si>
+    <t>CRT-1094</t>
+  </si>
+  <si>
+    <t>CRT-1095</t>
+  </si>
+  <si>
+    <t>CRT-1096</t>
+  </si>
+  <si>
+    <t>CRT-1103</t>
+  </si>
+  <si>
+    <t>CRT-1168</t>
+  </si>
+  <si>
+    <t>CRT-1169</t>
+  </si>
+  <si>
+    <t>CRT-1178</t>
+  </si>
+  <si>
+    <t>CRT-1179</t>
+  </si>
+  <si>
+    <t>CRT-1181</t>
+  </si>
+  <si>
+    <t>CRT-1080</t>
+  </si>
+  <si>
+    <t>CRT-1074</t>
+  </si>
+  <si>
+    <t>CRT-1077</t>
+  </si>
+  <si>
+    <t>CRT-1078</t>
+  </si>
+  <si>
+    <t>CRT-1079</t>
+  </si>
+  <si>
+    <t>CRT-1151</t>
+  </si>
+  <si>
+    <t>CRT-1152</t>
+  </si>
+  <si>
+    <t>CRT-1147</t>
+  </si>
+  <si>
+    <t>CRT-1148</t>
+  </si>
+  <si>
+    <t>CRT-1149</t>
+  </si>
+  <si>
+    <t>CRT-1150</t>
+  </si>
+  <si>
+    <t>CRT-1156</t>
+  </si>
+  <si>
+    <t>CRT-1158</t>
+  </si>
+  <si>
+    <t>CRT-1159</t>
+  </si>
+  <si>
+    <t>CRT-1162</t>
+  </si>
+  <si>
+    <t>CRT-1170</t>
+  </si>
+  <si>
+    <t>CRT-1171</t>
+  </si>
+  <si>
+    <t>CRT-1172</t>
+  </si>
+  <si>
+    <t>CRT-1166</t>
+  </si>
+  <si>
+    <t>CRT-1167</t>
+  </si>
+  <si>
+    <t>CRT-1090</t>
+  </si>
+  <si>
+    <t>CRT-1097</t>
+  </si>
+  <si>
+    <t>CRT-1098</t>
+  </si>
+  <si>
+    <t>CRT-1099</t>
+  </si>
+  <si>
+    <t>CRT-1101</t>
+  </si>
+  <si>
+    <t>CRT-1093</t>
+  </si>
+  <si>
+    <t>CRT-1089</t>
+  </si>
+  <si>
+    <t>CRT-1087</t>
+  </si>
+  <si>
+    <t>CRT-1091</t>
+  </si>
+  <si>
+    <t>CRT-1076</t>
+  </si>
+  <si>
+    <t>CRT-1075</t>
+  </si>
+  <si>
+    <t>CRT-1088</t>
+  </si>
+  <si>
+    <t>CRT-1081</t>
+  </si>
+  <si>
+    <t>2020-12: Dec20 BAU</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1543,72 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
+  <dxfs count="168">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -3132,7 +3188,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3170,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1271</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3194,7 +3250,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,7 +3397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3452,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,22 +3548,22 @@
         <v>39</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3515,22 +3571,22 @@
         <v>53</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3538,22 +3594,22 @@
         <v>54</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3561,22 +3617,22 @@
         <v>55</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3584,22 +3640,22 @@
         <v>56</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3607,22 +3663,22 @@
         <v>57</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3630,22 +3686,22 @@
         <v>58</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3653,22 +3709,22 @@
         <v>61</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3676,22 +3732,22 @@
         <v>63</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3699,22 +3755,22 @@
         <v>59</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3722,22 +3778,22 @@
         <v>60</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3745,22 +3801,22 @@
         <v>61</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3768,22 +3824,22 @@
         <v>62</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3791,22 +3847,22 @@
         <v>63</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3814,22 +3870,22 @@
         <v>64</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3837,22 +3893,22 @@
         <v>65</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,22 +3916,22 @@
         <v>66</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3883,22 +3939,22 @@
         <v>67</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3906,22 +3962,22 @@
         <v>68</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3929,22 +3985,22 @@
         <v>69</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3952,22 +4008,22 @@
         <v>70</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3975,22 +4031,22 @@
         <v>71</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3998,22 +4054,22 @@
         <v>72</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4021,22 +4077,22 @@
         <v>73</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4044,22 +4100,22 @@
         <v>74</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4067,22 +4123,22 @@
         <v>75</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4090,19 +4146,19 @@
         <v>76</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G28" s="29" t="e">
         <v>#N/A</v>
@@ -4113,22 +4169,22 @@
         <v>77</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4136,19 +4192,19 @@
         <v>145</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G30" s="29" t="e">
         <v>#N/A</v>
@@ -4159,22 +4215,22 @@
         <v>78</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4182,22 +4238,22 @@
         <v>79</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,22 +4261,22 @@
         <v>80</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4228,22 +4284,22 @@
         <v>81</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,22 +4307,22 @@
         <v>82</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,22 +4330,22 @@
         <v>83</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4297,22 +4353,22 @@
         <v>84</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4320,22 +4376,22 @@
         <v>85</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4343,22 +4399,22 @@
         <v>86</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4366,22 +4422,22 @@
         <v>87</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4389,19 +4445,19 @@
         <v>88</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G41" s="29" t="e">
         <v>#N/A</v>
@@ -4412,27 +4468,27 @@
         <v>89</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B43" s="29" t="e">
         <v>#N/A</v>
@@ -4450,7 +4506,7 @@
         <v>#N/A</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4458,19 +4514,19 @@
         <v>90</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G44" s="29" t="e">
         <v>#N/A</v>
@@ -4481,22 +4537,22 @@
         <v>91</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4504,22 +4560,22 @@
         <v>92</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4527,22 +4583,22 @@
         <v>93</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4550,22 +4606,22 @@
         <v>94</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4573,22 +4629,22 @@
         <v>95</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4596,22 +4652,22 @@
         <v>96</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4619,22 +4675,22 @@
         <v>97</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4642,22 +4698,22 @@
         <v>98</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4665,22 +4721,22 @@
         <v>99</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4688,22 +4744,22 @@
         <v>100</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,22 +4767,22 @@
         <v>101</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4734,22 +4790,22 @@
         <v>102</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4757,22 +4813,22 @@
         <v>103</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4780,22 +4836,22 @@
         <v>104</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4803,22 +4859,22 @@
         <v>105</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4826,22 +4882,22 @@
         <v>106</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4849,22 +4905,22 @@
         <v>107</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4872,22 +4928,22 @@
         <v>108</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4895,22 +4951,22 @@
         <v>109</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4918,22 +4974,22 @@
         <v>110</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4941,22 +4997,22 @@
         <v>111</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4964,22 +5020,22 @@
         <v>112</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4987,22 +5043,22 @@
         <v>113</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5010,22 +5066,22 @@
         <v>114</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5033,22 +5089,22 @@
         <v>115</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5056,22 +5112,22 @@
         <v>116</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5079,22 +5135,22 @@
         <v>117</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5102,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5125,22 +5181,22 @@
         <v>130</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5148,22 +5204,22 @@
         <v>131</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5171,19 +5227,19 @@
         <v>152</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G75" s="29" t="e">
         <v>#N/A</v>
@@ -5194,19 +5250,19 @@
         <v>148</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G76" s="29" t="e">
         <v>#N/A</v>
@@ -5217,22 +5273,22 @@
         <v>136</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5240,22 +5296,22 @@
         <v>146</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5263,22 +5319,22 @@
         <v>154</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5286,22 +5342,22 @@
         <v>139</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -5309,22 +5365,22 @@
         <v>162</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5332,22 +5388,22 @@
         <v>155</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5355,19 +5411,19 @@
         <v>161</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G83" s="29" t="e">
         <v>#N/A</v>
@@ -5378,19 +5434,19 @@
         <v>137</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G84" s="29" t="e">
         <v>#N/A</v>
@@ -5401,22 +5457,22 @@
         <v>150</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5424,22 +5480,22 @@
         <v>160</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,22 +5503,22 @@
         <v>144</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5470,22 +5526,22 @@
         <v>153</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -5493,19 +5549,19 @@
         <v>167</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G89" s="29" t="e">
         <v>#N/A</v>
@@ -5516,22 +5572,22 @@
         <v>165</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5539,22 +5595,22 @@
         <v>163</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5562,22 +5618,22 @@
         <v>157</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G92" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5585,22 +5641,22 @@
         <v>134</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5608,22 +5664,22 @@
         <v>121</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5631,22 +5687,22 @@
         <v>122</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5654,22 +5710,22 @@
         <v>123</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5677,22 +5733,22 @@
         <v>118</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5700,19 +5756,19 @@
         <v>119</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G98" s="29" t="e">
         <v>#N/A</v>
@@ -5723,22 +5779,22 @@
         <v>120</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5746,22 +5802,22 @@
         <v>124</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5769,45 +5825,45 @@
         <v>125</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5815,22 +5871,22 @@
         <v>133</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5838,22 +5894,22 @@
         <v>149</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5861,22 +5917,22 @@
         <v>126</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5884,22 +5940,22 @@
         <v>143</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5907,22 +5963,22 @@
         <v>156</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5930,22 +5986,22 @@
         <v>141</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5953,22 +6009,22 @@
         <v>129</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5976,22 +6032,22 @@
         <v>140</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5999,22 +6055,22 @@
         <v>158</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -6022,197 +6078,197 @@
         <v>166</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E113" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E114" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E115" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E116" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E117" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E118" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="29"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="29"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="29"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="E122" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E123" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="29"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="29"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="29"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E127" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E128" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="E129" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="29"/>
+      <c r="E129" s="29"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="E130" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="29"/>
+      <c r="E130" s="29"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E131" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="29"/>
+      <c r="E131" s="29"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B134" s="29"/>
+      <c r="E134" s="29"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="E132" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="29" t="s">
+      <c r="B135" s="29"/>
+      <c r="E135" s="29"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="E133" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="E134" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>191</v>
-      </c>
+      <c r="B136" s="29"/>
+      <c r="E136" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6224,7 +6280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G462"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G110"/>
     </sheetView>
   </sheetViews>
@@ -6240,19 +6296,19 @@
         <v>118</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F1" t="s">
         <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6260,19 +6316,19 @@
         <v>119</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6280,20 +6336,20 @@
         <v>120</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="29" t="str">
         <f t="shared" ref="D3:D65" si="0">VLOOKUP(C3,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-1018</v>
+        <v>CRT-1168</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6301,20 +6357,20 @@
         <v>121</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1019</v>
+        <v>CRT-1169</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6322,20 +6378,20 @@
         <v>122</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1016</v>
+        <v>CRT-1178</v>
       </c>
       <c r="F5" t="s">
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6343,20 +6399,20 @@
         <v>123</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1017</v>
+        <v>CRT-1179</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6364,20 +6420,20 @@
         <v>65</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1022</v>
+        <v>CRT-1181</v>
       </c>
       <c r="F7" t="s">
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6385,19 +6441,19 @@
         <v>67</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6405,20 +6461,20 @@
         <v>66</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-999</v>
+        <v>CRT-1082</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6426,20 +6482,20 @@
         <v>68</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-998</v>
+        <v>CRT-1086</v>
       </c>
       <c r="F10" t="s">
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -6447,20 +6503,20 @@
         <v>69</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1022</v>
+        <v>CRT-1181</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6468,20 +6524,20 @@
         <v>70</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1023</v>
+        <v>CRT-1080</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6489,40 +6545,40 @@
         <v>71</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1021</v>
+        <v>CRT-1079</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6530,20 +6586,20 @@
         <v>93</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-982</v>
+        <v>CRT-1120</v>
       </c>
       <c r="F15" t="s">
         <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6551,20 +6607,20 @@
         <v>92</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-984</v>
+        <v>CRT-1111</v>
       </c>
       <c r="F16" t="s">
         <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6572,20 +6628,20 @@
         <v>94</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-983</v>
+        <v>CRT-1110</v>
       </c>
       <c r="F17" t="s">
         <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6593,19 +6649,19 @@
         <v>95</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F18" t="s">
         <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6613,19 +6669,19 @@
         <v>102</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F19" t="s">
         <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6633,20 +6689,20 @@
         <v>103</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-977</v>
+        <v>CRT-1118</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6654,20 +6710,20 @@
         <v>104</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-981</v>
+        <v>CRT-1119</v>
       </c>
       <c r="F21" t="s">
         <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6675,20 +6731,20 @@
         <v>105</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1046</v>
+        <v>CRT-1101</v>
       </c>
       <c r="F22" t="s">
         <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6696,20 +6752,20 @@
         <v>106</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1047</v>
+        <v>CRT-1093</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6717,20 +6773,20 @@
         <v>138</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1009</v>
+        <v>CRT-1089</v>
       </c>
       <c r="F24" t="s">
         <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6738,20 +6794,20 @@
         <v>135</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1010</v>
+        <v>CRT-1090</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6759,20 +6815,20 @@
         <v>130</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-997</v>
+        <v>CRT-1097</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6780,20 +6836,20 @@
         <v>131</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1000</v>
+        <v>CRT-1098</v>
       </c>
       <c r="F27" t="s">
         <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6801,20 +6857,20 @@
         <v>152</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-993</v>
+        <v>CRT-1099</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6822,19 +6878,19 @@
         <v>148</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F29" t="s">
         <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6842,20 +6898,20 @@
         <v>136</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1011</v>
+        <v>CRT-1085</v>
       </c>
       <c r="F30" t="s">
         <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6863,20 +6919,20 @@
         <v>146</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>80</v>
       </c>
       <c r="D31" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1003</v>
+        <v>CRT-1092</v>
       </c>
       <c r="F31" t="s">
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6884,20 +6940,20 @@
         <v>154</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1037</v>
+        <v>CRT-1106</v>
       </c>
       <c r="F32" t="s">
         <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6905,19 +6961,19 @@
         <v>139</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F33" t="s">
         <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6925,20 +6981,20 @@
         <v>162</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1004</v>
+        <v>CRT-1094</v>
       </c>
       <c r="F34" t="s">
         <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6946,20 +7002,20 @@
         <v>155</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1048</v>
+        <v>CRT-1104</v>
       </c>
       <c r="F35" t="s">
         <v>84</v>
       </c>
       <c r="G35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6967,19 +7023,19 @@
         <v>153</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F36" t="s">
         <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6987,19 +7043,19 @@
         <v>144</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>86</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F37" t="s">
         <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,20 +7063,20 @@
         <v>160</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-994</v>
+        <v>CRT-1103</v>
       </c>
       <c r="F38" t="s">
         <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -7028,20 +7084,20 @@
         <v>150</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1014</v>
+        <v>CRT-1083</v>
       </c>
       <c r="F39" t="s">
         <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7049,20 +7105,20 @@
         <v>137</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1050</v>
+        <v>CRT-1105</v>
       </c>
       <c r="F40" t="s">
         <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -7070,17 +7126,17 @@
         <v>161</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D41" s="29" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G41" t="e">
         <v>#N/A</v>
@@ -7091,20 +7147,20 @@
         <v>112</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1015</v>
+        <v>CRT-1084</v>
       </c>
       <c r="F42" t="s">
         <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -7112,19 +7168,19 @@
         <v>113</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -7132,20 +7188,20 @@
         <v>151</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-990</v>
+        <v>CRT-1114</v>
       </c>
       <c r="F44" t="s">
         <v>92</v>
       </c>
       <c r="G44" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -7153,19 +7209,19 @@
         <v>114</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F45" t="s">
         <v>93</v>
       </c>
       <c r="G45" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -7173,20 +7229,20 @@
         <v>116</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-985</v>
+        <v>CRT-1115</v>
       </c>
       <c r="F46" t="s">
         <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -7194,20 +7250,20 @@
         <v>115</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-986</v>
+        <v>CRT-1116</v>
       </c>
       <c r="F47" t="s">
         <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -7215,20 +7271,20 @@
         <v>107</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>96</v>
       </c>
       <c r="D48" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1035</v>
+        <v>CRT-1160</v>
       </c>
       <c r="F48" t="s">
         <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -7236,20 +7292,20 @@
         <v>108</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1042</v>
+        <v>CRT-1153</v>
       </c>
       <c r="F49" t="s">
         <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -7257,20 +7313,20 @@
         <v>109</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D50" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1043</v>
+        <v>CRT-1154</v>
       </c>
       <c r="F50" t="s">
         <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -7278,20 +7334,20 @@
         <v>110</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D51" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1036</v>
+        <v>CRT-1161</v>
       </c>
       <c r="F51" t="s">
         <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -7299,20 +7355,20 @@
         <v>159</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>100</v>
       </c>
       <c r="D52" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1040</v>
+        <v>CRT-1155</v>
       </c>
       <c r="F52" t="s">
         <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -7320,20 +7376,20 @@
         <v>96</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1039</v>
+        <v>CRT-1157</v>
       </c>
       <c r="F53" t="s">
         <v>101</v>
       </c>
       <c r="G53" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -7341,20 +7397,20 @@
         <v>99</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D54" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-987</v>
+        <v>CRT-1140</v>
       </c>
       <c r="F54" t="s">
         <v>102</v>
       </c>
       <c r="G54" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -7362,19 +7418,19 @@
         <v>101</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>103</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F55" t="s">
         <v>103</v>
       </c>
       <c r="G55" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -7382,20 +7438,20 @@
         <v>97</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>104</v>
       </c>
       <c r="D56" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1055</v>
+        <v>CRT-1142</v>
       </c>
       <c r="F56" t="s">
         <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -7403,20 +7459,20 @@
         <v>98</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>105</v>
       </c>
       <c r="D57" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1058</v>
+        <v>CRT-1107</v>
       </c>
       <c r="F57" t="s">
         <v>105</v>
       </c>
       <c r="G57" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -7424,20 +7480,20 @@
         <v>100</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D58" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-991</v>
+        <v>CRT-1108</v>
       </c>
       <c r="F58" t="s">
         <v>106</v>
       </c>
       <c r="G58" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -7445,20 +7501,20 @@
         <v>90</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>107</v>
       </c>
       <c r="D59" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1032</v>
+        <v>CRT-1165</v>
       </c>
       <c r="F59" t="s">
         <v>107</v>
       </c>
       <c r="G59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -7466,20 +7522,20 @@
         <v>88</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>108</v>
       </c>
       <c r="D60" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1033</v>
+        <v>CRT-1177</v>
       </c>
       <c r="F60" t="s">
         <v>108</v>
       </c>
       <c r="G60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -7487,20 +7543,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>109</v>
       </c>
       <c r="D61" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1027</v>
+        <v>CRT-1180</v>
       </c>
       <c r="F61" t="s">
         <v>109</v>
       </c>
       <c r="G61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -7508,19 +7564,19 @@
         <v>59</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F62" t="s">
         <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -7528,19 +7584,19 @@
         <v>79</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>111</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F63" t="s">
         <v>111</v>
       </c>
       <c r="G63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -7548,19 +7604,19 @@
         <v>82</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>112</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F64" t="s">
         <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -7568,20 +7624,20 @@
         <v>84</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>113</v>
       </c>
       <c r="D65" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1026</v>
+        <v>CRT-1174</v>
       </c>
       <c r="F65" t="s">
         <v>113</v>
       </c>
       <c r="G65" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -7589,20 +7645,20 @@
         <v>89</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>114</v>
       </c>
       <c r="D66" s="29" t="str">
         <f t="shared" ref="D66:D110" si="1">VLOOKUP(C66,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-1031</v>
+        <v>CRT-1176</v>
       </c>
       <c r="F66" t="s">
         <v>114</v>
       </c>
       <c r="G66" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -7610,41 +7666,41 @@
         <v>81</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1028</v>
+        <v>CRT-1182</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
       </c>
       <c r="G67" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>116</v>
       </c>
       <c r="D68" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1029</v>
+        <v>CRT-1183</v>
       </c>
       <c r="F68" t="s">
         <v>116</v>
       </c>
       <c r="G68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -7652,19 +7708,19 @@
         <v>80</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>117</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F69" t="s">
         <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -7672,20 +7728,20 @@
         <v>83</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>135</v>
       </c>
       <c r="D70" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1057</v>
+        <v>CRT-1146</v>
       </c>
       <c r="F70" t="s">
         <v>135</v>
       </c>
       <c r="G70" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -7693,20 +7749,20 @@
         <v>164</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D71" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1056</v>
+        <v>CRT-1145</v>
       </c>
       <c r="F71" t="s">
         <v>130</v>
       </c>
       <c r="G71" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -7714,20 +7770,20 @@
         <v>127</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1061</v>
+        <v>CRT-1144</v>
       </c>
       <c r="F72" t="s">
         <v>131</v>
       </c>
       <c r="G72" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -7735,20 +7791,20 @@
         <v>87</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>152</v>
       </c>
       <c r="D73" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1060</v>
+        <v>CRT-1143</v>
       </c>
       <c r="F73" t="s">
         <v>152</v>
       </c>
       <c r="G73" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -7756,20 +7812,20 @@
         <v>55</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C74" s="29" t="s">
         <v>148</v>
       </c>
       <c r="D74" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1063</v>
+        <v>CRT-1138</v>
       </c>
       <c r="F74" t="s">
         <v>148</v>
       </c>
       <c r="G74" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -7777,20 +7833,20 @@
         <v>56</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C75" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D75" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1062</v>
+        <v>CRT-1137</v>
       </c>
       <c r="F75" t="s">
         <v>136</v>
       </c>
       <c r="G75" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -7798,20 +7854,20 @@
         <v>57</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C76" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D76" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1059</v>
+        <v>CRT-1136</v>
       </c>
       <c r="F76" t="s">
         <v>146</v>
       </c>
       <c r="G76" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -7819,20 +7875,20 @@
         <v>58</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C77" s="29" t="s">
         <v>154</v>
       </c>
       <c r="D77" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1069</v>
+        <v>CRT-1131</v>
       </c>
       <c r="F77" t="s">
         <v>154</v>
       </c>
       <c r="G77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -7840,20 +7896,20 @@
         <v>61</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C78" s="29" t="s">
         <v>139</v>
       </c>
       <c r="D78" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1068</v>
+        <v>CRT-1130</v>
       </c>
       <c r="F78" t="s">
         <v>139</v>
       </c>
       <c r="G78" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -7861,20 +7917,20 @@
         <v>62</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C79" s="29" t="s">
         <v>162</v>
       </c>
       <c r="D79" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1065</v>
+        <v>CRT-1129</v>
       </c>
       <c r="F79" t="s">
         <v>162</v>
       </c>
       <c r="G79" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7882,20 +7938,20 @@
         <v>63</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C80" s="29" t="s">
         <v>155</v>
       </c>
       <c r="D80" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1064</v>
+        <v>CRT-1128</v>
       </c>
       <c r="F80" t="s">
         <v>155</v>
       </c>
       <c r="G80" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -7903,20 +7959,20 @@
         <v>124</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C81" s="29" t="s">
         <v>161</v>
       </c>
       <c r="D81" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1072</v>
+        <v>CRT-1184</v>
       </c>
       <c r="F81" t="s">
         <v>161</v>
       </c>
       <c r="G81" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -7924,20 +7980,20 @@
         <v>125</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C82" s="29" t="s">
         <v>137</v>
       </c>
       <c r="D82" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1073</v>
+        <v>CRT-1127</v>
       </c>
       <c r="F82" t="s">
         <v>137</v>
       </c>
       <c r="G82" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -7945,62 +8001,62 @@
         <v>64</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C83" s="29" t="s">
         <v>150</v>
       </c>
       <c r="D83" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1070</v>
+        <v>CRT-1132</v>
       </c>
       <c r="F83" t="s">
         <v>150</v>
       </c>
       <c r="G83" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C84" s="29" t="s">
         <v>160</v>
       </c>
       <c r="D84" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1071</v>
+        <v>CRT-1133</v>
       </c>
       <c r="F84" t="s">
         <v>160</v>
       </c>
       <c r="G84" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C85" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D85" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1066</v>
+        <v>CRT-1134</v>
       </c>
       <c r="F85" t="s">
         <v>144</v>
       </c>
       <c r="G85" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -8008,20 +8064,20 @@
         <v>128</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C86" s="29" t="s">
         <v>153</v>
       </c>
       <c r="D86" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1067</v>
+        <v>CRT-1135</v>
       </c>
       <c r="F86" t="s">
         <v>153</v>
       </c>
       <c r="G86" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -8029,20 +8085,20 @@
         <v>142</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C87" s="29" t="s">
         <v>167</v>
       </c>
       <c r="D87" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1012</v>
+        <v>CRT-1091</v>
       </c>
       <c r="F87" t="s">
         <v>167</v>
       </c>
       <c r="G87" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -8050,20 +8106,20 @@
         <v>156</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C88" s="29" t="s">
         <v>165</v>
       </c>
       <c r="D88" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1006</v>
+        <v>CRT-1076</v>
       </c>
       <c r="F88" t="s">
         <v>165</v>
       </c>
       <c r="G88" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -8071,20 +8127,20 @@
         <v>166</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C89" s="29" t="s">
         <v>163</v>
       </c>
       <c r="D89" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1005</v>
+        <v>CRT-1075</v>
       </c>
       <c r="F89" t="s">
         <v>163</v>
       </c>
       <c r="G89" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -8092,20 +8148,20 @@
         <v>143</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C90" s="29" t="s">
         <v>157</v>
       </c>
       <c r="D90" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1007</v>
+        <v>CRT-1081</v>
       </c>
       <c r="F90" t="s">
         <v>157</v>
       </c>
       <c r="G90" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -8113,20 +8169,20 @@
         <v>141</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C91" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D91" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1008</v>
+        <v>CRT-1088</v>
       </c>
       <c r="F91" t="s">
         <v>134</v>
       </c>
       <c r="G91" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -8134,20 +8190,20 @@
         <v>126</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C92" s="23" t="s">
         <v>121</v>
       </c>
       <c r="D92" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-970</v>
+        <v>CRT-1126</v>
       </c>
       <c r="F92" t="s">
         <v>121</v>
       </c>
       <c r="G92" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -8155,20 +8211,20 @@
         <v>149</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>122</v>
       </c>
       <c r="D93" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-966</v>
+        <v>CRT-1121</v>
       </c>
       <c r="F93" t="s">
         <v>122</v>
       </c>
       <c r="G93" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -8176,20 +8232,20 @@
         <v>133</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C94" s="23" t="s">
         <v>123</v>
       </c>
       <c r="D94" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1024</v>
+        <v>CRT-1122</v>
       </c>
       <c r="F94" t="s">
         <v>123</v>
       </c>
       <c r="G94" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -8197,20 +8253,20 @@
         <v>129</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C95" s="23" t="s">
         <v>118</v>
       </c>
       <c r="D95" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-979</v>
+        <v>CRT-1123</v>
       </c>
       <c r="F95" t="s">
         <v>118</v>
       </c>
       <c r="G95" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -8218,20 +8274,20 @@
         <v>140</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C96" s="23" t="s">
         <v>119</v>
       </c>
       <c r="D96" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-980</v>
+        <v>CRT-1124</v>
       </c>
       <c r="F96" t="s">
         <v>119</v>
       </c>
       <c r="G96" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -8239,20 +8295,20 @@
         <v>132</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>120</v>
       </c>
       <c r="D97" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-969</v>
+        <v>CRT-1125</v>
       </c>
       <c r="F97" t="s">
         <v>120</v>
       </c>
       <c r="G97" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -8260,19 +8316,19 @@
         <v>158</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C98" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F98" t="s">
         <v>124</v>
       </c>
       <c r="G98" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -8280,19 +8336,19 @@
         <v>75</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>125</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F99" t="s">
         <v>125</v>
       </c>
       <c r="G99" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -8300,19 +8356,19 @@
         <v>76</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G100" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -8320,20 +8376,20 @@
         <v>77</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C101" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D101" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1044</v>
+        <v>CRT-1170</v>
       </c>
       <c r="F101" t="s">
         <v>133</v>
       </c>
       <c r="G101" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -8341,20 +8397,20 @@
         <v>145</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C102" s="29" t="s">
         <v>149</v>
       </c>
       <c r="D102" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-968</v>
+        <v>CRT-1162</v>
       </c>
       <c r="F102" t="s">
         <v>149</v>
       </c>
       <c r="G102" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -8362,20 +8418,20 @@
         <v>72</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C103" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D103" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-967</v>
+        <v>CRT-1159</v>
       </c>
       <c r="F103" t="s">
         <v>126</v>
       </c>
       <c r="G103" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -8383,20 +8439,20 @@
         <v>73</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C104" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D104" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1038</v>
+        <v>CRT-1156</v>
       </c>
       <c r="F104" t="s">
         <v>143</v>
       </c>
       <c r="G104" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -8404,20 +8460,20 @@
         <v>74</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C105" s="29" t="s">
         <v>156</v>
       </c>
       <c r="D105" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1049</v>
+        <v>CRT-1149</v>
       </c>
       <c r="F105" t="s">
         <v>156</v>
       </c>
       <c r="G105" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -8425,20 +8481,20 @@
         <v>147</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C106" s="29" t="s">
         <v>141</v>
       </c>
       <c r="D106" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-971</v>
+        <v>CRT-1158</v>
       </c>
       <c r="F106" t="s">
         <v>141</v>
       </c>
       <c r="G106" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -8446,20 +8502,20 @@
         <v>167</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C107" s="29" t="s">
         <v>129</v>
       </c>
       <c r="D107" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-972</v>
+        <v>CRT-1171</v>
       </c>
       <c r="F107" t="s">
         <v>129</v>
       </c>
       <c r="G107" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -8467,20 +8523,20 @@
         <v>165</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C108" s="29" t="s">
         <v>140</v>
       </c>
       <c r="D108" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-973</v>
+        <v>CRT-1172</v>
       </c>
       <c r="F108" t="s">
         <v>140</v>
       </c>
       <c r="G108" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8488,20 +8544,20 @@
         <v>163</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C109" s="29" t="s">
         <v>158</v>
       </c>
       <c r="D109" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1052</v>
+        <v>CRT-1167</v>
       </c>
       <c r="F109" t="s">
         <v>158</v>
       </c>
       <c r="G109" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -8509,20 +8565,20 @@
         <v>134</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C110" s="29" t="s">
         <v>166</v>
       </c>
       <c r="D110" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1051</v>
+        <v>CRT-1150</v>
       </c>
       <c r="F110" t="s">
         <v>166</v>
       </c>
       <c r="G110" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -8530,7 +8586,7 @@
         <v>157</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9588,318 +9644,344 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A98:B98 A7:B7">
-    <cfRule type="expression" dxfId="159" priority="993">
+    <cfRule type="expression" dxfId="167" priority="1001">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="994">
+    <cfRule type="expression" dxfId="166" priority="1002">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="995">
+    <cfRule type="expression" dxfId="165" priority="1003">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="996">
+    <cfRule type="expression" dxfId="164" priority="1004">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="997">
+    <cfRule type="expression" dxfId="163" priority="1005">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="998">
+    <cfRule type="expression" dxfId="162" priority="1006">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="999">
+    <cfRule type="expression" dxfId="161" priority="1007">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="1000">
+    <cfRule type="expression" dxfId="160" priority="1008">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39">
-    <cfRule type="expression" dxfId="151" priority="1041">
+    <cfRule type="expression" dxfId="159" priority="1049">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="1042">
+    <cfRule type="expression" dxfId="158" priority="1050">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="1043">
+    <cfRule type="expression" dxfId="157" priority="1051">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="1044">
+    <cfRule type="expression" dxfId="156" priority="1052">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="1045">
+    <cfRule type="expression" dxfId="155" priority="1053">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="1046">
+    <cfRule type="expression" dxfId="154" priority="1054">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="1047">
+    <cfRule type="expression" dxfId="153" priority="1055">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="1048">
+    <cfRule type="expression" dxfId="152" priority="1056">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="143" priority="193">
-      <formula>$K101="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="194">
-      <formula>$K101="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="195">
-      <formula>$K101="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="196">
-      <formula>$K101="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="197">
-      <formula>$K101="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="198">
-      <formula>$K101="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="199">
-      <formula>$K101="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="200">
-      <formula>$K101="Failed"</formula>
+    <cfRule type="expression" dxfId="151" priority="201">
+      <formula>$I101="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="202">
+      <formula>$I101="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="203">
+      <formula>$I101="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="204">
+      <formula>$I101="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="205">
+      <formula>$I101="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="206">
+      <formula>$I101="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="207">
+      <formula>$I101="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="208">
+      <formula>$I101="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="135" priority="185">
-      <formula>$K102="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="186">
-      <formula>$K102="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="187">
-      <formula>$K102="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="188">
-      <formula>$K102="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="189">
-      <formula>$K102="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="190">
-      <formula>$K102="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="191">
-      <formula>$K102="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="192">
-      <formula>$K102="Failed"</formula>
+    <cfRule type="expression" dxfId="143" priority="193">
+      <formula>$I102="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="194">
+      <formula>$I102="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="195">
+      <formula>$I102="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="196">
+      <formula>$I102="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="197">
+      <formula>$I102="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="198">
+      <formula>$I102="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="199">
+      <formula>$I102="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="200">
+      <formula>$I102="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="127" priority="177">
-      <formula>$K103="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="178">
-      <formula>$K103="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="179">
-      <formula>$K103="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="180">
-      <formula>$K103="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="181">
-      <formula>$K103="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="182">
-      <formula>$K103="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="183">
-      <formula>$K103="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="184">
-      <formula>$K103="Failed"</formula>
+    <cfRule type="expression" dxfId="135" priority="185">
+      <formula>$I103="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="186">
+      <formula>$I103="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="187">
+      <formula>$I103="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="188">
+      <formula>$I103="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="189">
+      <formula>$I103="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="190">
+      <formula>$I103="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="191">
+      <formula>$I103="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="192">
+      <formula>$I103="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="119" priority="169">
-      <formula>$K105="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="170">
-      <formula>$K105="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="171">
-      <formula>$K105="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="172">
-      <formula>$K105="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="173">
-      <formula>$K105="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="174">
-      <formula>$K105="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="175">
-      <formula>$K105="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="176">
-      <formula>$K105="Failed"</formula>
+    <cfRule type="expression" dxfId="127" priority="177">
+      <formula>$I105="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="178">
+      <formula>$I105="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="179">
+      <formula>$I105="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="180">
+      <formula>$I105="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="181">
+      <formula>$I105="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="182">
+      <formula>$I105="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="183">
+      <formula>$I105="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="184">
+      <formula>$I105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="111" priority="161">
-      <formula>$K106="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="162">
-      <formula>$K106="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="163">
-      <formula>$K106="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="164">
-      <formula>$K106="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="165">
-      <formula>$K106="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="166">
-      <formula>$K106="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="167">
-      <formula>$K106="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="168">
-      <formula>$K106="Failed"</formula>
+    <cfRule type="expression" dxfId="119" priority="169">
+      <formula>$I106="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="170">
+      <formula>$I106="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="171">
+      <formula>$I106="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="172">
+      <formula>$I106="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="173">
+      <formula>$I106="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="174">
+      <formula>$I106="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="175">
+      <formula>$I106="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="176">
+      <formula>$I106="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="103" priority="153">
-      <formula>$K104="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="154">
-      <formula>$K104="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="155">
-      <formula>$K104="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="156">
-      <formula>$K104="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="157">
-      <formula>$K104="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="158">
-      <formula>$K104="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="159">
-      <formula>$K104="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="160">
-      <formula>$K104="Failed"</formula>
+    <cfRule type="expression" dxfId="111" priority="161">
+      <formula>$I104="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="162">
+      <formula>$I104="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="163">
+      <formula>$I104="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="164">
+      <formula>$I104="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="165">
+      <formula>$I104="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="166">
+      <formula>$I104="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="167">
+      <formula>$I104="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="168">
+      <formula>$I104="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B6">
-    <cfRule type="expression" dxfId="95" priority="1049">
+    <cfRule type="expression" dxfId="103" priority="1057">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="1050">
+    <cfRule type="expression" dxfId="102" priority="1058">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="1051">
+    <cfRule type="expression" dxfId="101" priority="1059">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="1052">
+    <cfRule type="expression" dxfId="100" priority="1060">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="1053">
+    <cfRule type="expression" dxfId="99" priority="1061">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="1054">
+    <cfRule type="expression" dxfId="98" priority="1062">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="1055">
+    <cfRule type="expression" dxfId="97" priority="1063">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="1056">
+    <cfRule type="expression" dxfId="96" priority="1064">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B111">
-    <cfRule type="expression" dxfId="87" priority="1057">
+    <cfRule type="expression" dxfId="95" priority="1065">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="1058">
+    <cfRule type="expression" dxfId="94" priority="1066">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="1059">
+    <cfRule type="expression" dxfId="93" priority="1067">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="1060">
+    <cfRule type="expression" dxfId="92" priority="1068">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="1061">
+    <cfRule type="expression" dxfId="91" priority="1069">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="1062">
+    <cfRule type="expression" dxfId="90" priority="1070">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1063">
+    <cfRule type="expression" dxfId="89" priority="1071">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="1064">
+    <cfRule type="expression" dxfId="88" priority="1072">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B38">
-    <cfRule type="expression" dxfId="79" priority="1081">
+    <cfRule type="expression" dxfId="87" priority="1089">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="1082">
+    <cfRule type="expression" dxfId="86" priority="1090">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="1083">
+    <cfRule type="expression" dxfId="85" priority="1091">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="1084">
+    <cfRule type="expression" dxfId="84" priority="1092">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1085">
+    <cfRule type="expression" dxfId="83" priority="1093">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1086">
+    <cfRule type="expression" dxfId="82" priority="1094">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1087">
+    <cfRule type="expression" dxfId="81" priority="1095">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1088">
+    <cfRule type="expression" dxfId="80" priority="1096">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B97">
-    <cfRule type="expression" dxfId="71" priority="1089">
+    <cfRule type="expression" dxfId="79" priority="1097">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1090">
+    <cfRule type="expression" dxfId="78" priority="1098">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1091">
+    <cfRule type="expression" dxfId="77" priority="1099">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="1092">
+    <cfRule type="expression" dxfId="76" priority="1100">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1093">
+    <cfRule type="expression" dxfId="75" priority="1101">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1094">
+    <cfRule type="expression" dxfId="74" priority="1102">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="1095">
+    <cfRule type="expression" dxfId="73" priority="1103">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="1096">
+    <cfRule type="expression" dxfId="72" priority="1104">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
+    <cfRule type="expression" dxfId="71" priority="65">
+      <formula>#REF!="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="66">
+      <formula>#REF!="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="67">
+      <formula>#REF!="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="68">
+      <formula>#REF!="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="69">
+      <formula>#REF!="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="70">
+      <formula>#REF!="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="71">
+      <formula>#REF!="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="72">
+      <formula>#REF!="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
     <cfRule type="expression" dxfId="63" priority="57">
       <formula>#REF!="Passed"</formula>
     </cfRule>
@@ -9925,7 +10007,7 @@
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" dxfId="55" priority="49">
       <formula>#REF!="Passed"</formula>
     </cfRule>
@@ -9951,137 +10033,111 @@
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="47" priority="41">
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>#REF!="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>#REF!="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>#REF!="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>#REF!="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>#REF!="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>#REF!="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>#REF!="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>#REF!="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>#REF!="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>#REF!="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>#REF!="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>#REF!="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>#REF!="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>#REF!="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>#REF!="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>#REF!="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>#REF!="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>#REF!="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>#REF!="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>#REF!="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>#REF!="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>#REF!="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>#REF!="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>#REF!="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>#REF!="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>#REF!="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>#REF!="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>#REF!="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>#REF!="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>#REF!="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>#REF!="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
-      <formula>#REF!="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>#REF!="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>#REF!="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
-      <formula>#REF!="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>#REF!="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>#REF!="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>#REF!="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
-      <formula>#REF!="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
-      <formula>#REF!="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>#REF!="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>#REF!="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>#REF!="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>#REF!="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>#REF!="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>#REF!="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>#REF!="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>#REF!="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>#REF!="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>#REF!="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>#REF!="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>#REF!="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>#REF!="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>#REF!="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>#REF!="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>#REF!="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>#REF!="Passed"</formula>
     </cfRule>
@@ -10444,18 +10500,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10478,6 +10534,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10492,12 +10556,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Dec Reg\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Jan Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="331">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -451,9 +451,6 @@
     <t>17. Block a Company Brand</t>
   </si>
   <si>
-    <t>01. Create a Global Client (Included Verification of Auto-Created Global Brand, Global Product, Company Client, Company Brand  &amp; Company Product)</t>
-  </si>
-  <si>
     <t>10. Amend a Company Client</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>08. Amend a Global Brand</t>
   </si>
   <si>
-    <t>1. Create a Global Vendor ( Including verification of Auto-Created Company Vendor)</t>
-  </si>
-  <si>
     <t>06. Create a Company Product</t>
   </si>
   <si>
@@ -613,297 +607,6 @@
     <t>2020-10: CH1-HC3</t>
   </si>
   <si>
-    <t>UAE-278</t>
-  </si>
-  <si>
-    <t>UAE-265</t>
-  </si>
-  <si>
-    <t>UAE-307</t>
-  </si>
-  <si>
-    <t>UAE-264</t>
-  </si>
-  <si>
-    <t>UAE-232</t>
-  </si>
-  <si>
-    <t>UAE-267</t>
-  </si>
-  <si>
-    <t>UAE-206</t>
-  </si>
-  <si>
-    <t>UAE-207</t>
-  </si>
-  <si>
-    <t>UAE-280</t>
-  </si>
-  <si>
-    <t>UAE-198</t>
-  </si>
-  <si>
-    <t>UAE-201</t>
-  </si>
-  <si>
-    <t>UAE-281</t>
-  </si>
-  <si>
-    <t>UAE-301</t>
-  </si>
-  <si>
-    <t>UAE-243</t>
-  </si>
-  <si>
-    <t>UAE-286</t>
-  </si>
-  <si>
-    <t>UAE-285</t>
-  </si>
-  <si>
-    <t>UAE-289</t>
-  </si>
-  <si>
-    <t>UAE-283</t>
-  </si>
-  <si>
-    <t>UAE-229</t>
-  </si>
-  <si>
-    <t>UAE-199</t>
-  </si>
-  <si>
-    <t>UAE-323</t>
-  </si>
-  <si>
-    <t>UAE-255</t>
-  </si>
-  <si>
-    <t>UAE-226</t>
-  </si>
-  <si>
-    <t>UAE-216</t>
-  </si>
-  <si>
-    <t>UAE-318</t>
-  </si>
-  <si>
-    <t>UAE-209</t>
-  </si>
-  <si>
-    <t>UAE-219</t>
-  </si>
-  <si>
-    <t>UAE-294</t>
-  </si>
-  <si>
-    <t>UAE-310</t>
-  </si>
-  <si>
-    <t>UAE-272</t>
-  </si>
-  <si>
-    <t>UAE-308</t>
-  </si>
-  <si>
-    <t>UAE-253</t>
-  </si>
-  <si>
-    <t>UAE-269</t>
-  </si>
-  <si>
-    <t>UAE-231</t>
-  </si>
-  <si>
-    <t>UAE-290</t>
-  </si>
-  <si>
-    <t>UAE-239</t>
-  </si>
-  <si>
-    <t>UAE-242</t>
-  </si>
-  <si>
-    <t>UAE-254</t>
-  </si>
-  <si>
-    <t>UAE-270</t>
-  </si>
-  <si>
-    <t>UAE-304</t>
-  </si>
-  <si>
-    <t>UAE-317</t>
-  </si>
-  <si>
-    <t>UAE-287</t>
-  </si>
-  <si>
-    <t>UAE-284</t>
-  </si>
-  <si>
-    <t>UAE-316</t>
-  </si>
-  <si>
-    <t>UAE-248</t>
-  </si>
-  <si>
-    <t>UAE-220</t>
-  </si>
-  <si>
-    <t>UAE-266</t>
-  </si>
-  <si>
-    <t>UAE-275</t>
-  </si>
-  <si>
-    <t>UAE-236</t>
-  </si>
-  <si>
-    <t>UAE-321</t>
-  </si>
-  <si>
-    <t>UAE-211</t>
-  </si>
-  <si>
-    <t>UAE-306</t>
-  </si>
-  <si>
-    <t>UAE-228</t>
-  </si>
-  <si>
-    <t>UAE-312</t>
-  </si>
-  <si>
-    <t>UAE-291</t>
-  </si>
-  <si>
-    <t>UAE-263</t>
-  </si>
-  <si>
-    <t>UAE-297</t>
-  </si>
-  <si>
-    <t>UAE-234</t>
-  </si>
-  <si>
-    <t>UAE-240</t>
-  </si>
-  <si>
-    <t>UAE-292</t>
-  </si>
-  <si>
-    <t>UAE-250</t>
-  </si>
-  <si>
-    <t>UAE-214</t>
-  </si>
-  <si>
-    <t>UAE-215</t>
-  </si>
-  <si>
-    <t>UAE-224</t>
-  </si>
-  <si>
-    <t>UAE-258</t>
-  </si>
-  <si>
-    <t>UAE-256</t>
-  </si>
-  <si>
-    <t>UAE-300</t>
-  </si>
-  <si>
-    <t>UAE-227</t>
-  </si>
-  <si>
-    <t>UAE-259</t>
-  </si>
-  <si>
-    <t>UAE-311</t>
-  </si>
-  <si>
-    <t>UAE-260</t>
-  </si>
-  <si>
-    <t>UAE-305</t>
-  </si>
-  <si>
-    <t>UAE-223</t>
-  </si>
-  <si>
-    <t>UAE-298</t>
-  </si>
-  <si>
-    <t>UAE-249</t>
-  </si>
-  <si>
-    <t>UAE-313</t>
-  </si>
-  <si>
-    <t>UAE-314</t>
-  </si>
-  <si>
-    <t>UAE-274</t>
-  </si>
-  <si>
-    <t>UAE-252</t>
-  </si>
-  <si>
-    <t>UAE-200</t>
-  </si>
-  <si>
-    <t>UAE-276</t>
-  </si>
-  <si>
-    <t>UAE-225</t>
-  </si>
-  <si>
-    <t>UAE-315</t>
-  </si>
-  <si>
-    <t>UAE-299</t>
-  </si>
-  <si>
-    <t>UAE-212</t>
-  </si>
-  <si>
-    <t>UAE-320</t>
-  </si>
-  <si>
-    <t>UAE-277</t>
-  </si>
-  <si>
-    <t>UAE-296</t>
-  </si>
-  <si>
-    <t>UAE-268</t>
-  </si>
-  <si>
-    <t>UAE-293</t>
-  </si>
-  <si>
-    <t>UAE-309</t>
-  </si>
-  <si>
-    <t>UAE-282</t>
-  </si>
-  <si>
-    <t>UAE-273</t>
-  </si>
-  <si>
-    <t>UAE-279</t>
-  </si>
-  <si>
-    <t>UAE-210</t>
-  </si>
-  <si>
-    <t>UAE-271</t>
-  </si>
-  <si>
-    <t>UAE-251</t>
-  </si>
-  <si>
     <t>CreatePurchaseOrder_4</t>
   </si>
   <si>
@@ -934,340 +637,397 @@
     <t>CORE - Regression Testing</t>
   </si>
   <si>
-    <t>CRT-1123</t>
-  </si>
-  <si>
-    <t>CRT-1124</t>
-  </si>
-  <si>
-    <t>CRT-1125</t>
-  </si>
-  <si>
-    <t>CRT-1126</t>
-  </si>
-  <si>
-    <t>CRT-1121</t>
-  </si>
-  <si>
-    <t>CRT-1122</t>
-  </si>
-  <si>
-    <t>CRT-1120</t>
-  </si>
-  <si>
-    <t>CRT-1110</t>
-  </si>
-  <si>
-    <t>CRT-1111</t>
-  </si>
-  <si>
-    <t>CRT-1112</t>
-  </si>
-  <si>
-    <t>CRT-1117</t>
-  </si>
-  <si>
-    <t>CRT-1118</t>
-  </si>
-  <si>
-    <t>CRT-1119</t>
-  </si>
-  <si>
-    <t>CRT-1109</t>
-  </si>
-  <si>
-    <t>CRT-1113</t>
-  </si>
-  <si>
-    <t>CRT-1114</t>
-  </si>
-  <si>
-    <t>CRT-1115</t>
-  </si>
-  <si>
-    <t>CRT-1116</t>
-  </si>
-  <si>
-    <t>CRT-1140</t>
-  </si>
-  <si>
-    <t>CRT-1141</t>
-  </si>
-  <si>
-    <t>CRT-1142</t>
-  </si>
-  <si>
-    <t>CRT-1107</t>
-  </si>
-  <si>
-    <t>CRT-1108</t>
-  </si>
-  <si>
-    <t>CRT-1139</t>
-  </si>
-  <si>
-    <t>CRT-1146</t>
-  </si>
-  <si>
-    <t>CRT-1145</t>
-  </si>
-  <si>
-    <t>CRT-1144</t>
-  </si>
-  <si>
-    <t>CRT-1143</t>
-  </si>
-  <si>
-    <t>CRT-1138</t>
-  </si>
-  <si>
-    <t>CRT-1137</t>
-  </si>
-  <si>
-    <t>CRT-1136</t>
-  </si>
-  <si>
-    <t>CRT-1131</t>
-  </si>
-  <si>
-    <t>CRT-1130</t>
-  </si>
-  <si>
-    <t>CRT-1129</t>
-  </si>
-  <si>
-    <t>CRT-1128</t>
-  </si>
-  <si>
-    <t>CRT-1135</t>
-  </si>
-  <si>
-    <t>CRT-1134</t>
-  </si>
-  <si>
-    <t>CRT-1133</t>
-  </si>
-  <si>
-    <t>CRT-1132</t>
-  </si>
-  <si>
-    <t>CRT-1127</t>
-  </si>
-  <si>
-    <t>CRT-1184</t>
-  </si>
-  <si>
-    <t>CRT-1173</t>
-  </si>
-  <si>
-    <t>CRT-1174</t>
-  </si>
-  <si>
-    <t>CRT-1175</t>
-  </si>
-  <si>
-    <t>CRT-1176</t>
-  </si>
-  <si>
-    <t>CRT-1183</t>
-  </si>
-  <si>
-    <t>CRT-1182</t>
-  </si>
-  <si>
-    <t>CRT-1165</t>
-  </si>
-  <si>
-    <t>CRT-1177</t>
-  </si>
-  <si>
-    <t>CRT-1180</t>
-  </si>
-  <si>
-    <t>CRT-1164</t>
-  </si>
-  <si>
-    <t>CRT-1163</t>
-  </si>
-  <si>
-    <t>CRT-1160</t>
-  </si>
-  <si>
-    <t>CRT-1161</t>
-  </si>
-  <si>
-    <t>CRT-1157</t>
-  </si>
-  <si>
-    <t>CRT-1153</t>
-  </si>
-  <si>
-    <t>CRT-1154</t>
-  </si>
-  <si>
-    <t>CRT-1155</t>
-  </si>
-  <si>
-    <t>CRT-1084</t>
-  </si>
-  <si>
-    <t>CRT-1083</t>
-  </si>
-  <si>
-    <t>CRT-1086</t>
-  </si>
-  <si>
-    <t>CRT-1082</t>
-  </si>
-  <si>
-    <t>CRT-1085</t>
-  </si>
-  <si>
-    <t>CRT-1100</t>
-  </si>
-  <si>
-    <t>CRT-1104</t>
-  </si>
-  <si>
-    <t>CRT-1105</t>
-  </si>
-  <si>
-    <t>CRT-1106</t>
-  </si>
-  <si>
-    <t>CRT-1102</t>
-  </si>
-  <si>
-    <t>CRT-1092</t>
-  </si>
-  <si>
-    <t>CRT-1094</t>
-  </si>
-  <si>
-    <t>CRT-1095</t>
-  </si>
-  <si>
-    <t>CRT-1096</t>
-  </si>
-  <si>
-    <t>CRT-1103</t>
-  </si>
-  <si>
-    <t>CRT-1168</t>
-  </si>
-  <si>
-    <t>CRT-1169</t>
-  </si>
-  <si>
-    <t>CRT-1178</t>
-  </si>
-  <si>
-    <t>CRT-1179</t>
-  </si>
-  <si>
-    <t>CRT-1181</t>
-  </si>
-  <si>
-    <t>CRT-1080</t>
-  </si>
-  <si>
-    <t>CRT-1074</t>
-  </si>
-  <si>
-    <t>CRT-1077</t>
-  </si>
-  <si>
-    <t>CRT-1078</t>
-  </si>
-  <si>
-    <t>CRT-1079</t>
-  </si>
-  <si>
-    <t>CRT-1151</t>
-  </si>
-  <si>
-    <t>CRT-1152</t>
-  </si>
-  <si>
-    <t>CRT-1147</t>
-  </si>
-  <si>
-    <t>CRT-1148</t>
-  </si>
-  <si>
-    <t>CRT-1149</t>
-  </si>
-  <si>
-    <t>CRT-1150</t>
-  </si>
-  <si>
-    <t>CRT-1156</t>
-  </si>
-  <si>
-    <t>CRT-1158</t>
-  </si>
-  <si>
-    <t>CRT-1159</t>
-  </si>
-  <si>
-    <t>CRT-1162</t>
-  </si>
-  <si>
-    <t>CRT-1170</t>
-  </si>
-  <si>
-    <t>CRT-1171</t>
-  </si>
-  <si>
-    <t>CRT-1172</t>
-  </si>
-  <si>
-    <t>CRT-1166</t>
-  </si>
-  <si>
-    <t>CRT-1167</t>
-  </si>
-  <si>
-    <t>CRT-1090</t>
-  </si>
-  <si>
-    <t>CRT-1097</t>
-  </si>
-  <si>
-    <t>CRT-1098</t>
-  </si>
-  <si>
-    <t>CRT-1099</t>
-  </si>
-  <si>
-    <t>CRT-1101</t>
-  </si>
-  <si>
-    <t>CRT-1093</t>
-  </si>
-  <si>
-    <t>CRT-1089</t>
-  </si>
-  <si>
-    <t>CRT-1087</t>
-  </si>
-  <si>
-    <t>CRT-1091</t>
-  </si>
-  <si>
-    <t>CRT-1076</t>
-  </si>
-  <si>
-    <t>CRT-1075</t>
-  </si>
-  <si>
-    <t>CRT-1088</t>
-  </si>
-  <si>
-    <t>CRT-1081</t>
-  </si>
-  <si>
     <t>2020-12: Dec20 BAU</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder_5</t>
+  </si>
+  <si>
+    <t>ApprovePurchaseOrder_5</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder_6</t>
+  </si>
+  <si>
+    <t>ApprovePurchaseOrder_6</t>
+  </si>
+  <si>
+    <t>JobCreation_5</t>
+  </si>
+  <si>
+    <t>CreateBudget_5</t>
+  </si>
+  <si>
+    <t>CreateQuote_5</t>
+  </si>
+  <si>
+    <t>CRT-1191</t>
+  </si>
+  <si>
+    <t>CRT-1239</t>
+  </si>
+  <si>
+    <t>CRT-1240</t>
+  </si>
+  <si>
+    <t>CRT-1226</t>
+  </si>
+  <si>
+    <t>CRT-1279</t>
+  </si>
+  <si>
+    <t>CRT-1299</t>
+  </si>
+  <si>
+    <t>CRT-1199</t>
+  </si>
+  <si>
+    <t>Vendor Periodic Statement</t>
+  </si>
+  <si>
+    <t>CRT-1271</t>
+  </si>
+  <si>
+    <t>CRT-1281</t>
+  </si>
+  <si>
+    <t>CRT-1256</t>
+  </si>
+  <si>
+    <t>CRT-1249</t>
+  </si>
+  <si>
+    <t>CRT-1187</t>
+  </si>
+  <si>
+    <t>CRT-1289</t>
+  </si>
+  <si>
+    <t>CRT-1254</t>
+  </si>
+  <si>
+    <t>CRT-1287</t>
+  </si>
+  <si>
+    <t>CRT-1218</t>
+  </si>
+  <si>
+    <t>CRT-1214</t>
+  </si>
+  <si>
+    <t>CRT-1261</t>
+  </si>
+  <si>
+    <t>CRT-1291</t>
+  </si>
+  <si>
+    <t>CRT-1282</t>
+  </si>
+  <si>
+    <t>CRT-1260</t>
+  </si>
+  <si>
+    <t>CRT-1227</t>
+  </si>
+  <si>
+    <t>CRT-1595</t>
+  </si>
+  <si>
+    <t>01. Create a Global Client (Included Verification of Auto-Created Global Brand, Global Product, Company Client, Company Brand  &amp; Company Product) - Spain</t>
+  </si>
+  <si>
+    <t>CRT-1215</t>
+  </si>
+  <si>
+    <t>CRT-1202</t>
+  </si>
+  <si>
+    <t>CRT-1211</t>
+  </si>
+  <si>
+    <t>CRT-1264</t>
+  </si>
+  <si>
+    <t>CRT-1276</t>
+  </si>
+  <si>
+    <t>CRT-1280</t>
+  </si>
+  <si>
+    <t>CRT-1278</t>
+  </si>
+  <si>
+    <t>CRT-1275</t>
+  </si>
+  <si>
+    <t>CRT-1201</t>
+  </si>
+  <si>
+    <t>CRT-1274</t>
+  </si>
+  <si>
+    <t>CRT-1294</t>
+  </si>
+  <si>
+    <t>CRT-1224</t>
+  </si>
+  <si>
+    <t>CRT-1221</t>
+  </si>
+  <si>
+    <t>CRT-1210</t>
+  </si>
+  <si>
+    <t>CRT-1200</t>
+  </si>
+  <si>
+    <t>Payment Listing</t>
+  </si>
+  <si>
+    <t>CRT-1228</t>
+  </si>
+  <si>
+    <t>CRT-1285</t>
+  </si>
+  <si>
+    <t>CRT-1242</t>
+  </si>
+  <si>
+    <t>CRT-1258</t>
+  </si>
+  <si>
+    <t>CRT-1222</t>
+  </si>
+  <si>
+    <t>CRT-1198</t>
+  </si>
+  <si>
+    <t>Vendor Open Statement</t>
+  </si>
+  <si>
+    <t>CRT-1255</t>
+  </si>
+  <si>
+    <t>CRT-1186</t>
+  </si>
+  <si>
+    <t>CRT-1231</t>
+  </si>
+  <si>
+    <t>CRT-1257</t>
+  </si>
+  <si>
+    <t>CRT-1243</t>
+  </si>
+  <si>
+    <t>CRT-1208</t>
+  </si>
+  <si>
+    <t>CRT-1266</t>
+  </si>
+  <si>
+    <t>CRT-1295</t>
+  </si>
+  <si>
+    <t>CRT-1296</t>
+  </si>
+  <si>
+    <t>CRT-1213</t>
+  </si>
+  <si>
+    <t>CRT-1237</t>
+  </si>
+  <si>
+    <t>CRT-1188</t>
+  </si>
+  <si>
+    <t>CRT-1252</t>
+  </si>
+  <si>
+    <t>CRT-1195</t>
+  </si>
+  <si>
+    <t>CRT-1259</t>
+  </si>
+  <si>
+    <t>CRT-1253</t>
+  </si>
+  <si>
+    <t>CRT-1248</t>
+  </si>
+  <si>
+    <t>CRT-1219</t>
+  </si>
+  <si>
+    <t>CRT-1236</t>
+  </si>
+  <si>
+    <t>CRT-1245</t>
+  </si>
+  <si>
+    <t>Client Open Statement</t>
+  </si>
+  <si>
+    <t>CRT-1238</t>
+  </si>
+  <si>
+    <t>CRT-1192</t>
+  </si>
+  <si>
+    <t>CRT-1298</t>
+  </si>
+  <si>
+    <t>CRT-1286</t>
+  </si>
+  <si>
+    <t>CRT-1251</t>
+  </si>
+  <si>
+    <t>CRT-1217</t>
+  </si>
+  <si>
+    <t>CRT-1233</t>
+  </si>
+  <si>
+    <t>CRT-1185</t>
+  </si>
+  <si>
+    <t>CRT-1292</t>
+  </si>
+  <si>
+    <t>CRT-1197</t>
+  </si>
+  <si>
+    <t>CRT-1268</t>
+  </si>
+  <si>
+    <t>CRT-1272</t>
+  </si>
+  <si>
+    <t>CRT-1230</t>
+  </si>
+  <si>
+    <t>CRT-1247</t>
+  </si>
+  <si>
+    <t>CRT-1204</t>
+  </si>
+  <si>
+    <t>CRT-1290</t>
+  </si>
+  <si>
+    <t>CRT-1269</t>
+  </si>
+  <si>
+    <t>CRT-1190</t>
+  </si>
+  <si>
+    <t>CRT-1250</t>
+  </si>
+  <si>
+    <t>CRT-1262</t>
+  </si>
+  <si>
+    <t>CRT-1225</t>
+  </si>
+  <si>
+    <t>CRT-1189</t>
+  </si>
+  <si>
+    <t>CRT-1297</t>
+  </si>
+  <si>
+    <t>CRT-1223</t>
+  </si>
+  <si>
+    <t>CRT-1196</t>
+  </si>
+  <si>
+    <t>CRT-1270</t>
+  </si>
+  <si>
+    <t>CRT-1267</t>
+  </si>
+  <si>
+    <t>CRT-1263</t>
+  </si>
+  <si>
+    <t>CRT-1229</t>
+  </si>
+  <si>
+    <t>CRT-1194</t>
+  </si>
+  <si>
+    <t>CRT-1277</t>
+  </si>
+  <si>
+    <t>CRT-1265</t>
+  </si>
+  <si>
+    <t>CRT-1241</t>
+  </si>
+  <si>
+    <t>CRT-1206</t>
+  </si>
+  <si>
+    <t>CRT-1216</t>
+  </si>
+  <si>
+    <t>CRT-1232</t>
+  </si>
+  <si>
+    <t>CRT-1193</t>
+  </si>
+  <si>
+    <t>CRT-1212</t>
+  </si>
+  <si>
+    <t>CRT-1235</t>
+  </si>
+  <si>
+    <t>CRT-1283</t>
+  </si>
+  <si>
+    <t>CRT-1234</t>
+  </si>
+  <si>
+    <t>CRT-1246</t>
+  </si>
+  <si>
+    <t>Client Periodic Statement</t>
+  </si>
+  <si>
+    <t>CRT-1596</t>
+  </si>
+  <si>
+    <t>1. Create a Global Vendor ( Including verification of Auto-Created Company Vendor) - Spain</t>
+  </si>
+  <si>
+    <t>CRT-1273</t>
+  </si>
+  <si>
+    <t>CRT-1288</t>
+  </si>
+  <si>
+    <t>CRT-1203</t>
+  </si>
+  <si>
+    <t>CRT-1207</t>
+  </si>
+  <si>
+    <t>CRT-1284</t>
+  </si>
+  <si>
+    <t>CRT-1293</t>
+  </si>
+  <si>
+    <t>CRT-1205</t>
+  </si>
+  <si>
+    <t>CRT-1220</t>
+  </si>
+  <si>
+    <t>CRT-1244</t>
   </si>
 </sst>
 </file>
@@ -1543,72 +1303,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="168">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="160">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3187,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3242,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1707</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3250,7 +2945,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3368,7 +3063,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -3420,10 +3115,10 @@
         <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3506,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,7 +3235,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,22 +3243,22 @@
         <v>39</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3571,22 +3266,22 @@
         <v>53</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3594,22 +3289,22 @@
         <v>54</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3617,22 +3312,22 @@
         <v>55</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3640,22 +3335,22 @@
         <v>56</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3663,22 +3358,22 @@
         <v>57</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3686,22 +3381,22 @@
         <v>58</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,22 +3404,22 @@
         <v>61</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3732,22 +3427,22 @@
         <v>63</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,22 +3450,22 @@
         <v>59</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3778,22 +3473,22 @@
         <v>60</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3801,22 +3496,22 @@
         <v>61</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3824,22 +3519,22 @@
         <v>62</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3847,22 +3542,22 @@
         <v>63</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3870,22 +3565,22 @@
         <v>64</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3893,22 +3588,22 @@
         <v>65</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3916,22 +3611,22 @@
         <v>66</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,22 +3634,22 @@
         <v>67</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3962,22 +3657,22 @@
         <v>68</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3985,22 +3680,22 @@
         <v>69</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4008,22 +3703,22 @@
         <v>70</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4031,22 +3726,22 @@
         <v>71</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4054,22 +3749,22 @@
         <v>72</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4077,22 +3772,22 @@
         <v>73</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>402</v>
+        <v>233</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>402</v>
+        <v>233</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>402</v>
+        <v>233</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>402</v>
+        <v>233</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>402</v>
+        <v>233</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4100,22 +3795,22 @@
         <v>74</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4123,22 +3818,22 @@
         <v>75</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4146,22 +3841,22 @@
         <v>76</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="G28" s="29" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -4169,45 +3864,45 @@
         <v>77</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="G30" s="29" t="e">
-        <v>#N/A</v>
+        <v>310</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4215,22 +3910,22 @@
         <v>78</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4238,22 +3933,22 @@
         <v>79</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4261,22 +3956,22 @@
         <v>80</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4284,22 +3979,22 @@
         <v>81</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4307,22 +4002,22 @@
         <v>82</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4330,22 +4025,22 @@
         <v>83</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4353,22 +4048,22 @@
         <v>84</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4376,22 +4071,22 @@
         <v>85</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4399,22 +4094,22 @@
         <v>86</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4422,22 +4117,22 @@
         <v>87</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4445,22 +4140,22 @@
         <v>88</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="G41" s="29" t="e">
-        <v>#N/A</v>
+        <v>294</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,27 +4163,27 @@
         <v>89</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B43" s="29" t="e">
         <v>#N/A</v>
@@ -4505,8 +4200,8 @@
       <c r="F43" s="29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G43" s="29" t="s">
-        <v>236</v>
+      <c r="G43" s="29" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4514,22 +4209,22 @@
         <v>90</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="G44" s="29" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,22 +4232,22 @@
         <v>91</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4560,22 +4255,22 @@
         <v>92</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4583,22 +4278,22 @@
         <v>93</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4606,22 +4301,22 @@
         <v>94</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4629,22 +4324,22 @@
         <v>95</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4652,22 +4347,22 @@
         <v>96</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4675,22 +4370,22 @@
         <v>97</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4698,22 +4393,22 @@
         <v>98</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,22 +4416,22 @@
         <v>99</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4744,22 +4439,22 @@
         <v>100</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4767,22 +4462,22 @@
         <v>101</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4790,22 +4485,22 @@
         <v>102</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4813,22 +4508,22 @@
         <v>103</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4836,22 +4531,22 @@
         <v>104</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4859,22 +4554,22 @@
         <v>105</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4882,22 +4577,22 @@
         <v>106</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4905,22 +4600,22 @@
         <v>107</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>193</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4928,22 +4623,22 @@
         <v>108</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4951,22 +4646,22 @@
         <v>109</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4974,22 +4669,22 @@
         <v>110</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4997,22 +4692,22 @@
         <v>111</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>197</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5020,22 +4715,22 @@
         <v>112</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -5043,22 +4738,22 @@
         <v>113</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5066,22 +4761,22 @@
         <v>114</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5089,22 +4784,22 @@
         <v>115</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5112,22 +4807,22 @@
         <v>116</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5135,22 +4830,22 @@
         <v>117</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5158,22 +4853,22 @@
         <v>135</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5181,22 +4876,22 @@
         <v>130</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5204,68 +4899,68 @@
         <v>131</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>326</v>
+        <v>219</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>326</v>
+        <v>219</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>326</v>
+        <v>219</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>326</v>
+        <v>219</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="G75" s="29" t="e">
-        <v>#N/A</v>
+        <v>219</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="G76" s="29" t="e">
-        <v>#N/A</v>
+        <v>272</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5273,160 +4968,160 @@
         <v>136</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="G83" s="29" t="e">
-        <v>#N/A</v>
+        <v>226</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5434,206 +5129,206 @@
         <v>137</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="G84" s="29" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="G89" s="29" t="e">
-        <v>#N/A</v>
+        <v>265</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>409</v>
+        <v>217</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>409</v>
+        <v>217</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>409</v>
+        <v>217</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>409</v>
+        <v>217</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>409</v>
+        <v>217</v>
       </c>
       <c r="G92" s="29" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5641,22 +5336,22 @@
         <v>134</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5664,22 +5359,22 @@
         <v>121</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5687,22 +5382,22 @@
         <v>122</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5710,22 +5405,22 @@
         <v>123</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5733,22 +5428,22 @@
         <v>118</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5756,22 +5451,22 @@
         <v>119</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="G98" s="29" t="e">
-        <v>#N/A</v>
+        <v>329</v>
+      </c>
+      <c r="G98" s="29" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5779,22 +5474,22 @@
         <v>120</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5802,22 +5497,22 @@
         <v>124</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5825,45 +5520,45 @@
         <v>125</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5871,45 +5566,45 @@
         <v>133</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>211</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5917,91 +5612,91 @@
         <v>126</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -6009,266 +5704,278 @@
         <v>129</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>205</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="28" t="s">
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="28" t="s">
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="B118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B119" s="29"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B120" s="29"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B121" s="29"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="29" t="s">
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="29" t="s">
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="29" t="s">
+      <c r="G125"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B124" s="29"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="29" t="s">
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B125" s="29"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="29"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="29" t="s">
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="29" t="s">
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="29" t="s">
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B129" s="29"/>
-      <c r="E129" s="29"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B130" s="29"/>
-      <c r="E130" s="29"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B131" s="29"/>
-      <c r="E131" s="29"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="B132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="B133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="B134" s="29"/>
-      <c r="E134" s="29"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="B135" s="29"/>
-      <c r="E135" s="29"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="B136" s="29"/>
-      <c r="E136" s="29"/>
+        <v>194</v>
+      </c>
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G143"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6280,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G462"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G110"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6293,850 +6000,850 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
         <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="29" t="str">
         <f t="shared" ref="D3:D65" si="0">VLOOKUP(C3,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-1168</v>
+        <v>CRT-1227</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1169</v>
+        <v>CRT-1230</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1178</v>
+        <v>CRT-1229</v>
       </c>
       <c r="F5" t="s">
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1179</v>
+        <v>CRT-1224</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1181</v>
+        <v>CRT-1223</v>
       </c>
       <c r="F7" t="s">
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1082</v>
+        <v>CRT-1201</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1086</v>
+        <v>CRT-1188</v>
       </c>
       <c r="F10" t="s">
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>309</v>
+        <v>219</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1181</v>
+        <v>CRT-1223</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1080</v>
+        <v>CRT-1226</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>377</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>311</v>
+        <v>221</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>294</v>
+        <v>138</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1079</v>
+        <v>CRT-1236</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>381</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1120</v>
+        <v>CRT-1291</v>
       </c>
       <c r="F15" t="s">
         <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1111</v>
+        <v>CRT-1289</v>
       </c>
       <c r="F16" t="s">
         <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1110</v>
+        <v>CRT-1288</v>
       </c>
       <c r="F17" t="s">
         <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="F18" t="s">
         <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F19" t="s">
         <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1118</v>
+        <v>CRT-1278</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1119</v>
+        <v>CRT-1212</v>
       </c>
       <c r="F21" t="s">
         <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1101</v>
+        <v>CRT-1207</v>
       </c>
       <c r="F22" t="s">
         <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1093</v>
+        <v>CRT-1215</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>402</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1089</v>
+        <v>CRT-1210</v>
       </c>
       <c r="F24" t="s">
         <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>403</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1090</v>
+        <v>CRT-1218</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1097</v>
+        <v>CRT-1221</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1098</v>
+        <v>CRT-1217</v>
       </c>
       <c r="F27" t="s">
         <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1099</v>
+        <v>CRT-1206</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="F29" t="s">
         <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1085</v>
+        <v>CRT-1268</v>
       </c>
       <c r="F30" t="s">
         <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>80</v>
       </c>
       <c r="D31" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1092</v>
+        <v>CRT-1266</v>
       </c>
       <c r="F31" t="s">
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1106</v>
+        <v>CRT-1267</v>
       </c>
       <c r="F32" t="s">
         <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="F33" t="s">
         <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1094</v>
+        <v>CRT-1276</v>
       </c>
       <c r="F34" t="s">
         <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>368</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1104</v>
+        <v>CRT-1265</v>
       </c>
       <c r="F35" t="s">
         <v>84</v>
       </c>
       <c r="G35" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>334</v>
+        <v>245</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
         <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>86</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
         <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1103</v>
+        <v>CRT-1277</v>
       </c>
       <c r="F38" t="s">
         <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1083</v>
+        <v>CRT-1190</v>
       </c>
       <c r="F39" t="s">
         <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1105</v>
+        <v>CRT-1264</v>
       </c>
       <c r="F40" t="s">
         <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D41" s="29" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G41" t="e">
         <v>#N/A</v>
@@ -7144,1500 +6851,1523 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1084</v>
+        <v>CRT-1186</v>
       </c>
       <c r="F42" t="s">
         <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1114</v>
+        <v>CRT-1285</v>
       </c>
       <c r="F44" t="s">
         <v>92</v>
       </c>
       <c r="G44" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="F45" t="s">
         <v>93</v>
       </c>
       <c r="G45" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>344</v>
+        <v>257</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1115</v>
+        <v>CRT-1287</v>
       </c>
       <c r="F46" t="s">
         <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1116</v>
+      <c r="D47" s="29" t="s">
+        <v>327</v>
       </c>
       <c r="F47" t="s">
         <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>96</v>
       </c>
       <c r="D48" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1160</v>
+        <v>CRT-1193</v>
       </c>
       <c r="F48" t="s">
         <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1153</v>
+        <v>CRT-1195</v>
       </c>
       <c r="F49" t="s">
         <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>348</v>
+        <v>261</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D50" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1154</v>
+        <v>CRT-1194</v>
       </c>
       <c r="F50" t="s">
         <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D51" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1161</v>
+        <v>CRT-1192</v>
       </c>
       <c r="F51" t="s">
         <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>100</v>
       </c>
       <c r="D52" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1155</v>
+        <v>CRT-1187</v>
       </c>
       <c r="F52" t="s">
         <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1157</v>
+        <v>CRT-1185</v>
       </c>
       <c r="F53" t="s">
         <v>101</v>
       </c>
       <c r="G53" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D54" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1140</v>
+        <v>CRT-1292</v>
       </c>
       <c r="F54" t="s">
         <v>102</v>
       </c>
       <c r="G54" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>103</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="F55" t="s">
         <v>103</v>
       </c>
       <c r="G55" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>104</v>
       </c>
       <c r="D56" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1142</v>
+        <v>CRT-1294</v>
       </c>
       <c r="F56" t="s">
         <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>105</v>
       </c>
       <c r="D57" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1107</v>
+        <v>CRT-1298</v>
       </c>
       <c r="F57" t="s">
         <v>105</v>
       </c>
       <c r="G57" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D58" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1108</v>
+        <v>CRT-1297</v>
       </c>
       <c r="F58" t="s">
         <v>106</v>
       </c>
       <c r="G58" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>107</v>
       </c>
       <c r="D59" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1165</v>
+        <v>CRT-1234</v>
       </c>
       <c r="F59" t="s">
         <v>107</v>
       </c>
       <c r="G59" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>108</v>
       </c>
       <c r="D60" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1177</v>
+        <v>CRT-1233</v>
       </c>
       <c r="F60" t="s">
         <v>108</v>
       </c>
       <c r="G60" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>109</v>
       </c>
       <c r="D61" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1180</v>
+        <v>CRT-1237</v>
       </c>
       <c r="F61" t="s">
         <v>109</v>
       </c>
       <c r="G61" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="F62" t="s">
         <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>111</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="F63" t="s">
         <v>111</v>
       </c>
       <c r="G63" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>112</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="F64" t="s">
         <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>113</v>
       </c>
       <c r="D65" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CRT-1174</v>
+        <v>CRT-1270</v>
       </c>
       <c r="F65" t="s">
         <v>113</v>
       </c>
       <c r="G65" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>114</v>
       </c>
       <c r="D66" s="29" t="str">
         <f t="shared" ref="D66:D110" si="1">VLOOKUP(C66,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-1176</v>
+        <v>CRT-1274</v>
       </c>
       <c r="F66" t="s">
         <v>114</v>
       </c>
       <c r="G66" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1182</v>
+        <v>CRT-1222</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
       </c>
       <c r="G67" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>116</v>
       </c>
       <c r="D68" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1183</v>
+        <v>CRT-1271</v>
       </c>
       <c r="F68" t="s">
         <v>116</v>
       </c>
       <c r="G68" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>117</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="F69" t="s">
         <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>368</v>
+        <v>282</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>135</v>
       </c>
       <c r="D70" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1146</v>
+        <v>CRT-1299</v>
       </c>
       <c r="F70" t="s">
         <v>135</v>
       </c>
       <c r="G70" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>369</v>
+        <v>283</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D71" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1145</v>
+        <v>CRT-1296</v>
       </c>
       <c r="F71" t="s">
         <v>130</v>
       </c>
       <c r="G71" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>370</v>
+        <v>284</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1144</v>
+        <v>CRT-1252</v>
       </c>
       <c r="F72" t="s">
         <v>131</v>
       </c>
       <c r="G72" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D73" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1143</v>
+        <v>CRT-1249</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G73" t="s">
-        <v>326</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>372</v>
+        <v>286</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1138</v>
+        <v>CRT-1248</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>373</v>
+        <v>287</v>
       </c>
       <c r="C75" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D75" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1137</v>
+        <v>CRT-1251</v>
       </c>
       <c r="F75" t="s">
         <v>136</v>
       </c>
       <c r="G75" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>374</v>
+        <v>288</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D76" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1136</v>
+        <v>CRT-1250</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G76" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>375</v>
+        <v>289</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D77" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1131</v>
+        <v>CRT-1255</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>376</v>
+        <v>290</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D78" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1130</v>
+        <v>CRT-1254</v>
       </c>
       <c r="F78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G78" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>377</v>
+        <v>291</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1129</v>
+        <v>CRT-1257</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G79" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>378</v>
+        <v>292</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D80" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1128</v>
+        <v>CRT-1256</v>
       </c>
       <c r="F80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G80" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>379</v>
+        <v>293</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D81" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1184</v>
+        <v>CRT-1261</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G81" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="C82" s="29" t="s">
         <v>137</v>
       </c>
       <c r="D82" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1127</v>
+        <v>CRT-1258</v>
       </c>
       <c r="F82" t="s">
         <v>137</v>
       </c>
       <c r="G82" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D83" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1132</v>
+        <v>CRT-1259</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G83" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="B84" s="29" t="s">
-        <v>382</v>
-      </c>
       <c r="C84" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D84" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1133</v>
+        <v>CRT-1262</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="B85" s="29" t="s">
-        <v>383</v>
-      </c>
       <c r="C85" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D85" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1134</v>
+        <v>CRT-1263</v>
       </c>
       <c r="F85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G85" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>384</v>
+        <v>298</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D86" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1135</v>
+        <v>CRT-1253</v>
       </c>
       <c r="F86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G86" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D87" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1091</v>
+        <v>CRT-1213</v>
       </c>
       <c r="F87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G87" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>386</v>
+        <v>300</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D88" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1076</v>
+        <v>CRT-1280</v>
       </c>
       <c r="F88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G88" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D89" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1075</v>
+        <v>CRT-1279</v>
       </c>
       <c r="F89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G89" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D90" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1081</v>
+        <v>CRT-1281</v>
       </c>
       <c r="F90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G90" t="s">
-        <v>409</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="C91" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D91" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1088</v>
+        <v>CRT-1283</v>
       </c>
       <c r="F91" t="s">
         <v>134</v>
       </c>
       <c r="G91" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="C92" s="23" t="s">
         <v>121</v>
       </c>
       <c r="D92" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1126</v>
+        <v>CRT-1211</v>
       </c>
       <c r="F92" t="s">
         <v>121</v>
       </c>
       <c r="G92" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>122</v>
       </c>
       <c r="D93" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1121</v>
+        <v>CRT-1208</v>
       </c>
       <c r="F93" t="s">
         <v>122</v>
       </c>
       <c r="G93" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="C94" s="23" t="s">
         <v>123</v>
       </c>
       <c r="D94" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1122</v>
+        <v>CRT-1214</v>
       </c>
       <c r="F94" t="s">
         <v>123</v>
       </c>
       <c r="G94" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="C95" s="23" t="s">
         <v>118</v>
       </c>
       <c r="D95" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1123</v>
+        <v>CRT-1216</v>
       </c>
       <c r="F95" t="s">
         <v>118</v>
       </c>
       <c r="G95" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="C96" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D96" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1124</v>
+      <c r="D96" s="29" t="s">
+        <v>329</v>
       </c>
       <c r="F96" t="s">
         <v>119</v>
       </c>
       <c r="G96" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>120</v>
       </c>
       <c r="D97" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1125</v>
+        <v>CRT-1219</v>
       </c>
       <c r="F97" t="s">
         <v>120</v>
       </c>
       <c r="G97" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="C98" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="F98" t="s">
         <v>124</v>
       </c>
       <c r="G98" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>125</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="F99" t="s">
         <v>125</v>
       </c>
       <c r="G99" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G100" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>399</v>
+        <v>313</v>
       </c>
       <c r="C101" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D101" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1170</v>
+        <v>CRT-1202</v>
       </c>
       <c r="F101" t="s">
         <v>133</v>
       </c>
       <c r="G101" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D102" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1162</v>
+        <v>CRT-1189</v>
       </c>
       <c r="F102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G102" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="C103" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D103" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1159</v>
+        <v>CRT-1191</v>
       </c>
       <c r="F103" t="s">
         <v>126</v>
       </c>
       <c r="G103" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D104" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1156</v>
+        <v>CRT-1240</v>
       </c>
       <c r="F104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G104" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D105" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1149</v>
+        <v>CRT-1238</v>
       </c>
       <c r="F105" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G105" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1158</v>
+        <v>CRT-1247</v>
       </c>
       <c r="F106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G106" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
-        <v>167</v>
+        <v>321</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="C107" s="29" t="s">
         <v>129</v>
       </c>
       <c r="D107" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1171</v>
+        <v>CRT-1204</v>
       </c>
       <c r="F107" t="s">
         <v>129</v>
       </c>
       <c r="G107" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>406</v>
+        <v>322</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D108" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1172</v>
+        <v>CRT-1203</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>407</v>
+        <v>323</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D109" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1167</v>
+        <v>CRT-1196</v>
       </c>
       <c r="F109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G109" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>408</v>
+        <v>324</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D110" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>CRT-1150</v>
+        <v>CRT-1241</v>
       </c>
       <c r="F110" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G110" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B111" s="29" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="29"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -9644,392 +9374,392 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A98:B98 A7:B7">
-    <cfRule type="expression" dxfId="167" priority="1001">
+    <cfRule type="expression" dxfId="159" priority="1001">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="1002">
+    <cfRule type="expression" dxfId="158" priority="1002">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="1003">
+    <cfRule type="expression" dxfId="157" priority="1003">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="1004">
+    <cfRule type="expression" dxfId="156" priority="1004">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="1005">
+    <cfRule type="expression" dxfId="155" priority="1005">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="1006">
+    <cfRule type="expression" dxfId="154" priority="1006">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="1007">
+    <cfRule type="expression" dxfId="153" priority="1007">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="1008">
+    <cfRule type="expression" dxfId="152" priority="1008">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39">
-    <cfRule type="expression" dxfId="159" priority="1049">
+    <cfRule type="expression" dxfId="151" priority="1049">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="1050">
+    <cfRule type="expression" dxfId="150" priority="1050">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="1051">
+    <cfRule type="expression" dxfId="149" priority="1051">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="1052">
+    <cfRule type="expression" dxfId="148" priority="1052">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="1053">
+    <cfRule type="expression" dxfId="147" priority="1053">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="1054">
+    <cfRule type="expression" dxfId="146" priority="1054">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="1055">
+    <cfRule type="expression" dxfId="145" priority="1055">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="1056">
+    <cfRule type="expression" dxfId="144" priority="1056">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="151" priority="201">
-      <formula>$I101="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="202">
-      <formula>$I101="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="203">
-      <formula>$I101="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="204">
-      <formula>$I101="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="205">
-      <formula>$I101="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="206">
-      <formula>$I101="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="207">
-      <formula>$I101="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="208">
-      <formula>$I101="Failed"</formula>
+    <cfRule type="expression" dxfId="143" priority="201">
+      <formula>$G101="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="202">
+      <formula>$G101="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="203">
+      <formula>$G101="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="204">
+      <formula>$G101="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="205">
+      <formula>$G101="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="206">
+      <formula>$G101="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="207">
+      <formula>$G101="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="208">
+      <formula>$G101="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="143" priority="193">
-      <formula>$I102="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="194">
-      <formula>$I102="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="195">
-      <formula>$I102="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="196">
-      <formula>$I102="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="197">
-      <formula>$I102="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="198">
-      <formula>$I102="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="199">
-      <formula>$I102="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="200">
-      <formula>$I102="Failed"</formula>
+    <cfRule type="expression" dxfId="135" priority="193">
+      <formula>$G102="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="194">
+      <formula>$G102="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="195">
+      <formula>$G102="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="196">
+      <formula>$G102="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="197">
+      <formula>$G102="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="198">
+      <formula>$G102="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="199">
+      <formula>$G102="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="200">
+      <formula>$G102="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="135" priority="185">
-      <formula>$I103="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="186">
-      <formula>$I103="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="187">
-      <formula>$I103="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="188">
-      <formula>$I103="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="189">
-      <formula>$I103="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="190">
-      <formula>$I103="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="191">
-      <formula>$I103="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="192">
-      <formula>$I103="Failed"</formula>
+    <cfRule type="expression" dxfId="127" priority="185">
+      <formula>$G103="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="186">
+      <formula>$G103="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="187">
+      <formula>$G103="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="188">
+      <formula>$G103="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="189">
+      <formula>$G103="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="190">
+      <formula>$G103="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="191">
+      <formula>$G103="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="192">
+      <formula>$G103="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="127" priority="177">
-      <formula>$I105="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="178">
-      <formula>$I105="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="179">
-      <formula>$I105="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="180">
-      <formula>$I105="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="181">
-      <formula>$I105="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="182">
-      <formula>$I105="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="183">
-      <formula>$I105="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="184">
-      <formula>$I105="Failed"</formula>
+    <cfRule type="expression" dxfId="119" priority="177">
+      <formula>$G105="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="178">
+      <formula>$G105="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="179">
+      <formula>$G105="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="180">
+      <formula>$G105="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="181">
+      <formula>$G105="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="182">
+      <formula>$G105="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="183">
+      <formula>$G105="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="184">
+      <formula>$G105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="119" priority="169">
-      <formula>$I106="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="170">
-      <formula>$I106="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="171">
-      <formula>$I106="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="172">
-      <formula>$I106="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="173">
-      <formula>$I106="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="174">
-      <formula>$I106="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="175">
-      <formula>$I106="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="176">
-      <formula>$I106="Failed"</formula>
+    <cfRule type="expression" dxfId="111" priority="169">
+      <formula>$G106="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="170">
+      <formula>$G106="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="171">
+      <formula>$G106="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="172">
+      <formula>$G106="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="173">
+      <formula>$G106="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="174">
+      <formula>$G106="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="175">
+      <formula>$G106="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="176">
+      <formula>$G106="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="111" priority="161">
-      <formula>$I104="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="162">
-      <formula>$I104="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="163">
-      <formula>$I104="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="164">
-      <formula>$I104="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="165">
-      <formula>$I104="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="166">
-      <formula>$I104="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="167">
-      <formula>$I104="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="168">
-      <formula>$I104="Failed"</formula>
+    <cfRule type="expression" dxfId="103" priority="161">
+      <formula>$G104="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="162">
+      <formula>$G104="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="163">
+      <formula>$G104="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="164">
+      <formula>$G104="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="165">
+      <formula>$G104="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="166">
+      <formula>$G104="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="167">
+      <formula>$G104="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="168">
+      <formula>$G104="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B6">
-    <cfRule type="expression" dxfId="103" priority="1057">
+    <cfRule type="expression" dxfId="95" priority="1057">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="1058">
+    <cfRule type="expression" dxfId="94" priority="1058">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="1059">
+    <cfRule type="expression" dxfId="93" priority="1059">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="1060">
+    <cfRule type="expression" dxfId="92" priority="1060">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="1061">
+    <cfRule type="expression" dxfId="91" priority="1061">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="1062">
+    <cfRule type="expression" dxfId="90" priority="1062">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="1063">
+    <cfRule type="expression" dxfId="89" priority="1063">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="1064">
+    <cfRule type="expression" dxfId="88" priority="1064">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B111">
-    <cfRule type="expression" dxfId="95" priority="1065">
+    <cfRule type="expression" dxfId="87" priority="1065">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="1066">
+    <cfRule type="expression" dxfId="86" priority="1066">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="1067">
+    <cfRule type="expression" dxfId="85" priority="1067">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="1068">
+    <cfRule type="expression" dxfId="84" priority="1068">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="1069">
+    <cfRule type="expression" dxfId="83" priority="1069">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="1070">
+    <cfRule type="expression" dxfId="82" priority="1070">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="1071">
+    <cfRule type="expression" dxfId="81" priority="1071">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="1072">
+    <cfRule type="expression" dxfId="80" priority="1072">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B38">
-    <cfRule type="expression" dxfId="87" priority="1089">
+    <cfRule type="expression" dxfId="79" priority="1089">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="1090">
+    <cfRule type="expression" dxfId="78" priority="1090">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="1091">
+    <cfRule type="expression" dxfId="77" priority="1091">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="1092">
+    <cfRule type="expression" dxfId="76" priority="1092">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="1093">
+    <cfRule type="expression" dxfId="75" priority="1093">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="1094">
+    <cfRule type="expression" dxfId="74" priority="1094">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1095">
+    <cfRule type="expression" dxfId="73" priority="1095">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="1096">
+    <cfRule type="expression" dxfId="72" priority="1096">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B97">
-    <cfRule type="expression" dxfId="79" priority="1097">
+    <cfRule type="expression" dxfId="71" priority="1097">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="1098">
+    <cfRule type="expression" dxfId="70" priority="1098">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="1099">
+    <cfRule type="expression" dxfId="69" priority="1099">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="1100">
+    <cfRule type="expression" dxfId="68" priority="1100">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1101">
+    <cfRule type="expression" dxfId="67" priority="1101">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1102">
+    <cfRule type="expression" dxfId="66" priority="1102">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1103">
+    <cfRule type="expression" dxfId="65" priority="1103">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1104">
+    <cfRule type="expression" dxfId="64" priority="1104">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="71" priority="65">
+    <cfRule type="expression" dxfId="63" priority="65">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="67">
+    <cfRule type="expression" dxfId="61" priority="67">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="60" priority="68">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="59" priority="69">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="58" priority="70">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="57" priority="71">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="56" priority="72">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="63" priority="57">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="51" priority="61">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="50" priority="62">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="49" priority="63">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="48" priority="64">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="47" priority="49">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="46" priority="50">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="45" priority="51">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="44" priority="52">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="43" priority="53">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="42" priority="54">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="41" priority="55">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="40" priority="56">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10303,6 +10033,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -10499,22 +10244,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10531,29 +10286,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Jan Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="331">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -2882,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,7 +5988,7 @@
   <dimension ref="A1:G462"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G110"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9952,10 +9952,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9965,7 +9965,7 @@
     <col min="3" max="4" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -9978,8 +9978,11 @@
       <c r="D1" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -9993,7 +9996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -10033,18 +10036,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10245,26 +10248,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">JIRA_Details!$A$1:$E$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$D$110</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="431">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -604,9 +604,6 @@
     <t>General Ledger</t>
   </si>
   <si>
-    <t>2020-10: CH1-HC3</t>
-  </si>
-  <si>
     <t>CreatePurchaseOrder_4</t>
   </si>
   <si>
@@ -637,9 +634,6 @@
     <t>CORE - Regression Testing</t>
   </si>
   <si>
-    <t>2020-12: Dec20 BAU</t>
-  </si>
-  <si>
     <t>CreatePurchaseOrder_5</t>
   </si>
   <si>
@@ -664,9 +658,6 @@
     <t>CRT-1191</t>
   </si>
   <si>
-    <t>CRT-1239</t>
-  </si>
-  <si>
     <t>CRT-1240</t>
   </si>
   <si>
@@ -679,12 +670,6 @@
     <t>CRT-1299</t>
   </si>
   <si>
-    <t>CRT-1199</t>
-  </si>
-  <si>
-    <t>Vendor Periodic Statement</t>
-  </si>
-  <si>
     <t>CRT-1271</t>
   </si>
   <si>
@@ -733,9 +718,6 @@
     <t>CRT-1595</t>
   </si>
   <si>
-    <t>01. Create a Global Client (Included Verification of Auto-Created Global Brand, Global Product, Company Client, Company Brand  &amp; Company Product) - Spain</t>
-  </si>
-  <si>
     <t>CRT-1215</t>
   </si>
   <si>
@@ -778,33 +760,18 @@
     <t>CRT-1210</t>
   </si>
   <si>
-    <t>CRT-1200</t>
-  </si>
-  <si>
-    <t>Payment Listing</t>
-  </si>
-  <si>
     <t>CRT-1228</t>
   </si>
   <si>
     <t>CRT-1285</t>
   </si>
   <si>
-    <t>CRT-1242</t>
-  </si>
-  <si>
     <t>CRT-1258</t>
   </si>
   <si>
     <t>CRT-1222</t>
   </si>
   <si>
-    <t>CRT-1198</t>
-  </si>
-  <si>
-    <t>Vendor Open Statement</t>
-  </si>
-  <si>
     <t>CRT-1255</t>
   </si>
   <si>
@@ -817,9 +784,6 @@
     <t>CRT-1257</t>
   </si>
   <si>
-    <t>CRT-1243</t>
-  </si>
-  <si>
     <t>CRT-1208</t>
   </si>
   <si>
@@ -862,12 +826,6 @@
     <t>CRT-1236</t>
   </si>
   <si>
-    <t>CRT-1245</t>
-  </si>
-  <si>
-    <t>Client Open Statement</t>
-  </si>
-  <si>
     <t>CRT-1238</t>
   </si>
   <si>
@@ -895,9 +853,6 @@
     <t>CRT-1292</t>
   </si>
   <si>
-    <t>CRT-1197</t>
-  </si>
-  <si>
     <t>CRT-1268</t>
   </si>
   <si>
@@ -991,18 +946,9 @@
     <t>CRT-1234</t>
   </si>
   <si>
-    <t>CRT-1246</t>
-  </si>
-  <si>
-    <t>Client Periodic Statement</t>
-  </si>
-  <si>
     <t>CRT-1596</t>
   </si>
   <si>
-    <t>1. Create a Global Vendor ( Including verification of Auto-Created Company Vendor) - Spain</t>
-  </si>
-  <si>
     <t>CRT-1273</t>
   </si>
   <si>
@@ -1021,13 +967,367 @@
     <t>CRT-1293</t>
   </si>
   <si>
-    <t>CRT-1205</t>
-  </si>
-  <si>
     <t>CRT-1220</t>
   </si>
   <si>
     <t>CRT-1244</t>
+  </si>
+  <si>
+    <t>2021-02: UAE/CH2 TGL</t>
+  </si>
+  <si>
+    <t>CRT-1613</t>
+  </si>
+  <si>
+    <t>CRT-1598</t>
+  </si>
+  <si>
+    <t>CRT-1612</t>
+  </si>
+  <si>
+    <t>CRT-1597</t>
+  </si>
+  <si>
+    <t>01. Create a Global Client (Included Verification of Auto-Created Global Brand, Global Product, Company Client, Company Brand  &amp; Company Product) - UAE</t>
+  </si>
+  <si>
+    <t>3. Amend a Country Vendor</t>
+  </si>
+  <si>
+    <t>1. Create a Country Vendor ( Including verification of Auto-Created Company Vendor) - UAE</t>
+  </si>
+  <si>
+    <t>5. Block a Country Vendor</t>
+  </si>
+  <si>
+    <t>CRT-1654</t>
+  </si>
+  <si>
+    <t>CRT-1739</t>
+  </si>
+  <si>
+    <t>CRT-1738</t>
+  </si>
+  <si>
+    <t>CRT-1718</t>
+  </si>
+  <si>
+    <t>CRT-1616</t>
+  </si>
+  <si>
+    <t>CRT-1619</t>
+  </si>
+  <si>
+    <t>CRT-1677</t>
+  </si>
+  <si>
+    <t>CRT-1731</t>
+  </si>
+  <si>
+    <t>CRT-1659</t>
+  </si>
+  <si>
+    <t>CRT-1741</t>
+  </si>
+  <si>
+    <t>CRT-1621</t>
+  </si>
+  <si>
+    <t>CRT-1740</t>
+  </si>
+  <si>
+    <t>CRT-1661</t>
+  </si>
+  <si>
+    <t>CRT-1687</t>
+  </si>
+  <si>
+    <t>CRT-1722</t>
+  </si>
+  <si>
+    <t>CRT-1658</t>
+  </si>
+  <si>
+    <t>CRT-1733</t>
+  </si>
+  <si>
+    <t>CRT-1702</t>
+  </si>
+  <si>
+    <t>CRT-1691</t>
+  </si>
+  <si>
+    <t>CRT-1645</t>
+  </si>
+  <si>
+    <t>CRT-1637</t>
+  </si>
+  <si>
+    <t>CRT-1671</t>
+  </si>
+  <si>
+    <t>CRT-1705</t>
+  </si>
+  <si>
+    <t>CRT-1720</t>
+  </si>
+  <si>
+    <t>CRT-1728</t>
+  </si>
+  <si>
+    <t>CRT-1742</t>
+  </si>
+  <si>
+    <t>CRT-1620</t>
+  </si>
+  <si>
+    <t>CRT-1717</t>
+  </si>
+  <si>
+    <t>CRT-1647</t>
+  </si>
+  <si>
+    <t>CRT-1709</t>
+  </si>
+  <si>
+    <t>CRT-1719</t>
+  </si>
+  <si>
+    <t>CRT-1649</t>
+  </si>
+  <si>
+    <t>CRT-1615</t>
+  </si>
+  <si>
+    <t>CRT-1635</t>
+  </si>
+  <si>
+    <t>CRT-1636</t>
+  </si>
+  <si>
+    <t>CRT-1694</t>
+  </si>
+  <si>
+    <t>CRT-1701</t>
+  </si>
+  <si>
+    <t>CRT-1648</t>
+  </si>
+  <si>
+    <t>CRT-1679</t>
+  </si>
+  <si>
+    <t>CRT-1625</t>
+  </si>
+  <si>
+    <t>CRT-1653</t>
+  </si>
+  <si>
+    <t>CRT-1690</t>
+  </si>
+  <si>
+    <t>CRT-1699</t>
+  </si>
+  <si>
+    <t>CRT-1711</t>
+  </si>
+  <si>
+    <t>CRT-1725</t>
+  </si>
+  <si>
+    <t>CRT-1664</t>
+  </si>
+  <si>
+    <t>CRT-1735</t>
+  </si>
+  <si>
+    <t>CRT-1652</t>
+  </si>
+  <si>
+    <t>CRT-1626</t>
+  </si>
+  <si>
+    <t>CRT-1644</t>
+  </si>
+  <si>
+    <t>CRT-1730</t>
+  </si>
+  <si>
+    <t>CRT-1682</t>
+  </si>
+  <si>
+    <t>CRT-1736</t>
+  </si>
+  <si>
+    <t>CRT-1622</t>
+  </si>
+  <si>
+    <t>CRT-1683</t>
+  </si>
+  <si>
+    <t>CRT-1672</t>
+  </si>
+  <si>
+    <t>CRT-1668</t>
+  </si>
+  <si>
+    <t>CRT-1737</t>
+  </si>
+  <si>
+    <t>CRT-1670</t>
+  </si>
+  <si>
+    <t>CRT-1726</t>
+  </si>
+  <si>
+    <t>CRT-1727</t>
+  </si>
+  <si>
+    <t>CRT-1678</t>
+  </si>
+  <si>
+    <t>CRT-1732</t>
+  </si>
+  <si>
+    <t>CRT-1729</t>
+  </si>
+  <si>
+    <t>CRT-1669</t>
+  </si>
+  <si>
+    <t>CRT-1689</t>
+  </si>
+  <si>
+    <t>CRT-1716</t>
+  </si>
+  <si>
+    <t>CRT-1641</t>
+  </si>
+  <si>
+    <t>CRT-1675</t>
+  </si>
+  <si>
+    <t>CRT-1646</t>
+  </si>
+  <si>
+    <t>CRT-1656</t>
+  </si>
+  <si>
+    <t>CRT-1660</t>
+  </si>
+  <si>
+    <t>CRT-1639</t>
+  </si>
+  <si>
+    <t>CRT-1655</t>
+  </si>
+  <si>
+    <t>CRT-1663</t>
+  </si>
+  <si>
+    <t>CRT-1662</t>
+  </si>
+  <si>
+    <t>CRT-1617</t>
+  </si>
+  <si>
+    <t>CRT-1684</t>
+  </si>
+  <si>
+    <t>CRT-1713</t>
+  </si>
+  <si>
+    <t>CRT-1706</t>
+  </si>
+  <si>
+    <t>CRT-1674</t>
+  </si>
+  <si>
+    <t>CRT-1680</t>
+  </si>
+  <si>
+    <t>CRT-1665</t>
+  </si>
+  <si>
+    <t>CRT-1686</t>
+  </si>
+  <si>
+    <t>CRT-1724</t>
+  </si>
+  <si>
+    <t>CRT-1667</t>
+  </si>
+  <si>
+    <t>CRT-1688</t>
+  </si>
+  <si>
+    <t>CRT-1623</t>
+  </si>
+  <si>
+    <t>CRT-1692</t>
+  </si>
+  <si>
+    <t>CRT-1666</t>
+  </si>
+  <si>
+    <t>CRT-1743</t>
+  </si>
+  <si>
+    <t>CRT-1673</t>
+  </si>
+  <si>
+    <t>CRT-1744</t>
+  </si>
+  <si>
+    <t>CRT-1714</t>
+  </si>
+  <si>
+    <t>CRT-1638</t>
+  </si>
+  <si>
+    <t>CRT-1707</t>
+  </si>
+  <si>
+    <t>CRT-1696</t>
+  </si>
+  <si>
+    <t>CRT-1681</t>
+  </si>
+  <si>
+    <t>CRT-1643</t>
+  </si>
+  <si>
+    <t>CRT-1640</t>
+  </si>
+  <si>
+    <t>CRT-1650</t>
+  </si>
+  <si>
+    <t>CRT-1676</t>
+  </si>
+  <si>
+    <t>CRT-1693</t>
+  </si>
+  <si>
+    <t>CRT-1627</t>
+  </si>
+  <si>
+    <t>CRT-1642</t>
+  </si>
+  <si>
+    <t>CRT-1734</t>
+  </si>
+  <si>
+    <t>CRT-1685</t>
+  </si>
+  <si>
+    <t>CRT-1704</t>
+  </si>
+  <si>
+    <t>CRT-1624</t>
+  </si>
+  <si>
+    <t>CRT-1651</t>
   </si>
 </sst>
 </file>
@@ -2883,7 +3183,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1284</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,7 +3245,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,10 +3390,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,6 +3482,9 @@
       <c r="B5">
         <v>1319</v>
       </c>
+      <c r="G5">
+        <v>2128</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -3191,6 +3494,11 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1221</v>
       </c>
     </row>
   </sheetData>
@@ -3203,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,22 +3551,22 @@
         <v>39</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>189</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3266,22 +3574,22 @@
         <v>53</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,22 +3597,22 @@
         <v>54</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3312,22 +3620,22 @@
         <v>55</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3335,22 +3643,22 @@
         <v>56</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3358,22 +3666,22 @@
         <v>57</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3381,22 +3689,22 @@
         <v>58</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3404,22 +3712,22 @@
         <v>61</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3427,22 +3735,22 @@
         <v>63</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3450,22 +3758,22 @@
         <v>59</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3473,22 +3781,22 @@
         <v>60</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3496,22 +3804,22 @@
         <v>61</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3519,22 +3827,22 @@
         <v>62</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3542,22 +3850,22 @@
         <v>63</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3565,22 +3873,22 @@
         <v>64</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3588,22 +3896,22 @@
         <v>65</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3611,22 +3919,22 @@
         <v>66</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3634,22 +3942,22 @@
         <v>67</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3657,22 +3965,22 @@
         <v>68</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3680,22 +3988,22 @@
         <v>69</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3703,22 +4011,22 @@
         <v>70</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3726,22 +4034,22 @@
         <v>71</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3749,22 +4057,22 @@
         <v>72</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3772,22 +4080,22 @@
         <v>73</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3795,22 +4103,22 @@
         <v>74</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3818,22 +4126,22 @@
         <v>75</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3841,22 +4149,22 @@
         <v>76</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3864,22 +4172,22 @@
         <v>77</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,22 +4195,22 @@
         <v>144</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3910,22 +4218,22 @@
         <v>78</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3933,22 +4241,22 @@
         <v>79</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3956,22 +4264,22 @@
         <v>80</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3979,22 +4287,22 @@
         <v>81</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4002,22 +4310,22 @@
         <v>82</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,22 +4333,22 @@
         <v>83</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4048,22 +4356,22 @@
         <v>84</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4071,22 +4379,22 @@
         <v>85</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4094,22 +4402,22 @@
         <v>86</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4117,22 +4425,22 @@
         <v>87</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4140,22 +4448,22 @@
         <v>88</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4163,22 +4471,22 @@
         <v>89</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4209,22 +4517,22 @@
         <v>90</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4232,22 +4540,22 @@
         <v>91</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4255,22 +4563,22 @@
         <v>92</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4278,22 +4586,22 @@
         <v>93</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4301,22 +4609,22 @@
         <v>94</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4324,22 +4632,22 @@
         <v>95</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4347,22 +4655,22 @@
         <v>96</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4370,22 +4678,22 @@
         <v>97</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4393,22 +4701,22 @@
         <v>98</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4416,22 +4724,22 @@
         <v>99</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4439,22 +4747,22 @@
         <v>100</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4462,22 +4770,22 @@
         <v>101</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4485,22 +4793,22 @@
         <v>102</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4508,22 +4816,22 @@
         <v>103</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4531,22 +4839,22 @@
         <v>104</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4554,22 +4862,22 @@
         <v>105</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,22 +4885,22 @@
         <v>106</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4600,22 +4908,22 @@
         <v>107</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4623,22 +4931,22 @@
         <v>108</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4646,22 +4954,22 @@
         <v>109</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4669,22 +4977,22 @@
         <v>110</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4692,22 +5000,22 @@
         <v>111</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4715,22 +5023,22 @@
         <v>112</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4738,22 +5046,22 @@
         <v>113</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4761,22 +5069,22 @@
         <v>114</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4784,22 +5092,22 @@
         <v>115</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4807,22 +5115,22 @@
         <v>116</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4830,22 +5138,22 @@
         <v>117</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4853,22 +5161,22 @@
         <v>135</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4876,22 +5184,22 @@
         <v>130</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4899,22 +5207,22 @@
         <v>131</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4922,22 +5230,22 @@
         <v>150</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4945,22 +5253,22 @@
         <v>146</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4968,22 +5276,22 @@
         <v>136</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,22 +5299,22 @@
         <v>145</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5014,22 +5322,22 @@
         <v>152</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5037,22 +5345,22 @@
         <v>138</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -5060,22 +5368,22 @@
         <v>160</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,22 +5391,22 @@
         <v>153</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5106,22 +5414,22 @@
         <v>159</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5129,22 +5437,22 @@
         <v>137</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5152,22 +5460,22 @@
         <v>148</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5175,22 +5483,22 @@
         <v>158</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5198,22 +5506,22 @@
         <v>143</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5221,22 +5529,22 @@
         <v>151</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -5244,22 +5552,22 @@
         <v>165</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5267,22 +5575,22 @@
         <v>163</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5290,22 +5598,22 @@
         <v>161</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5313,22 +5621,22 @@
         <v>155</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G92" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5336,22 +5644,22 @@
         <v>134</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5359,22 +5667,22 @@
         <v>121</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5382,22 +5690,22 @@
         <v>122</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5405,22 +5713,22 @@
         <v>123</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5428,22 +5736,22 @@
         <v>118</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5451,22 +5759,22 @@
         <v>119</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5474,22 +5782,22 @@
         <v>120</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5497,22 +5805,22 @@
         <v>124</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5520,22 +5828,22 @@
         <v>125</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5543,22 +5851,22 @@
         <v>188</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5566,22 +5874,22 @@
         <v>133</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5589,22 +5897,22 @@
         <v>147</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5612,22 +5920,22 @@
         <v>126</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5635,22 +5943,22 @@
         <v>142</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5658,22 +5966,22 @@
         <v>154</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5681,22 +5989,22 @@
         <v>140</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5704,22 +6012,22 @@
         <v>129</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5727,22 +6035,22 @@
         <v>139</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5750,22 +6058,22 @@
         <v>156</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5773,22 +6081,22 @@
         <v>164</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5849,131 +6157,227 @@
       <c r="A122" s="29" t="s">
         <v>176</v>
       </c>
+      <c r="D122" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>235</v>
+      </c>
       <c r="G122"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
         <v>177</v>
       </c>
+      <c r="D123" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>235</v>
+      </c>
       <c r="G123"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>178</v>
       </c>
+      <c r="D124" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>234</v>
+      </c>
       <c r="G124"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
         <v>179</v>
       </c>
+      <c r="D125" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>234</v>
+      </c>
       <c r="G125"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
         <v>180</v>
       </c>
+      <c r="D126" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>234</v>
+      </c>
       <c r="G126"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="29" t="s">
         <v>181</v>
       </c>
+      <c r="D127" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="G127"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
         <v>182</v>
       </c>
+      <c r="D128" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="G128"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
         <v>183</v>
       </c>
+      <c r="D129" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>241</v>
+      </c>
       <c r="G129"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
         <v>184</v>
       </c>
+      <c r="D130" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>241</v>
+      </c>
       <c r="G130"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="29" t="s">
         <v>185</v>
       </c>
+      <c r="D131" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>241</v>
+      </c>
       <c r="G131"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>255</v>
       </c>
       <c r="G132"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>255</v>
       </c>
       <c r="G133"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G134"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G135"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G136"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>234</v>
       </c>
       <c r="G137"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>234</v>
       </c>
       <c r="G138"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>241</v>
       </c>
       <c r="G139"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>241</v>
       </c>
       <c r="G140"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G141"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G142"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G143"/>
     </row>
@@ -5985,10 +6389,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G462"/>
+  <dimension ref="A1:D456"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5998,2376 +6402,1684 @@
     <col min="4" max="4" width="8.28515625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="29" t="str">
-        <f t="shared" ref="D3:D65" si="0">VLOOKUP(C3,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-1227</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C3,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>211</v>
+        <v>324</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1230</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C4,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1229</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C5,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1224</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C6,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1223</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C7,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1201</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C9,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1188</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C10,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>219</v>
+        <v>331</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1223</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C11,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1226</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C12,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1236</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C14,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1291</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C15,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1289</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C16,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>225</v>
+        <v>337</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1288</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C17,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1278</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C20,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1212</v>
-      </c>
-      <c r="F21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C21,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1207</v>
-      </c>
-      <c r="F22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C22,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1215</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C23,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>233</v>
+        <v>344</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1210</v>
-      </c>
-      <c r="F24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C24,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1218</v>
-      </c>
-      <c r="F25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C25,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1221</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C26,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1217</v>
-      </c>
-      <c r="F27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C27,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1206</v>
-      </c>
-      <c r="F28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C28,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>238</v>
+        <v>349</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="F29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1268</v>
-      </c>
-      <c r="F30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C30,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>80</v>
       </c>
       <c r="D31" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1266</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C31,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1267</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C32,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="F33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1276</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C34,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1265</v>
-      </c>
-      <c r="F35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C35,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="F36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>86</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1277</v>
-      </c>
-      <c r="F38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C38,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1190</v>
-      </c>
-      <c r="F39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C39,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1670</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1264</v>
-      </c>
-      <c r="F40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C40,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>187</v>
       </c>
       <c r="D41" s="29" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(C41,$A$1:$B$110,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F41" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>252</v>
+        <v>362</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1186</v>
-      </c>
-      <c r="F42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C42,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>254</v>
+        <v>364</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1285</v>
-      </c>
-      <c r="F44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C44,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>257</v>
+        <v>366</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1287</v>
-      </c>
-      <c r="F46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C46,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>258</v>
+        <v>367</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>259</v>
+        <v>368</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>96</v>
       </c>
       <c r="D48" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1193</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C48,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1734</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>260</v>
+        <v>369</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1195</v>
-      </c>
-      <c r="F49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G49" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C49,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D50" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1194</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C50,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D51" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1192</v>
-      </c>
-      <c r="F51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C51,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>263</v>
+        <v>372</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>100</v>
       </c>
       <c r="D52" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1187</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C52,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1743</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>264</v>
+        <v>373</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1185</v>
-      </c>
-      <c r="F53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C53,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>265</v>
+        <v>374</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D54" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1292</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C54,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1660</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>266</v>
+        <v>375</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>103</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="F55" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>104</v>
       </c>
       <c r="D56" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1294</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G56" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C56,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>268</v>
+        <v>377</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>105</v>
       </c>
       <c r="D57" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1298</v>
-      </c>
-      <c r="F57" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C57,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D58" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1297</v>
-      </c>
-      <c r="F58" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C58,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1658</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>270</v>
+        <v>379</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>107</v>
       </c>
       <c r="D59" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1234</v>
-      </c>
-      <c r="F59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C59,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>271</v>
+        <v>380</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>108</v>
       </c>
       <c r="D60" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1233</v>
-      </c>
-      <c r="F60" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C60,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1740</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>109</v>
       </c>
       <c r="D61" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1237</v>
-      </c>
-      <c r="F61" t="s">
-        <v>109</v>
-      </c>
-      <c r="G61" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C61,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="F62" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>111</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="F63" t="s">
-        <v>111</v>
-      </c>
-      <c r="G63" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>275</v>
+        <v>384</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>112</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="F64" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>113</v>
       </c>
       <c r="D65" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>CRT-1270</v>
-      </c>
-      <c r="F65" t="s">
-        <v>113</v>
-      </c>
-      <c r="G65" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C65,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1706</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>278</v>
+        <v>386</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>114</v>
       </c>
       <c r="D66" s="29" t="str">
-        <f t="shared" ref="D66:D110" si="1">VLOOKUP(C66,$A$1:$B$111,2,FALSE)</f>
-        <v>CRT-1274</v>
-      </c>
-      <c r="F66" t="s">
-        <v>114</v>
-      </c>
-      <c r="G66" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C66,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1222</v>
-      </c>
-      <c r="F67" t="s">
-        <v>115</v>
-      </c>
-      <c r="G67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C67,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>116</v>
       </c>
       <c r="D68" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1271</v>
-      </c>
-      <c r="F68" t="s">
-        <v>116</v>
-      </c>
-      <c r="G68" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C68,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>117</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="F69" t="s">
-        <v>117</v>
-      </c>
-      <c r="G69" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>135</v>
       </c>
       <c r="D70" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1299</v>
-      </c>
-      <c r="F70" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C70,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D71" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1296</v>
-      </c>
-      <c r="F71" t="s">
-        <v>130</v>
-      </c>
-      <c r="G71" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C71,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1252</v>
-      </c>
-      <c r="F72" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C72,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>150</v>
       </c>
       <c r="D73" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1249</v>
-      </c>
-      <c r="F73" t="s">
-        <v>150</v>
-      </c>
-      <c r="G73" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C73,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="C74" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D74" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1248</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
-      </c>
-      <c r="G74" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C74,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="C75" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D75" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1251</v>
-      </c>
-      <c r="F75" t="s">
-        <v>136</v>
-      </c>
-      <c r="G75" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C75,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>288</v>
+        <v>396</v>
       </c>
       <c r="C76" s="29" t="s">
         <v>145</v>
       </c>
       <c r="D76" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1250</v>
-      </c>
-      <c r="F76" t="s">
-        <v>145</v>
-      </c>
-      <c r="G76" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C76,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1680</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>289</v>
+        <v>397</v>
       </c>
       <c r="C77" s="29" t="s">
         <v>152</v>
       </c>
       <c r="D77" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1255</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
-      </c>
-      <c r="G77" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C77,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>290</v>
+        <v>398</v>
       </c>
       <c r="C78" s="29" t="s">
         <v>138</v>
       </c>
       <c r="D78" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1254</v>
-      </c>
-      <c r="F78" t="s">
-        <v>138</v>
-      </c>
-      <c r="G78" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C78,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1675</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="C79" s="29" t="s">
         <v>160</v>
       </c>
       <c r="D79" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1257</v>
-      </c>
-      <c r="F79" t="s">
-        <v>160</v>
-      </c>
-      <c r="G79" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C79,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>292</v>
+        <v>400</v>
       </c>
       <c r="C80" s="29" t="s">
         <v>153</v>
       </c>
       <c r="D80" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1256</v>
-      </c>
-      <c r="F80" t="s">
-        <v>153</v>
-      </c>
-      <c r="G80" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C80,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1677</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="C81" s="29" t="s">
         <v>159</v>
       </c>
       <c r="D81" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1261</v>
-      </c>
-      <c r="F81" t="s">
-        <v>159</v>
-      </c>
-      <c r="G81" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C81,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1702</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="C82" s="29" t="s">
         <v>137</v>
       </c>
       <c r="D82" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1258</v>
-      </c>
-      <c r="F82" t="s">
-        <v>137</v>
-      </c>
-      <c r="G82" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C82,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="C83" s="29" t="s">
         <v>148</v>
       </c>
       <c r="D83" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1259</v>
-      </c>
-      <c r="F83" t="s">
-        <v>148</v>
-      </c>
-      <c r="G83" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C83,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1711</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>296</v>
+        <v>404</v>
       </c>
       <c r="C84" s="29" t="s">
         <v>158</v>
       </c>
       <c r="D84" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1262</v>
-      </c>
-      <c r="F84" t="s">
-        <v>158</v>
-      </c>
-      <c r="G84" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C84,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1692</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
       <c r="C85" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D85" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1263</v>
-      </c>
-      <c r="F85" t="s">
-        <v>143</v>
-      </c>
-      <c r="G85" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C85,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1687</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="C86" s="29" t="s">
         <v>151</v>
       </c>
       <c r="D86" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1253</v>
-      </c>
-      <c r="F86" t="s">
-        <v>151</v>
-      </c>
-      <c r="G86" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C86,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>299</v>
+        <v>407</v>
       </c>
       <c r="C87" s="29" t="s">
         <v>165</v>
       </c>
       <c r="D87" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1213</v>
-      </c>
-      <c r="F87" t="s">
-        <v>165</v>
-      </c>
-      <c r="G87" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C87,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1619</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="C88" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1280</v>
-      </c>
-      <c r="F88" t="s">
-        <v>163</v>
-      </c>
-      <c r="G88" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>301</v>
+        <v>409</v>
       </c>
       <c r="C89" s="29" t="s">
         <v>161</v>
       </c>
       <c r="D89" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1279</v>
-      </c>
-      <c r="F89" t="s">
-        <v>161</v>
-      </c>
-      <c r="G89" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C89,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="C90" s="29" t="s">
         <v>155</v>
       </c>
       <c r="D90" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1281</v>
-      </c>
-      <c r="F90" t="s">
-        <v>155</v>
-      </c>
-      <c r="G90" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C90,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1626</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
       <c r="C91" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="D91" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1283</v>
-      </c>
-      <c r="F91" t="s">
-        <v>134</v>
-      </c>
-      <c r="G91" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D91" s="29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="C92" s="23" t="s">
         <v>121</v>
       </c>
       <c r="D92" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1211</v>
-      </c>
-      <c r="F92" t="s">
-        <v>121</v>
-      </c>
-      <c r="G92" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C92,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1709</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>305</v>
+        <v>413</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>122</v>
       </c>
       <c r="D93" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1208</v>
-      </c>
-      <c r="F93" t="s">
+        <f>VLOOKUP(C93,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1714</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G93" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="29" t="s">
-        <v>98</v>
-      </c>
       <c r="B94" s="29" t="s">
-        <v>306</v>
+        <v>414</v>
       </c>
       <c r="C94" s="23" t="s">
         <v>123</v>
       </c>
       <c r="D94" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1214</v>
-      </c>
-      <c r="F94" t="s">
-        <v>123</v>
-      </c>
-      <c r="G94" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C94,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1713</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="C95" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D95" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1216</v>
-      </c>
-      <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D95" s="29" t="e">
+        <f>VLOOKUP(C95,$A$1:$B$110,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="C96" s="23" t="s">
         <v>119</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="F96" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="G96" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
-        <v>164</v>
-      </c>
       <c r="B97" s="29" t="s">
-        <v>309</v>
+        <v>417</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>120</v>
       </c>
       <c r="D97" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1219</v>
-      </c>
-      <c r="F97" t="s">
-        <v>120</v>
-      </c>
-      <c r="G97" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C97,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>310</v>
+        <v>418</v>
       </c>
       <c r="C98" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="F98" t="s">
-        <v>124</v>
-      </c>
-      <c r="G98" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>125</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="F99" t="s">
-        <v>125</v>
-      </c>
-      <c r="G99" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
         <v>124</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="C100" s="23" t="s">
         <v>188</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F100" t="s">
-        <v>188</v>
-      </c>
-      <c r="G100" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="C101" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D101" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1202</v>
-      </c>
-      <c r="F101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G101" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C101,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1653</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>314</v>
+        <v>422</v>
       </c>
       <c r="C102" s="29" t="s">
         <v>147</v>
       </c>
       <c r="D102" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1189</v>
-      </c>
-      <c r="F102" t="s">
-        <v>147</v>
-      </c>
-      <c r="G102" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C102,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1654</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
       <c r="C103" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D103" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1191</v>
-      </c>
-      <c r="F103" t="s">
-        <v>126</v>
-      </c>
-      <c r="G103" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C103,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1651</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
       <c r="C104" s="29" t="s">
         <v>142</v>
       </c>
       <c r="D104" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1240</v>
-      </c>
-      <c r="F104" t="s">
-        <v>142</v>
-      </c>
-      <c r="G104" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C104,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="C105" s="29" t="s">
         <v>154</v>
       </c>
       <c r="D105" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1238</v>
-      </c>
-      <c r="F105" t="s">
-        <v>154</v>
-      </c>
-      <c r="G105" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C105,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1644</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>318</v>
+        <v>426</v>
       </c>
       <c r="C106" s="29" t="s">
         <v>140</v>
       </c>
       <c r="D106" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1247</v>
-      </c>
-      <c r="F106" t="s">
-        <v>140</v>
-      </c>
-      <c r="G106" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C106,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
-        <v>321</v>
+        <v>56</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>320</v>
+        <v>427</v>
       </c>
       <c r="C107" s="29" t="s">
         <v>129</v>
       </c>
       <c r="D107" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1204</v>
-      </c>
-      <c r="F107" t="s">
-        <v>129</v>
-      </c>
-      <c r="G107" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C107,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1648</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="C108" s="29" t="s">
         <v>139</v>
       </c>
       <c r="D108" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1203</v>
-      </c>
-      <c r="F108" t="s">
-        <v>139</v>
-      </c>
-      <c r="G108" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C108,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="C109" s="29" t="s">
         <v>156</v>
       </c>
       <c r="D109" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1196</v>
-      </c>
-      <c r="F109" t="s">
-        <v>156</v>
-      </c>
-      <c r="G109" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C109,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1649</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>324</v>
+        <v>430</v>
       </c>
       <c r="C110" s="29" t="s">
         <v>164</v>
       </c>
       <c r="D110" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>CRT-1241</v>
-      </c>
-      <c r="F110" t="s">
-        <v>164</v>
-      </c>
-      <c r="G110" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(C110,$A$1:$B$110,2,FALSE)</f>
+        <v>CRT-1646</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="29"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="29"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="29"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="29"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="29"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="29"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -9354,25 +9066,8 @@
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="29"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="29"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="29"/>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="29"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="29"/>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="29"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="29"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D110"/>
   <conditionalFormatting sqref="A98:B98 A7:B7">
     <cfRule type="expression" dxfId="159" priority="1001">
       <formula>#REF!="Passed"</formula>
@@ -9607,7 +9302,7 @@
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99:B111">
+  <conditionalFormatting sqref="A99:B110">
     <cfRule type="expression" dxfId="87" priority="1065">
       <formula>#REF!="Passed"</formula>
     </cfRule>
@@ -9952,10 +9647,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9965,7 +9660,7 @@
     <col min="3" max="4" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -9978,11 +9673,8 @@
       <c r="D1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -9996,7 +9688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
@@ -10010,7 +9702,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -10036,21 +9728,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -10247,32 +9930,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E10866D-5BB4-44E5-B346-014C2F2BBDD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10289,4 +9973,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Mar Regression 2021\Feb Regression\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\WPP Global TestScripts\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="461">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -1092,6 +1092,333 @@
   </si>
   <si>
     <t>2021-02: UAE/CH2 HC2 Release</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>HK-262</t>
+  </si>
+  <si>
+    <t>HK-302</t>
+  </si>
+  <si>
+    <t>HK-222</t>
+  </si>
+  <si>
+    <t>HK-233</t>
+  </si>
+  <si>
+    <t>HK-234</t>
+  </si>
+  <si>
+    <t>HK-251</t>
+  </si>
+  <si>
+    <t>HK-246</t>
+  </si>
+  <si>
+    <t>HK-245</t>
+  </si>
+  <si>
+    <t>HK-281</t>
+  </si>
+  <si>
+    <t>HK-280</t>
+  </si>
+  <si>
+    <t>HK-244</t>
+  </si>
+  <si>
+    <t>HK-253</t>
+  </si>
+  <si>
+    <t>HK-299</t>
+  </si>
+  <si>
+    <t>HK-320</t>
+  </si>
+  <si>
+    <t>HK-301</t>
+  </si>
+  <si>
+    <t>HK-314</t>
+  </si>
+  <si>
+    <t>HK-317</t>
+  </si>
+  <si>
+    <t>HK-327</t>
+  </si>
+  <si>
+    <t>HK-329</t>
+  </si>
+  <si>
+    <t>HK-298</t>
+  </si>
+  <si>
+    <t>HK-295</t>
+  </si>
+  <si>
+    <t>HK-297</t>
+  </si>
+  <si>
+    <t>HK-310</t>
+  </si>
+  <si>
+    <t>HK-313</t>
+  </si>
+  <si>
+    <t>HK-307</t>
+  </si>
+  <si>
+    <t>HK-308</t>
+  </si>
+  <si>
+    <t>HK-294</t>
+  </si>
+  <si>
+    <t>HK-284</t>
+  </si>
+  <si>
+    <t>HK-291</t>
+  </si>
+  <si>
+    <t>HK-221</t>
+  </si>
+  <si>
+    <t>HK-293</t>
+  </si>
+  <si>
+    <t>HK-292</t>
+  </si>
+  <si>
+    <t>HK-223</t>
+  </si>
+  <si>
+    <t>HK-230</t>
+  </si>
+  <si>
+    <t>HK-226</t>
+  </si>
+  <si>
+    <t>HK-228</t>
+  </si>
+  <si>
+    <t>HK-288</t>
+  </si>
+  <si>
+    <t>HK-224</t>
+  </si>
+  <si>
+    <t>HK-286</t>
+  </si>
+  <si>
+    <t>HK-283</t>
+  </si>
+  <si>
+    <t>HK-325</t>
+  </si>
+  <si>
+    <t>HK-322</t>
+  </si>
+  <si>
+    <t>HK-326</t>
+  </si>
+  <si>
+    <t>HK-323</t>
+  </si>
+  <si>
+    <t>HK-321</t>
+  </si>
+  <si>
+    <t>HK-249</t>
+  </si>
+  <si>
+    <t>HK-266</t>
+  </si>
+  <si>
+    <t>HK-261</t>
+  </si>
+  <si>
+    <t>HK-252</t>
+  </si>
+  <si>
+    <t>HK-264</t>
+  </si>
+  <si>
+    <t>HK-247</t>
+  </si>
+  <si>
+    <t>HK-257</t>
+  </si>
+  <si>
+    <t>HK-258</t>
+  </si>
+  <si>
+    <t>HK-255</t>
+  </si>
+  <si>
+    <t>HK-256</t>
+  </si>
+  <si>
+    <t>HK-269</t>
+  </si>
+  <si>
+    <t>HK-240</t>
+  </si>
+  <si>
+    <t>HK-237</t>
+  </si>
+  <si>
+    <t>HK-238</t>
+  </si>
+  <si>
+    <t>HK-235</t>
+  </si>
+  <si>
+    <t>HK-236</t>
+  </si>
+  <si>
+    <t>HK-229</t>
+  </si>
+  <si>
+    <t>HK-231</t>
+  </si>
+  <si>
+    <t>HK-227</t>
+  </si>
+  <si>
+    <t>HK-239</t>
+  </si>
+  <si>
+    <t>HK-241</t>
+  </si>
+  <si>
+    <t>HK-225</t>
+  </si>
+  <si>
+    <t>HK-263</t>
+  </si>
+  <si>
+    <t>HK-279</t>
+  </si>
+  <si>
+    <t>HK-277</t>
+  </si>
+  <si>
+    <t>HK-278</t>
+  </si>
+  <si>
+    <t>HK-275</t>
+  </si>
+  <si>
+    <t>HK-276</t>
+  </si>
+  <si>
+    <t>HK-289</t>
+  </si>
+  <si>
+    <t>HK-290</t>
+  </si>
+  <si>
+    <t>HK-285</t>
+  </si>
+  <si>
+    <t>HK-287</t>
+  </si>
+  <si>
+    <t>HK-282</t>
+  </si>
+  <si>
+    <t>HK-216</t>
+  </si>
+  <si>
+    <t>HK-215</t>
+  </si>
+  <si>
+    <t>HK-218</t>
+  </si>
+  <si>
+    <t>HK-217</t>
+  </si>
+  <si>
+    <t>HK-220</t>
+  </si>
+  <si>
+    <t>HK-219</t>
+  </si>
+  <si>
+    <t>HK-304</t>
+  </si>
+  <si>
+    <t>HK-300</t>
+  </si>
+  <si>
+    <t>HK-318</t>
+  </si>
+  <si>
+    <t>HK-315</t>
+  </si>
+  <si>
+    <t>HK-319</t>
+  </si>
+  <si>
+    <t>HK-306</t>
+  </si>
+  <si>
+    <t>HK-309</t>
+  </si>
+  <si>
+    <t>HK-303</t>
+  </si>
+  <si>
+    <t>HK-296</t>
+  </si>
+  <si>
+    <t>HK-311</t>
+  </si>
+  <si>
+    <t>HK-312</t>
+  </si>
+  <si>
+    <t>HK-242</t>
+  </si>
+  <si>
+    <t>HK-243</t>
+  </si>
+  <si>
+    <t>HK-199</t>
+  </si>
+  <si>
+    <t>HK-195</t>
+  </si>
+  <si>
+    <t>HK-204</t>
+  </si>
+  <si>
+    <t>HK-197</t>
+  </si>
+  <si>
+    <t>HK-201</t>
+  </si>
+  <si>
+    <t>HK-196</t>
+  </si>
+  <si>
+    <t>HK-212</t>
+  </si>
+  <si>
+    <t>HK-209</t>
+  </si>
+  <si>
+    <t>HK-203</t>
+  </si>
+  <si>
+    <t>HK-198</t>
+  </si>
+  <si>
+    <t>SIT</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1308,12 +1635,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1361,6 +1699,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2903,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,7 +3333,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,6 +3343,7 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3062,6 +3403,9 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>352</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -3088,15 +3432,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3118,8 +3462,11 @@
       <c r="G1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
@@ -3141,8 +3488,11 @@
       <c r="G2">
         <v>2113</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="28">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
@@ -3158,8 +3508,11 @@
       <c r="G3">
         <v>2050</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="28">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1753</v>
       </c>
@@ -3175,28 +3528,88 @@
       <c r="G4">
         <v>2111</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="28">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1319</v>
       </c>
       <c r="G5">
         <v>2128</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="28">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1228</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="28">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1271</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="28">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1221</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="28">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="28">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="28">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="28">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="28">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="28">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="28">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="28">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="28">
+        <v>1622</v>
       </c>
     </row>
   </sheetData>
@@ -3207,10 +3620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,9 +3632,10 @@
     <col min="2" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -3243,8 +3657,11 @@
       <c r="G1" s="19" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
@@ -3266,8 +3683,11 @@
       <c r="G2" s="19" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>53</v>
       </c>
@@ -3289,8 +3709,11 @@
       <c r="G3" s="28" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>54</v>
       </c>
@@ -3312,8 +3735,11 @@
       <c r="G4" s="28" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>55</v>
       </c>
@@ -3335,8 +3761,11 @@
       <c r="G5" s="28" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>56</v>
       </c>
@@ -3358,8 +3787,11 @@
       <c r="G6" s="28" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>57</v>
       </c>
@@ -3381,8 +3813,11 @@
       <c r="G7" s="28" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>58</v>
       </c>
@@ -3404,8 +3839,11 @@
       <c r="G8" s="28" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>61</v>
       </c>
@@ -3427,8 +3865,11 @@
       <c r="G9" s="28" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>63</v>
       </c>
@@ -3450,8 +3891,11 @@
       <c r="G10" s="28" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>59</v>
       </c>
@@ -3473,8 +3917,11 @@
       <c r="G11" s="28" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>60</v>
       </c>
@@ -3496,8 +3943,11 @@
       <c r="G12" s="28" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="28" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>61</v>
       </c>
@@ -3519,8 +3969,11 @@
       <c r="G13" s="28" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>62</v>
       </c>
@@ -3542,8 +3995,11 @@
       <c r="G14" s="28" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>63</v>
       </c>
@@ -3565,8 +4021,11 @@
       <c r="G15" s="28" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>64</v>
       </c>
@@ -3588,8 +4047,11 @@
       <c r="G16" s="28" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>65</v>
       </c>
@@ -3611,8 +4073,11 @@
       <c r="G17" s="28" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>66</v>
       </c>
@@ -3634,8 +4099,11 @@
       <c r="G18" s="28" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>67</v>
       </c>
@@ -3657,8 +4125,11 @@
       <c r="G19" s="28" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>68</v>
       </c>
@@ -3680,8 +4151,11 @@
       <c r="G20" s="28" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>69</v>
       </c>
@@ -3703,8 +4177,11 @@
       <c r="G21" s="28" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>70</v>
       </c>
@@ -3726,8 +4203,11 @@
       <c r="G22" s="28" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>71</v>
       </c>
@@ -3749,8 +4229,11 @@
       <c r="G23" s="28" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="28" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>72</v>
       </c>
@@ -3772,8 +4255,11 @@
       <c r="G24" s="28" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>73</v>
       </c>
@@ -3795,8 +4281,11 @@
       <c r="G25" s="28" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>74</v>
       </c>
@@ -3818,8 +4307,11 @@
       <c r="G26" s="28" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>75</v>
       </c>
@@ -3841,8 +4333,11 @@
       <c r="G27" s="28" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>76</v>
       </c>
@@ -3864,8 +4359,11 @@
       <c r="G28" s="28" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>77</v>
       </c>
@@ -3887,8 +4385,11 @@
       <c r="G29" s="28" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>144</v>
       </c>
@@ -3910,8 +4411,11 @@
       <c r="G30" s="28" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>78</v>
       </c>
@@ -3933,8 +4437,11 @@
       <c r="G31" s="28" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4463,11 @@
       <c r="G32" s="28" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>80</v>
       </c>
@@ -3979,8 +4489,11 @@
       <c r="G33" s="28" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>81</v>
       </c>
@@ -4002,8 +4515,11 @@
       <c r="G34" s="28" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>82</v>
       </c>
@@ -4025,8 +4541,11 @@
       <c r="G35" s="28" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>83</v>
       </c>
@@ -4048,8 +4567,11 @@
       <c r="G36" s="28" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>84</v>
       </c>
@@ -4071,8 +4593,11 @@
       <c r="G37" s="28" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>85</v>
       </c>
@@ -4094,8 +4619,11 @@
       <c r="G38" s="28" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>86</v>
       </c>
@@ -4117,8 +4645,11 @@
       <c r="G39" s="28" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>87</v>
       </c>
@@ -4140,8 +4671,11 @@
       <c r="G40" s="28" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>88</v>
       </c>
@@ -4163,8 +4697,11 @@
       <c r="G41" s="28" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>89</v>
       </c>
@@ -4186,8 +4723,11 @@
       <c r="G42" s="28" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>187</v>
       </c>
@@ -4209,8 +4749,11 @@
       <c r="G43" s="28" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="28" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>90</v>
       </c>
@@ -4232,8 +4775,11 @@
       <c r="G44" s="28" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>91</v>
       </c>
@@ -4255,8 +4801,11 @@
       <c r="G45" s="28" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>92</v>
       </c>
@@ -4278,8 +4827,11 @@
       <c r="G46" s="28" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="28" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>93</v>
       </c>
@@ -4301,8 +4853,11 @@
       <c r="G47" s="28" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>94</v>
       </c>
@@ -4324,8 +4879,11 @@
       <c r="G48" s="28" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>95</v>
       </c>
@@ -4347,8 +4905,11 @@
       <c r="G49" s="28" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>96</v>
       </c>
@@ -4370,8 +4931,11 @@
       <c r="G50" s="28" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>97</v>
       </c>
@@ -4393,8 +4957,11 @@
       <c r="G51" s="28" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>98</v>
       </c>
@@ -4416,8 +4983,11 @@
       <c r="G52" s="28" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="28" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>99</v>
       </c>
@@ -4439,8 +5009,11 @@
       <c r="G53" s="28" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>100</v>
       </c>
@@ -4462,8 +5035,11 @@
       <c r="G54" s="28" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>101</v>
       </c>
@@ -4485,8 +5061,11 @@
       <c r="G55" s="28" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>102</v>
       </c>
@@ -4508,8 +5087,11 @@
       <c r="G56" s="28" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>103</v>
       </c>
@@ -4531,8 +5113,11 @@
       <c r="G57" s="28" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>104</v>
       </c>
@@ -4554,8 +5139,11 @@
       <c r="G58" s="28" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="28" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>105</v>
       </c>
@@ -4577,8 +5165,11 @@
       <c r="G59" s="28" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>106</v>
       </c>
@@ -4600,8 +5191,11 @@
       <c r="G60" s="28" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>107</v>
       </c>
@@ -4623,8 +5217,11 @@
       <c r="G61" s="28" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>108</v>
       </c>
@@ -4646,8 +5243,11 @@
       <c r="G62" s="28" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>109</v>
       </c>
@@ -4669,8 +5269,11 @@
       <c r="G63" s="28" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>110</v>
       </c>
@@ -4692,8 +5295,11 @@
       <c r="G64" s="28" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>111</v>
       </c>
@@ -4715,8 +5321,11 @@
       <c r="G65" s="28" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>112</v>
       </c>
@@ -4738,8 +5347,11 @@
       <c r="G66" s="28" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>113</v>
       </c>
@@ -4761,8 +5373,11 @@
       <c r="G67" s="28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>114</v>
       </c>
@@ -4784,8 +5399,11 @@
       <c r="G68" s="28" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>115</v>
       </c>
@@ -4807,8 +5425,11 @@
       <c r="G69" s="28" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>116</v>
       </c>
@@ -4830,8 +5451,11 @@
       <c r="G70" s="28" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>117</v>
       </c>
@@ -4853,8 +5477,11 @@
       <c r="G71" s="28" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="28" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>135</v>
       </c>
@@ -4876,8 +5503,11 @@
       <c r="G72" s="28" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>130</v>
       </c>
@@ -4899,8 +5529,11 @@
       <c r="G73" s="28" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>131</v>
       </c>
@@ -4922,8 +5555,11 @@
       <c r="G74" s="28" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>150</v>
       </c>
@@ -4945,8 +5581,11 @@
       <c r="G75" s="28" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>146</v>
       </c>
@@ -4968,8 +5607,11 @@
       <c r="G76" s="28" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>136</v>
       </c>
@@ -4991,8 +5633,11 @@
       <c r="G77" s="28" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>145</v>
       </c>
@@ -5014,8 +5659,11 @@
       <c r="G78" s="28" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>152</v>
       </c>
@@ -5037,8 +5685,11 @@
       <c r="G79" s="28" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>138</v>
       </c>
@@ -5060,8 +5711,11 @@
       <c r="G80" s="28" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>160</v>
       </c>
@@ -5083,8 +5737,11 @@
       <c r="G81" s="28" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>153</v>
       </c>
@@ -5106,8 +5763,11 @@
       <c r="G82" s="28" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
         <v>159</v>
       </c>
@@ -5129,8 +5789,11 @@
       <c r="G83" s="28" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>137</v>
       </c>
@@ -5152,8 +5815,11 @@
       <c r="G84" s="28" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
         <v>148</v>
       </c>
@@ -5175,8 +5841,11 @@
       <c r="G85" s="28" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>158</v>
       </c>
@@ -5198,8 +5867,11 @@
       <c r="G86" s="28" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
         <v>143</v>
       </c>
@@ -5221,8 +5893,11 @@
       <c r="G87" s="28" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
         <v>151</v>
       </c>
@@ -5244,8 +5919,11 @@
       <c r="G88" s="28" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="28" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>165</v>
       </c>
@@ -5267,8 +5945,11 @@
       <c r="G89" s="28" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
         <v>163</v>
       </c>
@@ -5290,8 +5971,11 @@
       <c r="G90" s="28" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>161</v>
       </c>
@@ -5313,8 +5997,11 @@
       <c r="G91" s="28" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>155</v>
       </c>
@@ -5336,8 +6023,11 @@
       <c r="G92" s="28" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
         <v>134</v>
       </c>
@@ -5359,8 +6049,11 @@
       <c r="G93" s="28" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>121</v>
       </c>
@@ -5382,8 +6075,11 @@
       <c r="G94" s="28" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>122</v>
       </c>
@@ -5405,8 +6101,11 @@
       <c r="G95" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>123</v>
       </c>
@@ -5428,8 +6127,11 @@
       <c r="G96" s="28" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>118</v>
       </c>
@@ -5451,8 +6153,11 @@
       <c r="G97" s="28" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>119</v>
       </c>
@@ -5474,8 +6179,11 @@
       <c r="G98" s="28" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>120</v>
       </c>
@@ -5497,8 +6205,11 @@
       <c r="G99" s="28" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>124</v>
       </c>
@@ -5520,8 +6231,11 @@
       <c r="G100" s="28" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>125</v>
       </c>
@@ -5543,8 +6257,11 @@
       <c r="G101" s="28" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>188</v>
       </c>
@@ -5566,8 +6283,11 @@
       <c r="G102" s="28" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>133</v>
       </c>
@@ -5589,8 +6309,11 @@
       <c r="G103" s="28" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
         <v>147</v>
       </c>
@@ -5612,8 +6335,11 @@
       <c r="G104" s="28" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>126</v>
       </c>
@@ -5635,8 +6361,11 @@
       <c r="G105" s="28" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>142</v>
       </c>
@@ -5658,8 +6387,11 @@
       <c r="G106" s="28" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>154</v>
       </c>
@@ -5681,8 +6413,11 @@
       <c r="G107" s="28" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>140</v>
       </c>
@@ -5704,8 +6439,11 @@
       <c r="G108" s="28" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="28" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>129</v>
       </c>
@@ -5727,8 +6465,11 @@
       <c r="G109" s="28" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="28" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>139</v>
       </c>
@@ -5750,8 +6491,11 @@
       <c r="G110" s="28" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
         <v>156</v>
       </c>
@@ -5773,8 +6517,11 @@
       <c r="G111" s="28" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="28" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>164</v>
       </c>
@@ -5795,6 +6542,9 @@
       </c>
       <c r="G112" s="28" t="s">
         <v>245</v>
+      </c>
+      <c r="H112" s="28" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -9299,28 +10049,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:C106">
-    <cfRule type="expression" dxfId="7" priority="1153">
+    <cfRule type="expression" dxfId="103" priority="1153">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1154">
+    <cfRule type="expression" dxfId="102" priority="1154">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1155">
+    <cfRule type="expression" dxfId="101" priority="1155">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1156">
+    <cfRule type="expression" dxfId="100" priority="1156">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1157">
+    <cfRule type="expression" dxfId="99" priority="1157">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1158">
+    <cfRule type="expression" dxfId="98" priority="1158">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1159">
+    <cfRule type="expression" dxfId="97" priority="1159">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1160">
+    <cfRule type="expression" dxfId="96" priority="1160">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11334,314 +12084,314 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A98:B98 A7:B7">
-    <cfRule type="expression" dxfId="103" priority="49">
+    <cfRule type="expression" dxfId="95" priority="49">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="50">
+    <cfRule type="expression" dxfId="94" priority="50">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="51">
+    <cfRule type="expression" dxfId="93" priority="51">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="52">
+    <cfRule type="expression" dxfId="92" priority="52">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="53">
+    <cfRule type="expression" dxfId="91" priority="53">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="54">
+    <cfRule type="expression" dxfId="90" priority="54">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="55">
+    <cfRule type="expression" dxfId="89" priority="55">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="56">
+    <cfRule type="expression" dxfId="88" priority="56">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39">
-    <cfRule type="expression" dxfId="95" priority="57">
+    <cfRule type="expression" dxfId="87" priority="57">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="58">
+    <cfRule type="expression" dxfId="86" priority="58">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="59">
+    <cfRule type="expression" dxfId="85" priority="59">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="60">
+    <cfRule type="expression" dxfId="84" priority="60">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="61">
+    <cfRule type="expression" dxfId="83" priority="61">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="62">
+    <cfRule type="expression" dxfId="82" priority="62">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="63">
+    <cfRule type="expression" dxfId="81" priority="63">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="64">
+    <cfRule type="expression" dxfId="80" priority="64">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="87" priority="41">
+    <cfRule type="expression" dxfId="79" priority="41">
       <formula>$F101="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="42">
+    <cfRule type="expression" dxfId="78" priority="42">
       <formula>$F101="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="43">
+    <cfRule type="expression" dxfId="77" priority="43">
       <formula>$F101="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="44">
+    <cfRule type="expression" dxfId="76" priority="44">
       <formula>$F101="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="45">
+    <cfRule type="expression" dxfId="75" priority="45">
       <formula>$F101="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="46">
+    <cfRule type="expression" dxfId="74" priority="46">
       <formula>$F101="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="47">
+    <cfRule type="expression" dxfId="73" priority="47">
       <formula>$F101="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="48">
+    <cfRule type="expression" dxfId="72" priority="48">
       <formula>$F101="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="79" priority="33">
+    <cfRule type="expression" dxfId="71" priority="33">
       <formula>$F102="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="34">
+    <cfRule type="expression" dxfId="70" priority="34">
       <formula>$F102="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="35">
+    <cfRule type="expression" dxfId="69" priority="35">
       <formula>$F102="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="36">
+    <cfRule type="expression" dxfId="68" priority="36">
       <formula>$F102="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="37">
+    <cfRule type="expression" dxfId="67" priority="37">
       <formula>$F102="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="38">
+    <cfRule type="expression" dxfId="66" priority="38">
       <formula>$F102="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="39">
+    <cfRule type="expression" dxfId="65" priority="39">
       <formula>$F102="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="40">
+    <cfRule type="expression" dxfId="64" priority="40">
       <formula>$F102="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="71" priority="25">
+    <cfRule type="expression" dxfId="63" priority="25">
       <formula>$F103="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="26">
+    <cfRule type="expression" dxfId="62" priority="26">
       <formula>$F103="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="27">
+    <cfRule type="expression" dxfId="61" priority="27">
       <formula>$F103="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="28">
+    <cfRule type="expression" dxfId="60" priority="28">
       <formula>$F103="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="29">
+    <cfRule type="expression" dxfId="59" priority="29">
       <formula>$F103="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="30">
+    <cfRule type="expression" dxfId="58" priority="30">
       <formula>$F103="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="31">
+    <cfRule type="expression" dxfId="57" priority="31">
       <formula>$F103="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="32">
+    <cfRule type="expression" dxfId="56" priority="32">
       <formula>$F103="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="63" priority="17">
+    <cfRule type="expression" dxfId="55" priority="17">
       <formula>$F105="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="18">
+    <cfRule type="expression" dxfId="54" priority="18">
       <formula>$F105="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="19">
+    <cfRule type="expression" dxfId="53" priority="19">
       <formula>$F105="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="20">
+    <cfRule type="expression" dxfId="52" priority="20">
       <formula>$F105="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="51" priority="21">
       <formula>$F105="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="50" priority="22">
       <formula>$F105="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="23">
+    <cfRule type="expression" dxfId="49" priority="23">
       <formula>$F105="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="48" priority="24">
       <formula>$F105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="55" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>$F106="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="10">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>$F106="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="11">
+    <cfRule type="expression" dxfId="45" priority="11">
       <formula>$F106="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="12">
+    <cfRule type="expression" dxfId="44" priority="12">
       <formula>$F106="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="43" priority="13">
       <formula>$F106="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="14">
+    <cfRule type="expression" dxfId="42" priority="14">
       <formula>$F106="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="15">
+    <cfRule type="expression" dxfId="41" priority="15">
       <formula>$F106="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="40" priority="16">
       <formula>$F106="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>$F104="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>$F104="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$F104="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$F104="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>$F104="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>$F104="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>$F104="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>$F104="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B6">
-    <cfRule type="expression" dxfId="39" priority="65">
+    <cfRule type="expression" dxfId="31" priority="65">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="66">
+    <cfRule type="expression" dxfId="30" priority="66">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="67">
+    <cfRule type="expression" dxfId="29" priority="67">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="68">
+    <cfRule type="expression" dxfId="28" priority="68">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="69">
+    <cfRule type="expression" dxfId="27" priority="69">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="70">
+    <cfRule type="expression" dxfId="26" priority="70">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="71">
+    <cfRule type="expression" dxfId="25" priority="71">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="72">
+    <cfRule type="expression" dxfId="24" priority="72">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B110">
-    <cfRule type="expression" dxfId="31" priority="73">
+    <cfRule type="expression" dxfId="23" priority="73">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="74">
+    <cfRule type="expression" dxfId="22" priority="74">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="75">
+    <cfRule type="expression" dxfId="21" priority="75">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="76">
+    <cfRule type="expression" dxfId="20" priority="76">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="77">
+    <cfRule type="expression" dxfId="19" priority="77">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="78">
+    <cfRule type="expression" dxfId="18" priority="78">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="79">
+    <cfRule type="expression" dxfId="17" priority="79">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="80">
+    <cfRule type="expression" dxfId="16" priority="80">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B38">
-    <cfRule type="expression" dxfId="23" priority="81">
+    <cfRule type="expression" dxfId="15" priority="81">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="82">
+    <cfRule type="expression" dxfId="14" priority="82">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="83">
+    <cfRule type="expression" dxfId="13" priority="83">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="84">
+    <cfRule type="expression" dxfId="12" priority="84">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="85">
+    <cfRule type="expression" dxfId="11" priority="85">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="86">
+    <cfRule type="expression" dxfId="10" priority="86">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="87">
+    <cfRule type="expression" dxfId="9" priority="87">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="88">
+    <cfRule type="expression" dxfId="8" priority="88">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B97">
-    <cfRule type="expression" dxfId="15" priority="89">
+    <cfRule type="expression" dxfId="7" priority="89">
       <formula>#REF!="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="90">
+    <cfRule type="expression" dxfId="6" priority="90">
       <formula>#REF!="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="91">
+    <cfRule type="expression" dxfId="5" priority="91">
       <formula>#REF!="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="92">
+    <cfRule type="expression" dxfId="4" priority="92">
       <formula>#REF!="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="93">
+    <cfRule type="expression" dxfId="3" priority="93">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="94">
+    <cfRule type="expression" dxfId="2" priority="94">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="95">
+    <cfRule type="expression" dxfId="1" priority="95">
       <formula>#REF!="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="96">
+    <cfRule type="expression" dxfId="0" priority="96">
       <formula>#REF!="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11784,12 +12534,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11990,15 +12737,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12023,18 +12782,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87386783-DDA8-4D9D-9418-1E12D68F1355}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4497BB-2D29-4E82-A8DD-4A16B586A2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b437d513-bcd3-4295-b540-77b94a32e6f7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WppRegpack/TestResource/EnvParamaters.xlsx
+++ b/WppRegpack/TestResource/EnvParamaters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnvDetails" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="465">
   <si>
     <t>InstanceToRun</t>
   </si>
@@ -1422,6 +1422,15 @@
   </si>
   <si>
     <t>HK-202</t>
+  </si>
+  <si>
+    <t>GL &gt; Balance Sheet</t>
+  </si>
+  <si>
+    <t>GL &gt; Profit &amp; Loss</t>
+  </si>
+  <si>
+    <t>GL &gt; Trial Balance Detail</t>
   </si>
 </sst>
 </file>
@@ -3205,7 +3214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3228,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>348</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3269,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1672</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6543,204 +6552,183 @@
         <v>461</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G114"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F115" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G115"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F116" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G116"/>
+    <row r="114" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G117"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G118"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G119"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="G120"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="G121"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="25" t="s">
         <v>172</v>
-      </c>
-      <c r="G122"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D123" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F123" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G123"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F124" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G124"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D125" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="F125" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="G125"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G126"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G127"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G128"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G129"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G130"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G131"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G132"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F133" s="26" t="s">
         <v>207</v>
@@ -6749,99 +6737,135 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G134"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="G135"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="G136"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="G137"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="F138" s="26" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G138"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D139" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="F139" s="26" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G139"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F140" s="26" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G140"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F141" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G141"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="G142"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="G143"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G145"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G146"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G144"/>
+      <c r="G147"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
